--- a/Sample Preparation/EBSD_RC3_DIT_SPE_Calculations.xlsx
+++ b/Sample Preparation/EBSD_RC3_DIT_SPE_Calculations.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{255295A2-D13C-498F-95CC-ACF69291B11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/edc05105a1ab0e97/Documents/GitHub/rcsfa-RC3-BSLE-DIT-degradation/Sample Preparation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{255295A2-D13C-498F-95CC-ACF69291B11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2C470EB-97A3-469D-AAED-4B411F9E16C0}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,18 +42,10 @@
   </authors>
   <commentList>
     <comment ref="L5" authorId="0" shapeId="0" xr:uid="{D42941C5-5ED9-4AEC-9D58-C73631055BC4}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t/>
-        </r>
-      </text>
+      <text/>
+    </comment>
+    <comment ref="L7" authorId="0" shapeId="0" xr:uid="{9BFD049D-30B8-428F-ABA0-3661E047E073}">
+      <text/>
     </comment>
   </commentList>
 </comments>
@@ -538,7 +535,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,7 +589,7 @@
       <charset val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -621,6 +618,12 @@
       <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -793,86 +796,88 @@
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -882,6 +887,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCFFCC"/>
       <color rgb="FFE4DFEC"/>
     </mruColors>
   </colors>
@@ -897,9 +903,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -937,7 +943,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1043,7 +1049,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1185,7 +1191,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1195,32 +1201,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q60" sqref="Q60:V61"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" style="23" customWidth="1"/>
-    <col min="3" max="14" width="11.42578125" style="23" customWidth="1"/>
-    <col min="16" max="16" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="22" customWidth="1"/>
+    <col min="3" max="14" width="11.44140625" style="22" customWidth="1"/>
+    <col min="16" max="16" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -1233,45 +1239,45 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="36.75" customHeight="1">
+    <row r="2" spans="1:25" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="16" t="s">
         <v>12</v>
       </c>
       <c r="O2" s="1"/>
@@ -1286,41 +1292,43 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="22.5" customHeight="1">
+    <row r="3" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="31">
         <v>1547.6</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="31">
         <v>566</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="31">
+      <c r="E3" s="31"/>
+      <c r="F3" s="30">
         <f>C3-D3</f>
         <v>981.59999999999991</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="18">
+      <c r="G3" s="31"/>
+      <c r="H3" s="31">
+        <v>11.3279</v>
+      </c>
+      <c r="I3" s="31"/>
+      <c r="J3" s="17">
         <f>(I3-H3)/$Q$13</f>
+        <v>-14.302904040404039</v>
+      </c>
+      <c r="K3" s="17">
+        <f>G3*F3/J3*$Q$12</f>
         <v>0</v>
       </c>
-      <c r="K3" s="18" t="e">
-        <f>G3*F3/J3*$Q$12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L3" s="18">
+      <c r="L3" s="17">
         <v>0.5</v>
       </c>
-      <c r="M3" s="22" t="e">
+      <c r="M3" s="21" t="e">
         <f>L3/K3*1000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N3" s="26">
+      <c r="N3" s="25">
         <v>200</v>
       </c>
       <c r="O3" s="1"/>
@@ -1330,7 +1338,7 @@
       <c r="Q3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="5"/>
+      <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
@@ -1339,41 +1347,43 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="22.5" customHeight="1">
+    <row r="4" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="31">
         <v>1106.0999999999999</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="31">
         <v>820.2</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="21">
+      <c r="E4" s="31"/>
+      <c r="F4" s="20">
         <f>(C4-D4+E4)+(C5-D5+E5)+(C6-D6+E6)</f>
         <v>1553.6</v>
       </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="18">
+      <c r="G4" s="31"/>
+      <c r="H4" s="31">
+        <v>11.4513</v>
+      </c>
+      <c r="I4" s="31"/>
+      <c r="J4" s="17">
         <f>(I4-H4)/$Q$13</f>
+        <v>-14.45871212121212</v>
+      </c>
+      <c r="K4" s="17">
+        <f>G4*F4/J4*$Q$12</f>
         <v>0</v>
       </c>
-      <c r="K4" s="18" t="e">
-        <f>G4*F4/J4*$Q$12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L4" s="18">
+      <c r="L4" s="17">
         <v>0.5</v>
       </c>
-      <c r="M4" s="22" t="e">
+      <c r="M4" s="21" t="e">
         <f>L4/K4*1000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N4" s="26">
+      <c r="N4" s="25">
         <v>200</v>
       </c>
       <c r="O4" s="1"/>
@@ -1383,7 +1393,7 @@
       <c r="Q4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="5"/>
+      <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
@@ -1392,38 +1402,38 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="22.5" customHeight="1">
+    <row r="5" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="31">
         <v>1077.8</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="31">
         <v>107.5</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="18">
+      <c r="E5" s="31"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="26">
         <f>(I5-H5)/$Q$13</f>
         <v>0</v>
       </c>
-      <c r="K5" s="18" t="e">
+      <c r="K5" s="26" t="e">
         <f>G5*F5/J5*$Q$12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="26">
         <v>0.5</v>
       </c>
-      <c r="M5" s="22" t="e">
+      <c r="M5" s="37" t="e">
         <f>L5/K5*1000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N5" s="26">
+      <c r="N5" s="28">
         <v>200</v>
       </c>
       <c r="O5" s="1"/>
@@ -1433,7 +1443,7 @@
       <c r="Q5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="5"/>
+      <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -1442,27 +1452,27 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="22.5" customHeight="1">
+    <row r="6" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="31">
         <v>406</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="31">
         <v>108.6</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="29"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="28"/>
       <c r="O6" s="1"/>
       <c r="P6" s="4" t="s">
         <v>8</v>
@@ -1470,7 +1480,7 @@
       <c r="Q6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R6" s="5"/>
+      <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
@@ -1479,30 +1489,45 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" ht="22.5" customHeight="1">
+    <row r="7" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="31">
         <v>139.6</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="31">
         <v>100</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="31">
+      <c r="E7" s="31"/>
+      <c r="F7" s="30">
         <f>C7-D7</f>
         <v>39.599999999999994</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="29"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31">
+        <v>11.4193</v>
+      </c>
+      <c r="I7" s="31"/>
+      <c r="J7" s="17">
+        <f>(I7-H7)/$Q$13</f>
+        <v>-14.41830808080808</v>
+      </c>
+      <c r="K7" s="17">
+        <f>G7*F7/J7*$Q$12</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="M7" s="21" t="e">
+        <f>L7/K7*1000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N7" s="25">
+        <v>200</v>
+      </c>
       <c r="O7" s="1"/>
       <c r="P7" s="4" t="s">
         <v>9</v>
@@ -1510,7 +1535,7 @@
       <c r="Q7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R7" s="5"/>
+      <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
@@ -1519,41 +1544,43 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="22.5" customHeight="1">
+    <row r="8" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="23">
         <v>247.8</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="23">
         <v>194.6</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="21">
+      <c r="E8" s="23"/>
+      <c r="F8" s="20">
         <f>(C8-D8+E8)+(C9-D9+E9)+(C10-D10+E10)</f>
         <v>300.90000000000003</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="18">
+      <c r="G8" s="23"/>
+      <c r="H8" s="24">
+        <v>11.4559</v>
+      </c>
+      <c r="I8" s="24"/>
+      <c r="J8" s="17">
         <f>(I8-H8)/$Q$13</f>
+        <v>-14.464520202020202</v>
+      </c>
+      <c r="K8" s="17">
+        <f>G8*F8/J8*$Q$12</f>
         <v>0</v>
       </c>
-      <c r="K8" s="18" t="e">
-        <f>G8*F8/J8*$Q$12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L8" s="18">
+      <c r="L8" s="17">
         <v>0.5</v>
       </c>
-      <c r="M8" s="22" t="e">
+      <c r="M8" s="21" t="e">
         <f>L8/K8*1000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N8" s="26">
+      <c r="N8" s="25">
         <v>200</v>
       </c>
       <c r="O8" s="1"/>
@@ -1563,7 +1590,7 @@
       <c r="Q8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R8" s="5"/>
+      <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -1572,64 +1599,64 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="18.75" customHeight="1">
+    <row r="9" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="23">
         <v>313.8</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="23">
         <v>197</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="29"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="28"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="6" t="s">
+      <c r="P9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="18.75" customHeight="1">
+    <row r="10" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="23">
         <v>327</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="23">
         <v>196.1</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="29"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="28"/>
       <c r="O10" s="1"/>
       <c r="P10" s="4" t="s">
         <v>12</v>
@@ -1637,126 +1664,128 @@
       <c r="Q10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="18.75" customHeight="1">
+    <row r="11" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="23">
         <v>323.8</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="23">
         <v>195.6</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="21">
+      <c r="E11" s="23"/>
+      <c r="F11" s="20">
         <f t="shared" ref="F11" si="0">(C11-D11+E11)+(C12-D12+E12)+(C13-D13+E13)</f>
         <v>202.60000000000002</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="18">
+      <c r="G11" s="23"/>
+      <c r="H11" s="24">
+        <v>11.3826</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="17">
         <f>(I11-H11)/$Q$13</f>
+        <v>-14.371969696969696</v>
+      </c>
+      <c r="K11" s="17">
+        <f>G11*F11/J11*$Q$12</f>
         <v>0</v>
       </c>
-      <c r="K11" s="18" t="e">
-        <f>G11*F11/J11*$Q$12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L11" s="18">
+      <c r="L11" s="17">
         <v>0.5</v>
       </c>
-      <c r="M11" s="22" t="e">
+      <c r="M11" s="21" t="e">
         <f t="shared" ref="M11:M71" si="1">L11/K11*1000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N11" s="26">
+      <c r="N11" s="25">
         <v>200</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="18.75" customHeight="1">
+    <row r="12" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="23">
         <v>271.3</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="23">
         <v>196.9</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="29"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="28"/>
       <c r="O12" s="1"/>
       <c r="P12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q12" s="6">
         <v>0.5</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-    </row>
-    <row r="13" spans="1:25" ht="18.75" customHeight="1">
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+    </row>
+    <row r="13" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="23">
         <v>0</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="23">
         <v>0</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="29"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="28"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="8" t="s">
+      <c r="P13" s="7" t="s">
         <v>33</v>
       </c>
       <c r="Q13" s="1">
@@ -1765,49 +1794,51 @@
       <c r="R13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-    </row>
-    <row r="14" spans="1:25" ht="18.75" customHeight="1">
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+    </row>
+    <row r="14" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="23">
         <v>333</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="23">
         <v>195.3</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="21">
+      <c r="E14" s="23"/>
+      <c r="F14" s="20">
         <f t="shared" ref="F14" si="2">(C14-D14+E14)+(C15-D15+E15)+(C16-D16+E16)</f>
         <v>315.7</v>
       </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="18">
+      <c r="G14" s="23"/>
+      <c r="H14" s="24">
+        <v>11.3559</v>
+      </c>
+      <c r="I14" s="24"/>
+      <c r="J14" s="17">
         <f>(I14-H14)/$Q$13</f>
+        <v>-14.338257575757575</v>
+      </c>
+      <c r="K14" s="17">
+        <f>G14*F14/J14*$Q$12</f>
         <v>0</v>
       </c>
-      <c r="K14" s="18" t="e">
-        <f>G14*F14/J14*$Q$12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L14" s="18">
+      <c r="L14" s="17">
         <v>0.5</v>
       </c>
-      <c r="M14" s="22" t="e">
+      <c r="M14" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N14" s="26">
+      <c r="N14" s="25">
         <v>200</v>
       </c>
       <c r="O14" s="1"/>
@@ -1817,73 +1848,73 @@
       <c r="Q14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-    </row>
-    <row r="15" spans="1:25" ht="18.75" customHeight="1">
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+    </row>
+    <row r="15" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="23">
         <v>237</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="23">
         <v>195.7</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="29"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="28"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="9" t="s">
+      <c r="P15" s="8" t="s">
         <v>36</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-    </row>
-    <row r="16" spans="1:25" ht="18.75" customHeight="1">
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+    </row>
+    <row r="16" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="23">
         <v>333.4</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="23">
         <v>196.7</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="29"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="28"/>
       <c r="O16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -1893,137 +1924,139 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="18.75" customHeight="1">
+    <row r="17" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="23">
         <v>299.2</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="23">
         <v>194.6</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="21">
+      <c r="E17" s="23"/>
+      <c r="F17" s="20">
         <f t="shared" ref="F17" si="3">(C17-D17+E17)+(C18-D18+E18)+(C19-D19+E19)</f>
         <v>242.2</v>
       </c>
-      <c r="G17" s="24"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="18">
+      <c r="G17" s="23"/>
+      <c r="H17" s="24">
+        <v>11.332599999999999</v>
+      </c>
+      <c r="I17" s="24"/>
+      <c r="J17" s="17">
         <f>(I17-H17)/$Q$13</f>
+        <v>-14.308838383838383</v>
+      </c>
+      <c r="K17" s="17">
+        <f>G17*F17/J17*$Q$12</f>
         <v>0</v>
       </c>
-      <c r="K17" s="18" t="e">
-        <f>G17*F17/J17*$Q$12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L17" s="18">
+      <c r="L17" s="17">
         <v>0.5</v>
       </c>
-      <c r="M17" s="22" t="e">
+      <c r="M17" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N17" s="26">
+      <c r="N17" s="25">
         <v>200</v>
       </c>
       <c r="O17" s="1"/>
-      <c r="P17" s="10" t="s">
+      <c r="P17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="Q17" s="11" t="s">
+      <c r="Q17" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="R17" s="11" t="s">
+      <c r="R17" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="S17" s="11" t="s">
+      <c r="S17" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="T17" s="11" t="s">
+      <c r="T17" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="U17" s="11" t="s">
+      <c r="U17" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="V17" s="11" t="s">
+      <c r="V17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="W17" s="33" t="s">
+      <c r="W17" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="X17" s="35" t="s">
+      <c r="X17" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="Y17" s="5"/>
-    </row>
-    <row r="18" spans="1:25" ht="18.75" customHeight="1">
+      <c r="Y17" s="1"/>
+    </row>
+    <row r="18" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="23">
         <v>334</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="23">
         <v>196.4</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="29"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="28"/>
       <c r="O18" s="1"/>
-      <c r="P18" s="12" t="s">
+      <c r="P18" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="Q18" s="13" t="s">
+      <c r="Q18" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="R18" s="13" t="s">
+      <c r="R18" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="S18" s="13" t="s">
+      <c r="S18" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="T18" s="13" t="s">
+      <c r="T18" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="U18" s="13" t="s">
+      <c r="U18" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="V18" s="13" t="s">
+      <c r="V18" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="W18" s="34"/>
-      <c r="X18" s="36"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="35"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" ht="18.75" customHeight="1">
+    <row r="19" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="29"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="28"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -2038,67 +2071,69 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" ht="18.75" customHeight="1">
+    <row r="20" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="23">
         <v>262.89999999999998</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="23">
         <v>196.7</v>
       </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="21">
+      <c r="E20" s="23"/>
+      <c r="F20" s="20">
         <f t="shared" ref="F20" si="4">(C20-D20+E20)+(C21-D21+E21)+(C22-D22+E22)</f>
         <v>319.19999999999993</v>
       </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="18">
+      <c r="G20" s="23"/>
+      <c r="H20" s="24">
+        <v>11.3812</v>
+      </c>
+      <c r="I20" s="24"/>
+      <c r="J20" s="17">
         <f>(I20-H20)/$Q$13</f>
+        <v>-14.370202020202019</v>
+      </c>
+      <c r="K20" s="17">
+        <f>G20*F20/J20*$Q$12</f>
         <v>0</v>
       </c>
-      <c r="K20" s="18" t="e">
-        <f>G20*F20/J20*$Q$12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L20" s="18">
+      <c r="L20" s="17">
         <v>0.5</v>
       </c>
-      <c r="M20" s="22" t="e">
+      <c r="M20" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N20" s="26">
+      <c r="N20" s="25">
         <v>200</v>
       </c>
       <c r="O20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="18.75" customHeight="1">
+    <row r="21" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="23">
         <v>326.7</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="23">
         <v>196.3</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="29"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="28"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -2111,27 +2146,27 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="18.75" customHeight="1">
+    <row r="22" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="23">
         <v>318.2</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="23">
         <v>195.6</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="29"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="28"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -2144,41 +2179,43 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" ht="18.75" customHeight="1">
+    <row r="23" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="23">
         <v>257.89999999999998</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="23">
         <v>195.2</v>
       </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="21">
+      <c r="E23" s="23"/>
+      <c r="F23" s="20">
         <f t="shared" ref="F23" si="5">(C23-D23+E23)+(C24-D24+E24)+(C25-D25+E25)</f>
         <v>293</v>
       </c>
-      <c r="G23" s="24"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="18">
+      <c r="G23" s="23"/>
+      <c r="H23" s="24">
+        <v>11.430999999999999</v>
+      </c>
+      <c r="I23" s="24"/>
+      <c r="J23" s="17">
         <f>(I23-H23)/$Q$13</f>
+        <v>-14.433080808080806</v>
+      </c>
+      <c r="K23" s="17">
+        <f>G23*F23/J23*$Q$12</f>
         <v>0</v>
       </c>
-      <c r="K23" s="18" t="e">
-        <f>G23*F23/J23*$Q$12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L23" s="18">
+      <c r="L23" s="17">
         <v>0.5</v>
       </c>
-      <c r="M23" s="22" t="e">
+      <c r="M23" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N23" s="26">
+      <c r="N23" s="25">
         <v>200</v>
       </c>
       <c r="O23" s="1"/>
@@ -2193,27 +2230,27 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" ht="18.75" customHeight="1">
+    <row r="24" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="23">
         <v>297.3</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="23">
         <v>196.9</v>
       </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="29"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="28"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -2226,27 +2263,27 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" ht="18.75" customHeight="1">
+    <row r="25" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="23">
         <v>323.39999999999998</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="23">
         <v>193.5</v>
       </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="29"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="28"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -2259,43 +2296,45 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="18.75" customHeight="1">
+    <row r="26" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="23">
         <v>284.8</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="23">
         <v>195.8</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="23">
         <v>40</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="20">
         <f t="shared" ref="F26" si="6">(C26-D26+E26)+(C27-D27+E27)+(C28-D28+E28)</f>
         <v>381</v>
       </c>
-      <c r="G26" s="24"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="18">
+      <c r="G26" s="23"/>
+      <c r="H26" s="24">
+        <v>11.401</v>
+      </c>
+      <c r="I26" s="24"/>
+      <c r="J26" s="17">
         <f>(I26-H26)/$Q$13</f>
+        <v>-14.395202020202019</v>
+      </c>
+      <c r="K26" s="17">
+        <f>G26*F26/J26*$Q$12</f>
         <v>0</v>
       </c>
-      <c r="K26" s="18" t="e">
-        <f>G26*F26/J26*$Q$12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L26" s="18">
+      <c r="L26" s="17">
         <v>0.5</v>
       </c>
-      <c r="M26" s="22" t="e">
+      <c r="M26" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N26" s="26">
+      <c r="N26" s="25">
         <v>200</v>
       </c>
       <c r="O26" s="1"/>
@@ -2310,29 +2349,29 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="18.75" customHeight="1">
+    <row r="27" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="23">
         <v>281.2</v>
       </c>
-      <c r="D27" s="24">
+      <c r="D27" s="23">
         <v>196.9</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="23">
         <v>40</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="29"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="28"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -2345,29 +2384,29 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="18.75" customHeight="1">
+    <row r="28" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="23">
         <v>284</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="23">
         <v>196.3</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="23">
         <v>40</v>
       </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="29"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="28"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -2380,43 +2419,45 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="23">
         <v>283.2</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29" s="23">
         <v>195.9</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="23">
         <v>40</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="20">
         <f t="shared" ref="F29" si="7">(C29-D29+E29)+(C30-D30+E30)+(C31-D31+E31)</f>
         <v>385</v>
       </c>
-      <c r="G29" s="24"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="18">
+      <c r="G29" s="23"/>
+      <c r="H29" s="24">
+        <v>11.397600000000001</v>
+      </c>
+      <c r="I29" s="24"/>
+      <c r="J29" s="17">
         <f>(I29-H29)/$Q$13</f>
+        <v>-14.390909090909091</v>
+      </c>
+      <c r="K29" s="17">
+        <f>G29*F29/J29*$Q$12</f>
         <v>0</v>
       </c>
-      <c r="K29" s="18" t="e">
-        <f>G29*F29/J29*$Q$12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L29" s="18">
+      <c r="L29" s="17">
         <v>0.5</v>
       </c>
-      <c r="M29" s="22" t="e">
+      <c r="M29" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N29" s="26">
+      <c r="N29" s="25">
         <v>200</v>
       </c>
       <c r="O29" s="1"/>
@@ -2431,29 +2472,29 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="23">
         <v>287.60000000000002</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30" s="23">
         <v>197</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="23">
         <v>40</v>
       </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="29"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="28"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -2466,29 +2507,29 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="23">
         <v>283.3</v>
       </c>
-      <c r="D31" s="24">
+      <c r="D31" s="23">
         <v>196.2</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="23">
         <v>40</v>
       </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="29"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="28"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -2501,43 +2542,45 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="23">
         <v>319.8</v>
       </c>
-      <c r="D32" s="24">
+      <c r="D32" s="23">
         <v>195.1</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E32" s="23">
         <v>40</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="20">
         <f t="shared" ref="F32" si="8">(C32-D32+E32)+(C33-D33+E33)+(C34-D34+E34)</f>
         <v>334.30000000000007</v>
       </c>
-      <c r="G32" s="24"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="18">
+      <c r="G32" s="23"/>
+      <c r="H32" s="24">
+        <v>11.374700000000001</v>
+      </c>
+      <c r="I32" s="24"/>
+      <c r="J32" s="17">
         <f>(I32-H32)/$Q$13</f>
+        <v>-14.361994949494949</v>
+      </c>
+      <c r="K32" s="17">
+        <f>G32*F32/J32*$Q$12</f>
         <v>0</v>
       </c>
-      <c r="K32" s="18" t="e">
-        <f>G32*F32/J32*$Q$12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L32" s="18">
+      <c r="L32" s="17">
         <v>0.5</v>
       </c>
-      <c r="M32" s="22" t="e">
+      <c r="M32" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N32" s="26">
+      <c r="N32" s="25">
         <v>200</v>
       </c>
       <c r="O32" s="1"/>
@@ -2552,29 +2595,29 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="23">
         <v>0</v>
       </c>
-      <c r="D33" s="24">
+      <c r="D33" s="23">
         <v>0</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="23">
         <v>40</v>
       </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="29"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="28"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
@@ -2587,29 +2630,29 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="24">
+      <c r="C34" s="23">
         <v>285.8</v>
       </c>
-      <c r="D34" s="24">
+      <c r="D34" s="23">
         <v>196.2</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E34" s="23">
         <v>40</v>
       </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="29"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="28"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
@@ -2622,43 +2665,45 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="23">
         <v>297.8</v>
       </c>
-      <c r="D35" s="24">
+      <c r="D35" s="23">
         <v>196.7</v>
       </c>
-      <c r="E35" s="24">
+      <c r="E35" s="23">
         <v>40</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F35" s="20">
         <f t="shared" ref="F35" si="9">(C35-D35+E35)+(C36-D36+E36)+(C37-D37+E37)</f>
         <v>411.5</v>
       </c>
-      <c r="G35" s="24"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="18">
+      <c r="G35" s="23"/>
+      <c r="H35" s="24">
+        <v>11.422700000000001</v>
+      </c>
+      <c r="I35" s="24"/>
+      <c r="J35" s="17">
         <f>(I35-H35)/$Q$13</f>
+        <v>-14.42260101010101</v>
+      </c>
+      <c r="K35" s="17">
+        <f>G35*F35/J35*$Q$12</f>
         <v>0</v>
       </c>
-      <c r="K35" s="18" t="e">
-        <f>G35*F35/J35*$Q$12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L35" s="18">
+      <c r="L35" s="17">
         <v>0.5</v>
       </c>
-      <c r="M35" s="22" t="e">
+      <c r="M35" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N35" s="26">
+      <c r="N35" s="25">
         <v>200</v>
       </c>
       <c r="O35" s="1"/>
@@ -2673,123 +2718,125 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="24">
+      <c r="C36" s="23">
         <v>294.39999999999998</v>
       </c>
-      <c r="D36" s="24">
+      <c r="D36" s="23">
         <v>196.9</v>
       </c>
-      <c r="E36" s="24">
+      <c r="E36" s="23">
         <v>40</v>
       </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="29"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="28"/>
       <c r="O36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="24">
+      <c r="C37" s="23">
         <v>289.39999999999998</v>
       </c>
-      <c r="D37" s="24">
+      <c r="D37" s="23">
         <v>196.5</v>
       </c>
-      <c r="E37" s="24">
+      <c r="E37" s="23">
         <v>40</v>
       </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="29"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="28"/>
       <c r="O37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="23">
         <v>292</v>
       </c>
-      <c r="D38" s="24">
+      <c r="D38" s="23">
         <v>196.3</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="23">
         <v>40</v>
       </c>
-      <c r="F38" s="21">
+      <c r="F38" s="20">
         <f t="shared" ref="F38" si="10">(C38-D38+E38)+(C39-D39+E39)+(C40-D40+E40)</f>
         <v>366.2</v>
       </c>
-      <c r="G38" s="24"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="18">
+      <c r="G38" s="23"/>
+      <c r="H38" s="24">
+        <v>11.4329</v>
+      </c>
+      <c r="I38" s="24"/>
+      <c r="J38" s="17">
         <f>(I38-H38)/$Q$13</f>
+        <v>-14.435479797979797</v>
+      </c>
+      <c r="K38" s="17">
+        <f>G38*F38/J38*$Q$12</f>
         <v>0</v>
       </c>
-      <c r="K38" s="18" t="e">
-        <f>G38*F38/J38*$Q$12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L38" s="18">
+      <c r="L38" s="17">
         <v>0.5</v>
       </c>
-      <c r="M38" s="22" t="e">
+      <c r="M38" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N38" s="26">
+      <c r="N38" s="25">
         <v>200</v>
       </c>
       <c r="O38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="24">
+      <c r="C39" s="23">
         <v>255.2</v>
       </c>
-      <c r="D39" s="24">
+      <c r="D39" s="23">
         <v>196.1</v>
       </c>
-      <c r="E39" s="24">
+      <c r="E39" s="23">
         <v>40</v>
       </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="29"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="28"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
@@ -2802,29 +2849,29 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="24">
+      <c r="C40" s="23">
         <v>286.5</v>
       </c>
-      <c r="D40" s="24">
+      <c r="D40" s="23">
         <v>195.1</v>
       </c>
-      <c r="E40" s="24">
+      <c r="E40" s="23">
         <v>40</v>
       </c>
-      <c r="F40" s="21"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="29"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="28"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
@@ -2837,43 +2884,45 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="24">
+      <c r="C41" s="23">
         <v>292.7</v>
       </c>
-      <c r="D41" s="24">
+      <c r="D41" s="23">
         <v>195.9</v>
       </c>
-      <c r="E41" s="24">
+      <c r="E41" s="23">
         <v>40</v>
       </c>
-      <c r="F41" s="21">
+      <c r="F41" s="20">
         <f t="shared" ref="F41" si="11">(C41-D41+E41)+(C42-D42+E42)+(C43-D43+E43)</f>
         <v>405.4</v>
       </c>
-      <c r="G41" s="24"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="18">
+      <c r="G41" s="23"/>
+      <c r="H41" s="24">
+        <v>11.4053</v>
+      </c>
+      <c r="I41" s="24"/>
+      <c r="J41" s="17">
         <f>(I41-H41)/$Q$13</f>
+        <v>-14.400631313131314</v>
+      </c>
+      <c r="K41" s="17">
+        <f>G41*F41/J41*$Q$12</f>
         <v>0</v>
       </c>
-      <c r="K41" s="18" t="e">
-        <f>G41*F41/J41*$Q$12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L41" s="18">
+      <c r="L41" s="17">
         <v>0.5</v>
       </c>
-      <c r="M41" s="22" t="e">
+      <c r="M41" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N41" s="26">
+      <c r="N41" s="25">
         <v>200</v>
       </c>
       <c r="O41" s="1"/>
@@ -2888,29 +2937,29 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="24">
+      <c r="C42" s="23">
         <v>290.5</v>
       </c>
-      <c r="D42" s="24">
+      <c r="D42" s="23">
         <v>197.3</v>
       </c>
-      <c r="E42" s="24">
+      <c r="E42" s="23">
         <v>40</v>
       </c>
-      <c r="F42" s="21"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="29"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="28"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
@@ -2923,29 +2972,29 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="24">
+      <c r="C43" s="23">
         <v>292.7</v>
       </c>
-      <c r="D43" s="24">
+      <c r="D43" s="23">
         <v>197.3</v>
       </c>
-      <c r="E43" s="24">
+      <c r="E43" s="23">
         <v>40</v>
       </c>
-      <c r="F43" s="21"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="29"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="28"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
@@ -2958,43 +3007,45 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="24">
+      <c r="C44" s="23">
         <v>292.10000000000002</v>
       </c>
-      <c r="D44" s="24">
+      <c r="D44" s="23">
         <v>196</v>
       </c>
-      <c r="E44" s="24">
+      <c r="E44" s="23">
         <v>40</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F44" s="20">
         <f t="shared" ref="F44" si="12">(C44-D44+E44)+(C45-D45+E45)+(C46-D46+E46)</f>
         <v>406.9</v>
       </c>
-      <c r="G44" s="24"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="18">
+      <c r="G44" s="23"/>
+      <c r="H44" s="24">
+        <v>11.388400000000001</v>
+      </c>
+      <c r="I44" s="24"/>
+      <c r="J44" s="17">
         <f>(I44-H44)/$Q$13</f>
+        <v>-14.37929292929293</v>
+      </c>
+      <c r="K44" s="17">
+        <f>G44*F44/J44*$Q$12</f>
         <v>0</v>
       </c>
-      <c r="K44" s="18" t="e">
-        <f>G44*F44/J44*$Q$12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L44" s="18">
+      <c r="L44" s="17">
         <v>0.5</v>
       </c>
-      <c r="M44" s="22" t="e">
+      <c r="M44" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N44" s="26">
+      <c r="N44" s="25">
         <v>200</v>
       </c>
       <c r="O44" s="1"/>
@@ -3009,29 +3060,29 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="24">
+      <c r="C45" s="23">
         <v>294.5</v>
       </c>
-      <c r="D45" s="24">
+      <c r="D45" s="23">
         <v>195.6</v>
       </c>
-      <c r="E45" s="24">
+      <c r="E45" s="23">
         <v>40</v>
       </c>
-      <c r="F45" s="21"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="29"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="28"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
@@ -3044,29 +3095,29 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="24">
+      <c r="C46" s="23">
         <v>288.7</v>
       </c>
-      <c r="D46" s="24">
+      <c r="D46" s="23">
         <v>196.8</v>
       </c>
-      <c r="E46" s="24">
+      <c r="E46" s="23">
         <v>40</v>
       </c>
-      <c r="F46" s="21"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="28"/>
-      <c r="N46" s="29"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="28"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
@@ -3079,43 +3130,45 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="24">
+      <c r="C47" s="23">
         <v>288.10000000000002</v>
       </c>
-      <c r="D47" s="24">
+      <c r="D47" s="23">
         <v>195.3</v>
       </c>
-      <c r="E47" s="24">
+      <c r="E47" s="23">
         <v>40</v>
       </c>
-      <c r="F47" s="21">
+      <c r="F47" s="20">
         <f t="shared" ref="F47" si="13">(C47-D47+E47)+(C48-D48+E48)+(C49-D49+E49)</f>
         <v>384.20000000000005</v>
       </c>
-      <c r="G47" s="24"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="18">
+      <c r="G47" s="23"/>
+      <c r="H47" s="24">
+        <v>11.3255</v>
+      </c>
+      <c r="I47" s="24"/>
+      <c r="J47" s="17">
         <f>(I47-H47)/$Q$13</f>
+        <v>-14.299873737373737</v>
+      </c>
+      <c r="K47" s="17">
+        <f>G47*F47/J47*$Q$12</f>
         <v>0</v>
       </c>
-      <c r="K47" s="18" t="e">
-        <f>G47*F47/J47*$Q$12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L47" s="18">
+      <c r="L47" s="17">
         <v>0.5</v>
       </c>
-      <c r="M47" s="22" t="e">
+      <c r="M47" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N47" s="26">
+      <c r="N47" s="25">
         <v>200</v>
       </c>
       <c r="O47" s="1"/>
@@ -3130,29 +3183,29 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C48" s="24">
+      <c r="C48" s="23">
         <v>286.2</v>
       </c>
-      <c r="D48" s="24">
+      <c r="D48" s="23">
         <v>196.4</v>
       </c>
-      <c r="E48" s="24">
+      <c r="E48" s="23">
         <v>40</v>
       </c>
-      <c r="F48" s="21"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="28"/>
-      <c r="N48" s="29"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="28"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
@@ -3165,1770 +3218,1814 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="2:14">
-      <c r="B49" s="20" t="s">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B49" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="24">
+      <c r="C49" s="23">
         <v>279.10000000000002</v>
       </c>
-      <c r="D49" s="24">
+      <c r="D49" s="23">
         <v>197.5</v>
       </c>
-      <c r="E49" s="24">
+      <c r="E49" s="23">
         <v>40</v>
       </c>
-      <c r="F49" s="21"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="29"/>
-    </row>
-    <row r="50" spans="2:14">
-      <c r="B50" s="20" t="s">
+      <c r="F49" s="20"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="28"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B50" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C50" s="24">
+      <c r="C50" s="23">
         <v>282.2</v>
       </c>
-      <c r="D50" s="24">
+      <c r="D50" s="23">
         <v>196.2</v>
       </c>
-      <c r="E50" s="24">
+      <c r="E50" s="23">
         <v>40</v>
       </c>
-      <c r="F50" s="21">
+      <c r="F50" s="20">
         <f t="shared" ref="F50" si="14">(C50-D50+E50)+(C51-D51+E51)+(C52-D52+E52)</f>
         <v>401</v>
       </c>
-      <c r="G50" s="24"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="18">
+      <c r="G50" s="23"/>
+      <c r="H50" s="24">
+        <v>11.487399999999999</v>
+      </c>
+      <c r="I50" s="24"/>
+      <c r="J50" s="17">
         <f>(I50-H50)/$Q$13</f>
+        <v>-14.504292929292928</v>
+      </c>
+      <c r="K50" s="17">
+        <f>G50*F50/J50*$Q$12</f>
         <v>0</v>
       </c>
-      <c r="K50" s="18" t="e">
-        <f>G50*F50/J50*$Q$12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L50" s="18">
+      <c r="L50" s="17">
         <v>0.5</v>
       </c>
-      <c r="M50" s="22" t="e">
+      <c r="M50" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N50" s="26">
+      <c r="N50" s="25">
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="2:14">
-      <c r="B51" s="20" t="s">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B51" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="24">
+      <c r="C51" s="23">
         <v>299.39999999999998</v>
       </c>
-      <c r="D51" s="24">
+      <c r="D51" s="23">
         <v>197.8</v>
       </c>
-      <c r="E51" s="24">
+      <c r="E51" s="23">
         <v>40</v>
       </c>
-      <c r="F51" s="21"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="29"/>
-    </row>
-    <row r="52" spans="2:14">
-      <c r="B52" s="20" t="s">
+      <c r="F51" s="20"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="28"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B52" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C52" s="24">
+      <c r="C52" s="23">
         <v>289</v>
       </c>
-      <c r="D52" s="24">
+      <c r="D52" s="23">
         <v>195.6</v>
       </c>
-      <c r="E52" s="24">
+      <c r="E52" s="23">
         <v>40</v>
       </c>
-      <c r="F52" s="21"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="28"/>
-      <c r="N52" s="29"/>
-    </row>
-    <row r="53" spans="2:14">
-      <c r="B53" s="20" t="s">
+      <c r="F52" s="20"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="28"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B53" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C53" s="24">
+      <c r="C53" s="23">
         <v>277</v>
       </c>
-      <c r="D53" s="24">
+      <c r="D53" s="23">
         <v>195.6</v>
       </c>
-      <c r="E53" s="24">
+      <c r="E53" s="23">
         <v>40</v>
       </c>
-      <c r="F53" s="21">
+      <c r="F53" s="20">
         <f t="shared" ref="F53" si="15">(C53-D53+E53)+(C54-D54+E54)+(C55-D55+E55)</f>
         <v>382.59999999999997</v>
       </c>
-      <c r="G53" s="24"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="18">
+      <c r="G53" s="23"/>
+      <c r="H53" s="24">
+        <v>11.4049</v>
+      </c>
+      <c r="I53" s="24"/>
+      <c r="J53" s="17">
         <f>(I53-H53)/$Q$13</f>
+        <v>-14.400126262626262</v>
+      </c>
+      <c r="K53" s="17">
+        <f>G53*F53/J53*$Q$12</f>
         <v>0</v>
       </c>
-      <c r="K53" s="18" t="e">
-        <f>G53*F53/J53*$Q$12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L53" s="18">
+      <c r="L53" s="17">
         <v>0.5</v>
       </c>
-      <c r="M53" s="22" t="e">
+      <c r="M53" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N53" s="26">
+      <c r="N53" s="25">
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="2:14">
-      <c r="B54" s="20" t="s">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B54" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C54" s="24">
+      <c r="C54" s="23">
         <v>285.89999999999998</v>
       </c>
-      <c r="D54" s="24">
+      <c r="D54" s="23">
         <v>196.9</v>
       </c>
-      <c r="E54" s="24">
+      <c r="E54" s="23">
         <v>40</v>
       </c>
-      <c r="F54" s="21"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="28"/>
-      <c r="N54" s="29"/>
-    </row>
-    <row r="55" spans="2:14">
-      <c r="B55" s="20" t="s">
+      <c r="F54" s="20"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="27"/>
+      <c r="N54" s="28"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B55" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C55" s="24">
+      <c r="C55" s="23">
         <v>288.89999999999998</v>
       </c>
-      <c r="D55" s="24">
+      <c r="D55" s="23">
         <v>196.7</v>
       </c>
-      <c r="E55" s="24">
+      <c r="E55" s="23">
         <v>40</v>
       </c>
-      <c r="F55" s="21"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="28"/>
-      <c r="N55" s="29"/>
-    </row>
-    <row r="56" spans="2:14">
-      <c r="B56" s="20" t="s">
+      <c r="F55" s="20"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="27"/>
+      <c r="N55" s="28"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B56" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C56" s="24">
+      <c r="C56" s="23">
         <v>287.39999999999998</v>
       </c>
-      <c r="D56" s="24">
+      <c r="D56" s="23">
         <v>195.9</v>
       </c>
-      <c r="E56" s="24">
+      <c r="E56" s="23">
         <v>40</v>
       </c>
-      <c r="F56" s="21">
+      <c r="F56" s="20">
         <f t="shared" ref="F56" si="16">(C56-D56+E56)+(C57-D57+E57)+(C58-D58+E58)</f>
         <v>391.09999999999997</v>
       </c>
-      <c r="G56" s="24"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="18">
+      <c r="G56" s="23"/>
+      <c r="H56" s="24">
+        <v>11.3728</v>
+      </c>
+      <c r="I56" s="24"/>
+      <c r="J56" s="17">
         <f>(I56-H56)/$Q$13</f>
+        <v>-14.359595959595959</v>
+      </c>
+      <c r="K56" s="17">
+        <f>G56*F56/J56*$Q$12</f>
         <v>0</v>
       </c>
-      <c r="K56" s="18" t="e">
-        <f>G56*F56/J56*$Q$12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L56" s="18">
+      <c r="L56" s="17">
         <v>0.5</v>
       </c>
-      <c r="M56" s="22" t="e">
+      <c r="M56" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N56" s="26">
+      <c r="N56" s="25">
         <v>200</v>
       </c>
     </row>
-    <row r="57" spans="2:14">
-      <c r="B57" s="20" t="s">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B57" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C57" s="24">
+      <c r="C57" s="23">
         <v>286.89999999999998</v>
       </c>
-      <c r="D57" s="24">
+      <c r="D57" s="23">
         <v>196.4</v>
       </c>
-      <c r="E57" s="24">
+      <c r="E57" s="23">
         <v>40</v>
       </c>
-      <c r="F57" s="21"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="28"/>
-      <c r="N57" s="29"/>
-    </row>
-    <row r="58" spans="2:14">
-      <c r="B58" s="20" t="s">
+      <c r="F57" s="20"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="27"/>
+      <c r="N57" s="28"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B58" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C58" s="24">
+      <c r="C58" s="23">
         <v>286.3</v>
       </c>
-      <c r="D58" s="24">
+      <c r="D58" s="23">
         <v>197.2</v>
       </c>
-      <c r="E58" s="24">
+      <c r="E58" s="23">
         <v>40</v>
       </c>
-      <c r="F58" s="21"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="27"/>
-      <c r="L58" s="27"/>
-      <c r="M58" s="28"/>
-      <c r="N58" s="29"/>
-    </row>
-    <row r="59" spans="2:14">
-      <c r="B59" s="20" t="s">
+      <c r="F58" s="20"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="28"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B59" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C59" s="24">
+      <c r="C59" s="23">
         <v>290.3</v>
       </c>
-      <c r="D59" s="24">
+      <c r="D59" s="23">
         <v>196.3</v>
       </c>
-      <c r="E59" s="24">
+      <c r="E59" s="23">
         <v>40</v>
       </c>
-      <c r="F59" s="21">
+      <c r="F59" s="20">
         <f t="shared" ref="F59" si="17">(C59-D59+E59)+(C60-D60+E60)+(C61-D61+E61)</f>
         <v>388.29999999999995</v>
       </c>
-      <c r="G59" s="24"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="18">
+      <c r="G59" s="23"/>
+      <c r="H59" s="24">
+        <v>11.4032</v>
+      </c>
+      <c r="I59" s="24"/>
+      <c r="J59" s="17">
         <f>(I59-H59)/$Q$13</f>
+        <v>-14.397979797979797</v>
+      </c>
+      <c r="K59" s="17">
+        <f>G59*F59/J59*$Q$12</f>
         <v>0</v>
       </c>
-      <c r="K59" s="18" t="e">
-        <f>G59*F59/J59*$Q$12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L59" s="18">
+      <c r="L59" s="17">
         <v>0.5</v>
       </c>
-      <c r="M59" s="22" t="e">
+      <c r="M59" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N59" s="26">
+      <c r="N59" s="25">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="2:14">
-      <c r="B60" s="20" t="s">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B60" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C60" s="24">
+      <c r="C60" s="23">
         <v>295.7</v>
       </c>
-      <c r="D60" s="24">
+      <c r="D60" s="23">
         <v>196.9</v>
       </c>
-      <c r="E60" s="24">
+      <c r="E60" s="23">
         <v>40</v>
       </c>
-      <c r="F60" s="21"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="27"/>
-      <c r="L60" s="27"/>
-      <c r="M60" s="28"/>
-      <c r="N60" s="29"/>
-    </row>
-    <row r="61" spans="2:14">
-      <c r="B61" s="20" t="s">
+      <c r="F60" s="20"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="26"/>
+      <c r="M60" s="27"/>
+      <c r="N60" s="28"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B61" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C61" s="24">
+      <c r="C61" s="23">
         <v>271.60000000000002</v>
       </c>
-      <c r="D61" s="24">
+      <c r="D61" s="23">
         <v>196.1</v>
       </c>
-      <c r="E61" s="24">
+      <c r="E61" s="23">
         <v>40</v>
       </c>
-      <c r="F61" s="21"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="27"/>
-      <c r="L61" s="27"/>
-      <c r="M61" s="28"/>
-      <c r="N61" s="29"/>
-    </row>
-    <row r="62" spans="2:14">
-      <c r="B62" s="20" t="s">
+      <c r="F61" s="20"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="26"/>
+      <c r="M61" s="27"/>
+      <c r="N61" s="28"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B62" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C62" s="24">
+      <c r="C62" s="23">
         <v>317.89999999999998</v>
       </c>
-      <c r="D62" s="24">
+      <c r="D62" s="23">
         <v>195.6</v>
       </c>
-      <c r="E62" s="24"/>
-      <c r="F62" s="21">
+      <c r="E62" s="23"/>
+      <c r="F62" s="20">
         <f t="shared" ref="F62" si="18">(C62-D62+E62)+(C63-D63+E63)+(C64-D64+E64)</f>
         <v>359</v>
       </c>
-      <c r="G62" s="24"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="18">
+      <c r="G62" s="23"/>
+      <c r="H62" s="24">
+        <v>11.4246</v>
+      </c>
+      <c r="I62" s="24"/>
+      <c r="J62" s="17">
         <f>(I62-H62)/$Q$13</f>
+        <v>-14.424999999999999</v>
+      </c>
+      <c r="K62" s="17">
+        <f>G62*F62/J62*$Q$12</f>
         <v>0</v>
       </c>
-      <c r="K62" s="18" t="e">
-        <f>G62*F62/J62*$Q$12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L62" s="18">
+      <c r="L62" s="17">
         <v>0.5</v>
       </c>
-      <c r="M62" s="22" t="e">
+      <c r="M62" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N62" s="26">
+      <c r="N62" s="25">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="2:14">
-      <c r="B63" s="20" t="s">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B63" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C63" s="24">
+      <c r="C63" s="23">
         <v>311</v>
       </c>
-      <c r="D63" s="24">
+      <c r="D63" s="23">
         <v>195.6</v>
       </c>
-      <c r="E63" s="24"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="27"/>
-      <c r="L63" s="27"/>
-      <c r="M63" s="28"/>
-      <c r="N63" s="29"/>
-    </row>
-    <row r="64" spans="2:14">
-      <c r="B64" s="20" t="s">
+      <c r="E63" s="23"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="26"/>
+      <c r="L63" s="26"/>
+      <c r="M63" s="27"/>
+      <c r="N63" s="28"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B64" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="C64" s="24">
+      <c r="C64" s="23">
         <v>317.5</v>
       </c>
-      <c r="D64" s="24">
+      <c r="D64" s="23">
         <v>196.2</v>
       </c>
-      <c r="E64" s="24"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="27"/>
-      <c r="K64" s="27"/>
-      <c r="L64" s="27"/>
-      <c r="M64" s="28"/>
-      <c r="N64" s="29"/>
-    </row>
-    <row r="65" spans="2:14">
-      <c r="B65" s="20" t="s">
+      <c r="E64" s="23"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="27"/>
+      <c r="N64" s="28"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B65" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C65" s="24">
+      <c r="C65" s="23">
         <v>291.7</v>
       </c>
-      <c r="D65" s="24">
+      <c r="D65" s="23">
         <v>196.6</v>
       </c>
-      <c r="E65" s="24"/>
-      <c r="F65" s="21">
+      <c r="E65" s="23"/>
+      <c r="F65" s="20">
         <f t="shared" ref="F65" si="19">(C65-D65+E65)+(C66-D66+E66)+(C67-D67+E67)</f>
         <v>280.59999999999997</v>
       </c>
-      <c r="G65" s="24"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="18">
+      <c r="G65" s="23"/>
+      <c r="H65" s="24">
+        <v>11.3841</v>
+      </c>
+      <c r="I65" s="24"/>
+      <c r="J65" s="17">
         <f>(I65-H65)/$Q$13</f>
+        <v>-14.373863636363636</v>
+      </c>
+      <c r="K65" s="17">
+        <f>G65*F65/J65*$Q$12</f>
         <v>0</v>
       </c>
-      <c r="K65" s="18" t="e">
-        <f>G65*F65/J65*$Q$12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L65" s="18">
+      <c r="L65" s="17">
         <v>0.5</v>
       </c>
-      <c r="M65" s="22" t="e">
+      <c r="M65" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N65" s="26">
+      <c r="N65" s="25">
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="2:14">
-      <c r="B66" s="20" t="s">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B66" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C66" s="24">
+      <c r="C66" s="23">
         <v>323.89999999999998</v>
       </c>
-      <c r="D66" s="24">
+      <c r="D66" s="23">
         <v>197</v>
       </c>
-      <c r="E66" s="24"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="27"/>
-      <c r="J66" s="27"/>
-      <c r="K66" s="27"/>
-      <c r="L66" s="27"/>
-      <c r="M66" s="28"/>
-      <c r="N66" s="29"/>
-    </row>
-    <row r="67" spans="2:14">
-      <c r="B67" s="20" t="s">
+      <c r="E66" s="23"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="27"/>
+      <c r="N66" s="28"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B67" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C67" s="24">
+      <c r="C67" s="23">
         <v>254.2</v>
       </c>
-      <c r="D67" s="24">
+      <c r="D67" s="23">
         <v>195.6</v>
       </c>
-      <c r="E67" s="24"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="27"/>
-      <c r="K67" s="27"/>
-      <c r="L67" s="27"/>
-      <c r="M67" s="28"/>
-      <c r="N67" s="29"/>
-    </row>
-    <row r="68" spans="2:14">
-      <c r="B68" s="20" t="s">
+      <c r="E67" s="23"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="26"/>
+      <c r="M67" s="27"/>
+      <c r="N67" s="28"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B68" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C68" s="24">
+      <c r="C68" s="23">
         <v>323.89999999999998</v>
       </c>
-      <c r="D68" s="24">
+      <c r="D68" s="23">
         <v>196.1</v>
       </c>
-      <c r="E68" s="24"/>
-      <c r="F68" s="21">
+      <c r="E68" s="23"/>
+      <c r="F68" s="20">
         <f t="shared" ref="F68" si="20">(C68-D68+E68)+(C69-D69+E69)+(C70-D70+E70)</f>
         <v>364.69999999999993</v>
       </c>
-      <c r="G68" s="24"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="18">
+      <c r="G68" s="23"/>
+      <c r="H68" s="24">
+        <v>11.3842</v>
+      </c>
+      <c r="I68" s="24"/>
+      <c r="J68" s="17">
         <f>(I68-H68)/$Q$13</f>
+        <v>-14.373989898989898</v>
+      </c>
+      <c r="K68" s="17">
+        <f>G68*F68/J68*$Q$12</f>
         <v>0</v>
       </c>
-      <c r="K68" s="18" t="e">
-        <f>G68*F68/J68*$Q$12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L68" s="18">
+      <c r="L68" s="17">
         <v>0.5</v>
       </c>
-      <c r="M68" s="22" t="e">
+      <c r="M68" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N68" s="26">
+      <c r="N68" s="25">
         <v>200</v>
       </c>
     </row>
-    <row r="69" spans="2:14">
-      <c r="B69" s="20" t="s">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B69" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C69" s="24">
+      <c r="C69" s="23">
         <v>321.3</v>
       </c>
-      <c r="D69" s="24">
+      <c r="D69" s="23">
         <v>196</v>
       </c>
-      <c r="E69" s="24"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="27"/>
-      <c r="J69" s="27"/>
-      <c r="K69" s="27"/>
-      <c r="L69" s="27"/>
-      <c r="M69" s="28"/>
-      <c r="N69" s="29"/>
-    </row>
-    <row r="70" spans="2:14">
-      <c r="B70" s="20" t="s">
+      <c r="E69" s="23"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="26"/>
+      <c r="L69" s="26"/>
+      <c r="M69" s="27"/>
+      <c r="N69" s="28"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B70" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C70" s="24">
+      <c r="C70" s="23">
         <v>308.39999999999998</v>
       </c>
-      <c r="D70" s="24">
+      <c r="D70" s="23">
         <v>196.8</v>
       </c>
-      <c r="E70" s="24"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="27"/>
-      <c r="K70" s="27"/>
-      <c r="L70" s="27"/>
-      <c r="M70" s="28"/>
-      <c r="N70" s="29"/>
-    </row>
-    <row r="71" spans="2:14">
-      <c r="B71" s="20" t="s">
+      <c r="E70" s="23"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="26"/>
+      <c r="L70" s="26"/>
+      <c r="M70" s="27"/>
+      <c r="N70" s="28"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B71" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C71" s="24">
+      <c r="C71" s="23">
         <v>316.2</v>
       </c>
-      <c r="D71" s="24">
+      <c r="D71" s="23">
         <v>197.8</v>
       </c>
-      <c r="E71" s="24"/>
-      <c r="F71" s="21">
+      <c r="E71" s="23"/>
+      <c r="F71" s="20">
         <f t="shared" ref="F71" si="21">(C71-D71+E71)+(C72-D72+E72)+(C73-D73+E73)</f>
         <v>343.59999999999997</v>
       </c>
-      <c r="G71" s="24"/>
-      <c r="H71" s="25"/>
-      <c r="I71" s="25"/>
-      <c r="J71" s="18">
+      <c r="G71" s="23"/>
+      <c r="H71" s="24">
+        <v>11.4</v>
+      </c>
+      <c r="I71" s="24"/>
+      <c r="J71" s="17">
         <f>(I71-H71)/$Q$13</f>
+        <v>-14.393939393939394</v>
+      </c>
+      <c r="K71" s="17">
+        <f>G71*F71/J71*$Q$12</f>
         <v>0</v>
       </c>
-      <c r="K71" s="18" t="e">
-        <f>G71*F71/J71*$Q$12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L71" s="18">
+      <c r="L71" s="17">
         <v>0.5</v>
       </c>
-      <c r="M71" s="22" t="e">
+      <c r="M71" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N71" s="26">
+      <c r="N71" s="25">
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="2:14">
-      <c r="B72" s="20" t="s">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B72" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="C72" s="24">
+      <c r="C72" s="23">
         <v>304.7</v>
       </c>
-      <c r="D72" s="24">
+      <c r="D72" s="23">
         <v>197.8</v>
       </c>
-      <c r="E72" s="24"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="27"/>
-      <c r="J72" s="27"/>
-      <c r="K72" s="27"/>
-      <c r="L72" s="27"/>
-      <c r="M72" s="28"/>
-      <c r="N72" s="29"/>
-    </row>
-    <row r="73" spans="2:14">
-      <c r="B73" s="20" t="s">
+      <c r="E72" s="23"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="26"/>
+      <c r="J72" s="26"/>
+      <c r="K72" s="26"/>
+      <c r="L72" s="26"/>
+      <c r="M72" s="27"/>
+      <c r="N72" s="28"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B73" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C73" s="24">
+      <c r="C73" s="23">
         <v>315.5</v>
       </c>
-      <c r="D73" s="24">
+      <c r="D73" s="23">
         <v>197.2</v>
       </c>
-      <c r="E73" s="24"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="27"/>
-      <c r="I73" s="27"/>
-      <c r="J73" s="27"/>
-      <c r="K73" s="27"/>
-      <c r="L73" s="27"/>
-      <c r="M73" s="28"/>
-      <c r="N73" s="29"/>
-    </row>
-    <row r="74" spans="2:14">
-      <c r="B74" s="20" t="s">
+      <c r="E73" s="23"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="26"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="26"/>
+      <c r="L73" s="26"/>
+      <c r="M73" s="27"/>
+      <c r="N73" s="28"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B74" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C74" s="24">
+      <c r="C74" s="23">
         <v>309.8</v>
       </c>
-      <c r="D74" s="24">
+      <c r="D74" s="23">
         <v>196.1</v>
       </c>
-      <c r="E74" s="24"/>
-      <c r="F74" s="21">
+      <c r="E74" s="23"/>
+      <c r="F74" s="20">
         <f t="shared" ref="F74" si="22">(C74-D74+E74)+(C75-D75+E75)+(C76-D76+E76)</f>
         <v>336</v>
       </c>
-      <c r="G74" s="24"/>
-      <c r="H74" s="25"/>
-      <c r="I74" s="25"/>
-      <c r="J74" s="18">
+      <c r="G74" s="23"/>
+      <c r="H74" s="24">
+        <v>11.3964</v>
+      </c>
+      <c r="I74" s="24"/>
+      <c r="J74" s="17">
         <f>(I74-H74)/$Q$13</f>
+        <v>-14.389393939393939</v>
+      </c>
+      <c r="K74" s="17">
+        <f>G74*F74/J74*$Q$12</f>
         <v>0</v>
       </c>
-      <c r="K74" s="18" t="e">
-        <f>G74*F74/J74*$Q$12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L74" s="18">
+      <c r="L74" s="17">
         <v>0.5</v>
       </c>
-      <c r="M74" s="22" t="e">
+      <c r="M74" s="21" t="e">
         <f t="shared" ref="M74:M113" si="23">L74/K74*1000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N74" s="26">
+      <c r="N74" s="25">
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="2:14">
-      <c r="B75" s="20" t="s">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B75" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="C75" s="24">
+      <c r="C75" s="23">
         <v>315</v>
       </c>
-      <c r="D75" s="24">
+      <c r="D75" s="23">
         <v>197.3</v>
       </c>
-      <c r="E75" s="24"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="27"/>
-      <c r="I75" s="27"/>
-      <c r="J75" s="27"/>
-      <c r="K75" s="27"/>
-      <c r="L75" s="27"/>
-      <c r="M75" s="28"/>
-      <c r="N75" s="29"/>
-    </row>
-    <row r="76" spans="2:14">
-      <c r="B76" s="20" t="s">
+      <c r="E75" s="23"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="26"/>
+      <c r="K75" s="26"/>
+      <c r="L75" s="26"/>
+      <c r="M75" s="27"/>
+      <c r="N75" s="28"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B76" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C76" s="24">
+      <c r="C76" s="23">
         <v>301.8</v>
       </c>
-      <c r="D76" s="24">
+      <c r="D76" s="23">
         <v>197.2</v>
       </c>
-      <c r="E76" s="24"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="27"/>
-      <c r="J76" s="27"/>
-      <c r="K76" s="27"/>
-      <c r="L76" s="27"/>
-      <c r="M76" s="28"/>
-      <c r="N76" s="29"/>
-    </row>
-    <row r="77" spans="2:14">
-      <c r="B77" s="20" t="s">
+      <c r="E76" s="23"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="26"/>
+      <c r="L76" s="26"/>
+      <c r="M76" s="27"/>
+      <c r="N76" s="28"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B77" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C77" s="24">
+      <c r="C77" s="23">
         <v>317.39999999999998</v>
       </c>
-      <c r="D77" s="24">
+      <c r="D77" s="23">
         <v>196.2</v>
       </c>
-      <c r="E77" s="24"/>
-      <c r="F77" s="21">
+      <c r="E77" s="23"/>
+      <c r="F77" s="20">
         <f t="shared" ref="F77" si="24">(C77-D77+E77)+(C78-D78+E78)+(C79-D79+E79)</f>
         <v>352.1</v>
       </c>
-      <c r="G77" s="24"/>
-      <c r="H77" s="25"/>
-      <c r="I77" s="25"/>
-      <c r="J77" s="18">
+      <c r="G77" s="23"/>
+      <c r="H77" s="24">
+        <v>11.408099999999999</v>
+      </c>
+      <c r="I77" s="24"/>
+      <c r="J77" s="17">
         <f>(I77-H77)/$Q$13</f>
+        <v>-14.404166666666665</v>
+      </c>
+      <c r="K77" s="17">
+        <f>G77*F77/J77*$Q$12</f>
         <v>0</v>
       </c>
-      <c r="K77" s="18" t="e">
-        <f>G77*F77/J77*$Q$12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L77" s="18">
+      <c r="L77" s="17">
         <v>0.5</v>
       </c>
-      <c r="M77" s="22" t="e">
+      <c r="M77" s="21" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N77" s="26">
+      <c r="N77" s="25">
         <v>200</v>
       </c>
     </row>
-    <row r="78" spans="2:14">
-      <c r="B78" s="20" t="s">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B78" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="C78" s="24">
+      <c r="C78" s="23">
         <v>313.60000000000002</v>
       </c>
-      <c r="D78" s="24">
+      <c r="D78" s="23">
         <v>195.7</v>
       </c>
-      <c r="E78" s="24"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="27"/>
-      <c r="I78" s="27"/>
-      <c r="J78" s="27"/>
-      <c r="K78" s="27"/>
-      <c r="L78" s="27"/>
-      <c r="M78" s="28"/>
-      <c r="N78" s="29"/>
-    </row>
-    <row r="79" spans="2:14">
-      <c r="B79" s="20" t="s">
+      <c r="E78" s="23"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="26"/>
+      <c r="J78" s="26"/>
+      <c r="K78" s="26"/>
+      <c r="L78" s="26"/>
+      <c r="M78" s="27"/>
+      <c r="N78" s="28"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B79" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="C79" s="24">
+      <c r="C79" s="23">
         <v>307.89999999999998</v>
       </c>
-      <c r="D79" s="24">
+      <c r="D79" s="23">
         <v>194.9</v>
       </c>
-      <c r="E79" s="24"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="27"/>
-      <c r="I79" s="27"/>
-      <c r="J79" s="27"/>
-      <c r="K79" s="27"/>
-      <c r="L79" s="27"/>
-      <c r="M79" s="28"/>
-      <c r="N79" s="29"/>
-    </row>
-    <row r="80" spans="2:14">
-      <c r="B80" s="20" t="s">
+      <c r="E79" s="23"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="26"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="26"/>
+      <c r="L79" s="26"/>
+      <c r="M79" s="27"/>
+      <c r="N79" s="28"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B80" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="C80" s="24">
+      <c r="C80" s="23">
         <v>297.10000000000002</v>
       </c>
-      <c r="D80" s="24">
+      <c r="D80" s="23">
         <v>194.4</v>
       </c>
-      <c r="E80" s="24"/>
-      <c r="F80" s="21">
+      <c r="E80" s="23"/>
+      <c r="F80" s="20">
         <f t="shared" ref="F80" si="25">(C80-D80+E80)+(C81-D81+E81)+(C82-D82+E82)</f>
         <v>337.9</v>
       </c>
-      <c r="G80" s="24"/>
-      <c r="H80" s="25"/>
-      <c r="I80" s="25"/>
-      <c r="J80" s="18">
+      <c r="G80" s="23"/>
+      <c r="H80" s="24">
+        <v>11.402100000000001</v>
+      </c>
+      <c r="I80" s="24"/>
+      <c r="J80" s="17">
         <f>(I80-H80)/$Q$13</f>
+        <v>-14.396590909090909</v>
+      </c>
+      <c r="K80" s="17">
+        <f>G80*F80/J80*$Q$12</f>
         <v>0</v>
       </c>
-      <c r="K80" s="18" t="e">
-        <f>G80*F80/J80*$Q$12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L80" s="18">
+      <c r="L80" s="17">
         <v>0.5</v>
       </c>
-      <c r="M80" s="22" t="e">
+      <c r="M80" s="21" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N80" s="26">
+      <c r="N80" s="25">
         <v>200</v>
       </c>
     </row>
-    <row r="81" spans="2:14">
-      <c r="B81" s="20" t="s">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B81" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="C81" s="24">
+      <c r="C81" s="23">
         <v>309.5</v>
       </c>
-      <c r="D81" s="24">
+      <c r="D81" s="23">
         <v>196.5</v>
       </c>
-      <c r="E81" s="24"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="27"/>
-      <c r="I81" s="27"/>
-      <c r="J81" s="27"/>
-      <c r="K81" s="27"/>
-      <c r="L81" s="27"/>
-      <c r="M81" s="28"/>
-      <c r="N81" s="29"/>
-    </row>
-    <row r="82" spans="2:14">
-      <c r="B82" s="20" t="s">
+      <c r="E81" s="23"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="26"/>
+      <c r="J81" s="26"/>
+      <c r="K81" s="26"/>
+      <c r="L81" s="26"/>
+      <c r="M81" s="27"/>
+      <c r="N81" s="28"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B82" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="C82" s="24">
+      <c r="C82" s="23">
         <v>317.2</v>
       </c>
-      <c r="D82" s="24">
+      <c r="D82" s="23">
         <v>195</v>
       </c>
-      <c r="E82" s="24"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="24"/>
-      <c r="H82" s="27"/>
-      <c r="I82" s="27"/>
-      <c r="J82" s="27"/>
-      <c r="K82" s="27"/>
-      <c r="L82" s="27"/>
-      <c r="M82" s="28"/>
-      <c r="N82" s="29"/>
-    </row>
-    <row r="83" spans="2:14">
-      <c r="B83" s="20" t="s">
+      <c r="E82" s="23"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="26"/>
+      <c r="J82" s="26"/>
+      <c r="K82" s="26"/>
+      <c r="L82" s="26"/>
+      <c r="M82" s="27"/>
+      <c r="N82" s="28"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B83" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C83" s="24">
+      <c r="C83" s="23">
         <v>314.5</v>
       </c>
-      <c r="D83" s="24">
+      <c r="D83" s="23">
         <v>195</v>
       </c>
-      <c r="E83" s="24"/>
-      <c r="F83" s="21">
+      <c r="E83" s="23"/>
+      <c r="F83" s="20">
         <f t="shared" ref="F83" si="26">(C83-D83+E83)+(C84-D84+E84)+(C85-D85+E85)</f>
         <v>340.6</v>
       </c>
-      <c r="G83" s="24"/>
-      <c r="H83" s="25"/>
-      <c r="I83" s="25"/>
-      <c r="J83" s="18">
+      <c r="G83" s="23"/>
+      <c r="H83" s="24">
+        <v>11.414999999999999</v>
+      </c>
+      <c r="I83" s="24"/>
+      <c r="J83" s="17">
         <f>(I83-H83)/$Q$13</f>
+        <v>-14.412878787878785</v>
+      </c>
+      <c r="K83" s="17">
+        <f>G83*F83/J83*$Q$12</f>
         <v>0</v>
       </c>
-      <c r="K83" s="18" t="e">
-        <f>G83*F83/J83*$Q$12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L83" s="18">
+      <c r="L83" s="17">
         <v>0.5</v>
       </c>
-      <c r="M83" s="22" t="e">
+      <c r="M83" s="21" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N83" s="26">
+      <c r="N83" s="25">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="2:14">
-      <c r="B84" s="20" t="s">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B84" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="C84" s="24">
+      <c r="C84" s="23">
         <v>306</v>
       </c>
-      <c r="D84" s="24">
+      <c r="D84" s="23">
         <v>196.5</v>
       </c>
-      <c r="E84" s="24"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="24"/>
-      <c r="H84" s="27"/>
-      <c r="I84" s="27"/>
-      <c r="J84" s="27"/>
-      <c r="K84" s="27"/>
-      <c r="L84" s="27"/>
-      <c r="M84" s="28"/>
-      <c r="N84" s="29"/>
-    </row>
-    <row r="85" spans="2:14">
-      <c r="B85" s="20" t="s">
+      <c r="E84" s="23"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="26"/>
+      <c r="I84" s="26"/>
+      <c r="J84" s="26"/>
+      <c r="K84" s="26"/>
+      <c r="L84" s="26"/>
+      <c r="M84" s="27"/>
+      <c r="N84" s="28"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B85" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="C85" s="24">
+      <c r="C85" s="23">
         <v>308.2</v>
       </c>
-      <c r="D85" s="24">
+      <c r="D85" s="23">
         <v>196.6</v>
       </c>
-      <c r="E85" s="24"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="24"/>
-      <c r="H85" s="27"/>
-      <c r="I85" s="27"/>
-      <c r="J85" s="27"/>
-      <c r="K85" s="27"/>
-      <c r="L85" s="27"/>
-      <c r="M85" s="28"/>
-      <c r="N85" s="29"/>
-    </row>
-    <row r="86" spans="2:14">
-      <c r="B86" s="20" t="s">
+      <c r="E85" s="23"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="26"/>
+      <c r="I85" s="26"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="26"/>
+      <c r="L85" s="26"/>
+      <c r="M85" s="27"/>
+      <c r="N85" s="28"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B86" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="C86" s="24">
+      <c r="C86" s="23">
         <v>316.5</v>
       </c>
-      <c r="D86" s="24">
+      <c r="D86" s="23">
         <v>195.3</v>
       </c>
-      <c r="E86" s="24"/>
-      <c r="F86" s="21">
+      <c r="E86" s="23"/>
+      <c r="F86" s="20">
         <f t="shared" ref="F86" si="27">(C86-D86+E86)+(C87-D87+E87)+(C88-D88+E88)</f>
         <v>366.1</v>
       </c>
-      <c r="G86" s="24"/>
-      <c r="H86" s="25"/>
-      <c r="I86" s="25"/>
-      <c r="J86" s="18">
+      <c r="G86" s="23"/>
+      <c r="H86" s="24">
+        <v>11.3653</v>
+      </c>
+      <c r="I86" s="24"/>
+      <c r="J86" s="17">
         <f>(I86-H86)/$Q$13</f>
+        <v>-14.350126262626262</v>
+      </c>
+      <c r="K86" s="17">
+        <f>G86*F86/J86*$Q$12</f>
         <v>0</v>
       </c>
-      <c r="K86" s="18" t="e">
-        <f>G86*F86/J86*$Q$12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L86" s="18">
+      <c r="L86" s="17">
         <v>0.5</v>
       </c>
-      <c r="M86" s="22" t="e">
+      <c r="M86" s="21" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N86" s="26">
+      <c r="N86" s="25">
         <v>200</v>
       </c>
     </row>
-    <row r="87" spans="2:14">
-      <c r="B87" s="20" t="s">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B87" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="C87" s="24">
+      <c r="C87" s="23">
         <v>325.10000000000002</v>
       </c>
-      <c r="D87" s="24">
+      <c r="D87" s="23">
         <v>196.6</v>
       </c>
-      <c r="E87" s="24"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="24"/>
-      <c r="H87" s="27"/>
-      <c r="I87" s="27"/>
-      <c r="J87" s="27"/>
-      <c r="K87" s="27"/>
-      <c r="L87" s="27"/>
-      <c r="M87" s="28"/>
-      <c r="N87" s="29"/>
-    </row>
-    <row r="88" spans="2:14">
-      <c r="B88" s="20" t="s">
+      <c r="E87" s="23"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="26"/>
+      <c r="J87" s="26"/>
+      <c r="K87" s="26"/>
+      <c r="L87" s="26"/>
+      <c r="M87" s="27"/>
+      <c r="N87" s="28"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B88" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="C88" s="24">
+      <c r="C88" s="23">
         <v>312</v>
       </c>
-      <c r="D88" s="24">
+      <c r="D88" s="23">
         <v>195.6</v>
       </c>
-      <c r="E88" s="24"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="24"/>
-      <c r="H88" s="27"/>
-      <c r="I88" s="27"/>
-      <c r="J88" s="27"/>
-      <c r="K88" s="27"/>
-      <c r="L88" s="27"/>
-      <c r="M88" s="28"/>
-      <c r="N88" s="29"/>
-    </row>
-    <row r="89" spans="2:14">
-      <c r="B89" s="20" t="s">
+      <c r="E88" s="23"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="23"/>
+      <c r="H88" s="26"/>
+      <c r="I88" s="26"/>
+      <c r="J88" s="26"/>
+      <c r="K88" s="26"/>
+      <c r="L88" s="26"/>
+      <c r="M88" s="27"/>
+      <c r="N88" s="28"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B89" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="24">
+      <c r="C89" s="23">
         <v>307.10000000000002</v>
       </c>
-      <c r="D89" s="24">
+      <c r="D89" s="23">
         <v>196.1</v>
       </c>
-      <c r="E89" s="24"/>
-      <c r="F89" s="21">
+      <c r="E89" s="23"/>
+      <c r="F89" s="20">
         <f t="shared" ref="F89" si="28">(C89-D89+E89)+(C90-D90+E90)+(C91-D91+E91)</f>
         <v>361.30000000000007</v>
       </c>
-      <c r="G89" s="24"/>
-      <c r="H89" s="25"/>
-      <c r="I89" s="25"/>
-      <c r="J89" s="18">
+      <c r="G89" s="23"/>
+      <c r="H89" s="24">
+        <v>11.4458</v>
+      </c>
+      <c r="I89" s="24"/>
+      <c r="J89" s="17">
         <f>(I89-H89)/$Q$13</f>
+        <v>-14.451767676767677</v>
+      </c>
+      <c r="K89" s="17">
+        <f>G89*F89/J89*$Q$12</f>
         <v>0</v>
       </c>
-      <c r="K89" s="18" t="e">
-        <f>G89*F89/J89*$Q$12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L89" s="18">
+      <c r="L89" s="17">
         <v>0.5</v>
       </c>
-      <c r="M89" s="22" t="e">
+      <c r="M89" s="21" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N89" s="26">
+      <c r="N89" s="25">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="2:14">
-      <c r="B90" s="20" t="s">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B90" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="C90" s="24">
+      <c r="C90" s="23">
         <v>319.3</v>
       </c>
-      <c r="D90" s="24">
+      <c r="D90" s="23">
         <v>195.2</v>
       </c>
-      <c r="E90" s="24"/>
-      <c r="F90" s="21"/>
-      <c r="G90" s="24"/>
-      <c r="H90" s="27"/>
-      <c r="I90" s="27"/>
-      <c r="J90" s="27"/>
-      <c r="K90" s="27"/>
-      <c r="L90" s="27"/>
-      <c r="M90" s="28"/>
-      <c r="N90" s="29"/>
-    </row>
-    <row r="91" spans="2:14">
-      <c r="B91" s="20" t="s">
+      <c r="E90" s="23"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="26"/>
+      <c r="I90" s="26"/>
+      <c r="J90" s="26"/>
+      <c r="K90" s="26"/>
+      <c r="L90" s="26"/>
+      <c r="M90" s="27"/>
+      <c r="N90" s="28"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B91" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="C91" s="24">
+      <c r="C91" s="23">
         <v>322.39999999999998</v>
       </c>
-      <c r="D91" s="24">
+      <c r="D91" s="23">
         <v>196.2</v>
       </c>
-      <c r="E91" s="24"/>
-      <c r="F91" s="21"/>
-      <c r="G91" s="24"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="27"/>
-      <c r="J91" s="27"/>
-      <c r="K91" s="27"/>
-      <c r="L91" s="27"/>
-      <c r="M91" s="28"/>
-      <c r="N91" s="29"/>
-    </row>
-    <row r="92" spans="2:14">
-      <c r="B92" s="20" t="s">
+      <c r="E91" s="23"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="26"/>
+      <c r="J91" s="26"/>
+      <c r="K91" s="26"/>
+      <c r="L91" s="26"/>
+      <c r="M91" s="27"/>
+      <c r="N91" s="28"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B92" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="C92" s="24">
+      <c r="C92" s="23">
         <v>307.8</v>
       </c>
-      <c r="D92" s="24">
+      <c r="D92" s="23">
         <v>194.5</v>
       </c>
-      <c r="E92" s="24"/>
-      <c r="F92" s="21">
+      <c r="E92" s="23"/>
+      <c r="F92" s="20">
         <f t="shared" ref="F92" si="29">(C92-D92+E92)+(C93-D93+E93)+(C94-D94+E94)</f>
         <v>357.70000000000005</v>
       </c>
-      <c r="G92" s="24"/>
-      <c r="H92" s="25"/>
-      <c r="I92" s="25"/>
-      <c r="J92" s="18">
+      <c r="G92" s="23"/>
+      <c r="H92" s="24">
+        <v>11.428599999999999</v>
+      </c>
+      <c r="I92" s="24"/>
+      <c r="J92" s="17">
         <f>(I92-H92)/$Q$13</f>
+        <v>-14.430050505050504</v>
+      </c>
+      <c r="K92" s="17">
+        <f>G92*F92/J92*$Q$12</f>
         <v>0</v>
       </c>
-      <c r="K92" s="18" t="e">
-        <f>G92*F92/J92*$Q$12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L92" s="18">
+      <c r="L92" s="17">
         <v>0.5</v>
       </c>
-      <c r="M92" s="22" t="e">
+      <c r="M92" s="21" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N92" s="26">
+      <c r="N92" s="25">
         <v>200</v>
       </c>
     </row>
-    <row r="93" spans="2:14">
-      <c r="B93" s="20" t="s">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B93" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="C93" s="24">
+      <c r="C93" s="23">
         <v>323.60000000000002</v>
       </c>
-      <c r="D93" s="24">
+      <c r="D93" s="23">
         <v>195.7</v>
       </c>
-      <c r="E93" s="24"/>
-      <c r="F93" s="21"/>
-      <c r="G93" s="24"/>
-      <c r="H93" s="27"/>
-      <c r="I93" s="27"/>
-      <c r="J93" s="27"/>
-      <c r="K93" s="27"/>
-      <c r="L93" s="27"/>
-      <c r="M93" s="28"/>
-      <c r="N93" s="29"/>
-    </row>
-    <row r="94" spans="2:14">
-      <c r="B94" s="20" t="s">
+      <c r="E93" s="23"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="23"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="26"/>
+      <c r="J93" s="26"/>
+      <c r="K93" s="26"/>
+      <c r="L93" s="26"/>
+      <c r="M93" s="27"/>
+      <c r="N93" s="28"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B94" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C94" s="24">
+      <c r="C94" s="23">
         <v>312.89999999999998</v>
       </c>
-      <c r="D94" s="24">
+      <c r="D94" s="23">
         <v>196.4</v>
       </c>
-      <c r="E94" s="24"/>
-      <c r="F94" s="21"/>
-      <c r="G94" s="24"/>
-      <c r="H94" s="27"/>
-      <c r="I94" s="27"/>
-      <c r="J94" s="27"/>
-      <c r="K94" s="27"/>
-      <c r="L94" s="27"/>
-      <c r="M94" s="28"/>
-      <c r="N94" s="29"/>
-    </row>
-    <row r="95" spans="2:14">
-      <c r="B95" s="20" t="s">
+      <c r="E94" s="23"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="26"/>
+      <c r="I94" s="26"/>
+      <c r="J94" s="26"/>
+      <c r="K94" s="26"/>
+      <c r="L94" s="26"/>
+      <c r="M94" s="27"/>
+      <c r="N94" s="28"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B95" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="C95" s="24">
+      <c r="C95" s="23">
         <v>309.89999999999998</v>
       </c>
-      <c r="D95" s="24">
+      <c r="D95" s="23">
         <v>195.3</v>
       </c>
-      <c r="E95" s="24"/>
-      <c r="F95" s="21">
+      <c r="E95" s="23"/>
+      <c r="F95" s="20">
         <f t="shared" ref="F95" si="30">(C95-D95+E95)+(C96-D96+E96)+(C97-D97+E97)</f>
         <v>366.59999999999991</v>
       </c>
-      <c r="G95" s="24"/>
-      <c r="H95" s="25"/>
-      <c r="I95" s="25"/>
-      <c r="J95" s="18">
+      <c r="G95" s="23"/>
+      <c r="H95" s="24">
+        <v>11.405799999999999</v>
+      </c>
+      <c r="I95" s="24"/>
+      <c r="J95" s="17">
         <f>(I95-H95)/$Q$13</f>
+        <v>-14.401262626262625</v>
+      </c>
+      <c r="K95" s="17">
+        <f>G95*F95/J95*$Q$12</f>
         <v>0</v>
       </c>
-      <c r="K95" s="18" t="e">
-        <f>G95*F95/J95*$Q$12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L95" s="18">
+      <c r="L95" s="17">
         <v>0.5</v>
       </c>
-      <c r="M95" s="22" t="e">
+      <c r="M95" s="21" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N95" s="26">
+      <c r="N95" s="25">
         <v>200</v>
       </c>
     </row>
-    <row r="96" spans="2:14">
-      <c r="B96" s="20" t="s">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B96" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="C96" s="24">
+      <c r="C96" s="23">
         <v>330</v>
       </c>
-      <c r="D96" s="24">
+      <c r="D96" s="23">
         <v>196.9</v>
       </c>
-      <c r="E96" s="24"/>
-      <c r="F96" s="21"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="27"/>
-      <c r="I96" s="27"/>
-      <c r="J96" s="27"/>
-      <c r="K96" s="27"/>
-      <c r="L96" s="27"/>
-      <c r="M96" s="28"/>
-      <c r="N96" s="29"/>
-    </row>
-    <row r="97" spans="2:14">
-      <c r="B97" s="20" t="s">
+      <c r="E96" s="23"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="26"/>
+      <c r="I96" s="26"/>
+      <c r="J96" s="26"/>
+      <c r="K96" s="26"/>
+      <c r="L96" s="26"/>
+      <c r="M96" s="27"/>
+      <c r="N96" s="28"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B97" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="C97" s="24">
+      <c r="C97" s="23">
         <v>314.2</v>
       </c>
-      <c r="D97" s="24">
+      <c r="D97" s="23">
         <v>195.3</v>
       </c>
-      <c r="E97" s="24"/>
-      <c r="F97" s="21"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="27"/>
-      <c r="I97" s="27"/>
-      <c r="J97" s="27"/>
-      <c r="K97" s="27"/>
-      <c r="L97" s="27"/>
-      <c r="M97" s="28"/>
-      <c r="N97" s="29"/>
-    </row>
-    <row r="98" spans="2:14">
-      <c r="B98" s="20" t="s">
+      <c r="E97" s="23"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="23"/>
+      <c r="H97" s="26"/>
+      <c r="I97" s="26"/>
+      <c r="J97" s="26"/>
+      <c r="K97" s="26"/>
+      <c r="L97" s="26"/>
+      <c r="M97" s="27"/>
+      <c r="N97" s="28"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B98" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="C98" s="24">
+      <c r="C98" s="23">
         <v>309.60000000000002</v>
       </c>
-      <c r="D98" s="24">
+      <c r="D98" s="23">
         <v>194.8</v>
       </c>
-      <c r="E98" s="24"/>
-      <c r="F98" s="21">
+      <c r="E98" s="23"/>
+      <c r="F98" s="20">
         <f t="shared" ref="F98" si="31">(C98-D98+E98)+(C99-D99+E99)+(C100-D100+E100)</f>
         <v>238.50000000000003</v>
       </c>
-      <c r="G98" s="24"/>
-      <c r="H98" s="25"/>
-      <c r="I98" s="25"/>
-      <c r="J98" s="18">
+      <c r="G98" s="23"/>
+      <c r="H98" s="24">
+        <v>11.3872</v>
+      </c>
+      <c r="I98" s="24"/>
+      <c r="J98" s="17">
         <f>(I98-H98)/$Q$13</f>
+        <v>-14.377777777777776</v>
+      </c>
+      <c r="K98" s="17">
+        <f>G98*F98/J98*$Q$12</f>
         <v>0</v>
       </c>
-      <c r="K98" s="18" t="e">
-        <f>G98*F98/J98*$Q$12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L98" s="18">
+      <c r="L98" s="17">
         <v>0.5</v>
       </c>
-      <c r="M98" s="22" t="e">
+      <c r="M98" s="21" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N98" s="26">
+      <c r="N98" s="25">
         <v>200</v>
       </c>
     </row>
-    <row r="99" spans="2:14">
-      <c r="B99" s="20" t="s">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B99" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="C99" s="24">
+      <c r="C99" s="23">
         <v>319.60000000000002</v>
       </c>
-      <c r="D99" s="24">
+      <c r="D99" s="23">
         <v>195.9</v>
       </c>
-      <c r="E99" s="24"/>
-      <c r="F99" s="21"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="27"/>
-      <c r="I99" s="27"/>
-      <c r="J99" s="27"/>
-      <c r="K99" s="27"/>
-      <c r="L99" s="27"/>
-      <c r="M99" s="28"/>
-      <c r="N99" s="29"/>
-    </row>
-    <row r="100" spans="2:14">
-      <c r="B100" s="20" t="s">
+      <c r="E99" s="23"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="23"/>
+      <c r="H99" s="26"/>
+      <c r="I99" s="26"/>
+      <c r="J99" s="26"/>
+      <c r="K99" s="26"/>
+      <c r="L99" s="26"/>
+      <c r="M99" s="27"/>
+      <c r="N99" s="28"/>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B100" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="C100" s="24"/>
-      <c r="D100" s="24"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="21"/>
-      <c r="G100" s="24"/>
-      <c r="H100" s="27"/>
-      <c r="I100" s="27"/>
-      <c r="J100" s="27"/>
-      <c r="K100" s="27"/>
-      <c r="L100" s="27"/>
-      <c r="M100" s="28"/>
-      <c r="N100" s="29"/>
-    </row>
-    <row r="101" spans="2:14">
-      <c r="B101" s="20" t="s">
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="23"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="23"/>
+      <c r="H100" s="26"/>
+      <c r="I100" s="26"/>
+      <c r="J100" s="26"/>
+      <c r="K100" s="26"/>
+      <c r="L100" s="26"/>
+      <c r="M100" s="27"/>
+      <c r="N100" s="28"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B101" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C101" s="24">
+      <c r="C101" s="23">
         <v>309.7</v>
       </c>
-      <c r="D101" s="24">
+      <c r="D101" s="23">
         <v>195.1</v>
       </c>
-      <c r="E101" s="24"/>
-      <c r="F101" s="21">
+      <c r="E101" s="23"/>
+      <c r="F101" s="20">
         <f t="shared" ref="F101" si="32">(C101-D101+E101)+(C102-D102+E102)+(C103-D103+E103)</f>
         <v>362.90000000000003</v>
       </c>
-      <c r="G101" s="24"/>
-      <c r="H101" s="25"/>
-      <c r="I101" s="25"/>
-      <c r="J101" s="18">
+      <c r="G101" s="23"/>
+      <c r="H101" s="24">
+        <v>11.353999999999999</v>
+      </c>
+      <c r="I101" s="24"/>
+      <c r="J101" s="17">
         <f>(I101-H101)/$Q$13</f>
+        <v>-14.335858585858585</v>
+      </c>
+      <c r="K101" s="17">
+        <f>G101*F101/J101*$Q$12</f>
         <v>0</v>
       </c>
-      <c r="K101" s="18" t="e">
-        <f>G101*F101/J101*$Q$12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L101" s="18">
+      <c r="L101" s="17">
         <v>0.5</v>
       </c>
-      <c r="M101" s="22" t="e">
+      <c r="M101" s="21" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N101" s="26">
+      <c r="N101" s="25">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="2:14">
-      <c r="B102" s="20" t="s">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B102" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="C102" s="24">
+      <c r="C102" s="23">
         <v>320.60000000000002</v>
       </c>
-      <c r="D102" s="24">
+      <c r="D102" s="23">
         <v>196</v>
       </c>
-      <c r="E102" s="24"/>
-      <c r="F102" s="21"/>
-      <c r="G102" s="24"/>
-      <c r="H102" s="27"/>
-      <c r="I102" s="27"/>
-      <c r="J102" s="27"/>
-      <c r="K102" s="27"/>
-      <c r="L102" s="27"/>
-      <c r="M102" s="28"/>
-      <c r="N102" s="29"/>
-    </row>
-    <row r="103" spans="2:14">
-      <c r="B103" s="20" t="s">
+      <c r="E102" s="23"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="23"/>
+      <c r="H102" s="26"/>
+      <c r="I102" s="26"/>
+      <c r="J102" s="26"/>
+      <c r="K102" s="26"/>
+      <c r="L102" s="26"/>
+      <c r="M102" s="27"/>
+      <c r="N102" s="28"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B103" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C103" s="24">
+      <c r="C103" s="23">
         <v>320.60000000000002</v>
       </c>
-      <c r="D103" s="24">
+      <c r="D103" s="23">
         <v>196.9</v>
       </c>
-      <c r="E103" s="24"/>
-      <c r="F103" s="21"/>
-      <c r="G103" s="24"/>
-      <c r="H103" s="27"/>
-      <c r="I103" s="27"/>
-      <c r="J103" s="27"/>
-      <c r="K103" s="27"/>
-      <c r="L103" s="27"/>
-      <c r="M103" s="28"/>
-      <c r="N103" s="29"/>
-    </row>
-    <row r="104" spans="2:14">
-      <c r="B104" s="20" t="s">
+      <c r="E103" s="23"/>
+      <c r="F103" s="20"/>
+      <c r="G103" s="23"/>
+      <c r="H103" s="26"/>
+      <c r="I103" s="26"/>
+      <c r="J103" s="26"/>
+      <c r="K103" s="26"/>
+      <c r="L103" s="26"/>
+      <c r="M103" s="27"/>
+      <c r="N103" s="28"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B104" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="C104" s="24">
+      <c r="C104" s="23">
         <v>304.10000000000002</v>
       </c>
-      <c r="D104" s="24">
+      <c r="D104" s="23">
         <v>196</v>
       </c>
-      <c r="E104" s="24"/>
-      <c r="F104" s="21">
+      <c r="E104" s="23"/>
+      <c r="F104" s="20">
         <f t="shared" ref="F104" si="33">(C104-D104+E104)+(C105-D105+E105)+(C106-D106+E106)</f>
         <v>230.10000000000002</v>
       </c>
-      <c r="G104" s="24"/>
-      <c r="H104" s="25"/>
-      <c r="I104" s="25"/>
-      <c r="J104" s="18">
+      <c r="G104" s="23"/>
+      <c r="H104" s="24">
+        <v>11.4353</v>
+      </c>
+      <c r="I104" s="24"/>
+      <c r="J104" s="17">
         <f>(I104-H104)/$Q$13</f>
+        <v>-14.438510101010101</v>
+      </c>
+      <c r="K104" s="17">
+        <f>G104*F104/J104*$Q$12</f>
         <v>0</v>
       </c>
-      <c r="K104" s="18" t="e">
-        <f>G104*F104/J104*$Q$12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L104" s="18">
+      <c r="L104" s="17">
         <v>0.5</v>
       </c>
-      <c r="M104" s="22" t="e">
+      <c r="M104" s="21" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N104" s="26">
+      <c r="N104" s="25">
         <v>200</v>
       </c>
     </row>
-    <row r="105" spans="2:14">
-      <c r="B105" s="20" t="s">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B105" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="C105" s="24">
+      <c r="C105" s="23">
         <v>319.3</v>
       </c>
-      <c r="D105" s="24">
+      <c r="D105" s="23">
         <v>197.3</v>
       </c>
-      <c r="E105" s="24"/>
-      <c r="F105" s="21"/>
-      <c r="G105" s="24"/>
-      <c r="H105" s="27"/>
-      <c r="I105" s="27"/>
-      <c r="J105" s="27"/>
-      <c r="K105" s="27"/>
-      <c r="L105" s="27"/>
-      <c r="M105" s="28"/>
-      <c r="N105" s="29"/>
-    </row>
-    <row r="106" spans="2:14">
-      <c r="B106" s="20" t="s">
+      <c r="E105" s="23"/>
+      <c r="F105" s="20"/>
+      <c r="G105" s="23"/>
+      <c r="H105" s="26"/>
+      <c r="I105" s="26"/>
+      <c r="J105" s="26"/>
+      <c r="K105" s="26"/>
+      <c r="L105" s="26"/>
+      <c r="M105" s="27"/>
+      <c r="N105" s="28"/>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B106" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="C106" s="24"/>
-      <c r="D106" s="24"/>
-      <c r="E106" s="24"/>
-      <c r="F106" s="21"/>
-      <c r="G106" s="24"/>
-      <c r="H106" s="27"/>
-      <c r="I106" s="27"/>
-      <c r="J106" s="27"/>
-      <c r="K106" s="27"/>
-      <c r="L106" s="27"/>
-      <c r="M106" s="28"/>
-      <c r="N106" s="29"/>
-    </row>
-    <row r="107" spans="2:14">
-      <c r="B107" s="20" t="s">
+      <c r="C106" s="23"/>
+      <c r="D106" s="23"/>
+      <c r="E106" s="23"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="23"/>
+      <c r="H106" s="26"/>
+      <c r="I106" s="26"/>
+      <c r="J106" s="26"/>
+      <c r="K106" s="26"/>
+      <c r="L106" s="26"/>
+      <c r="M106" s="27"/>
+      <c r="N106" s="28"/>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B107" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="C107" s="24">
+      <c r="C107" s="23">
         <v>317.60000000000002</v>
       </c>
-      <c r="D107" s="24">
+      <c r="D107" s="23">
         <v>196</v>
       </c>
-      <c r="E107" s="24"/>
-      <c r="F107" s="21">
+      <c r="E107" s="23"/>
+      <c r="F107" s="20">
         <f t="shared" ref="F107" si="34">(C107-D107+E107)+(C108-D108+E108)+(C109-D109+E109)</f>
         <v>241.20000000000005</v>
       </c>
-      <c r="G107" s="24"/>
-      <c r="H107" s="25"/>
-      <c r="I107" s="25"/>
-      <c r="J107" s="18">
+      <c r="G107" s="23"/>
+      <c r="H107" s="24">
+        <v>11.4101</v>
+      </c>
+      <c r="I107" s="24"/>
+      <c r="J107" s="17">
         <f>(I107-H107)/$Q$13</f>
+        <v>-14.406691919191918</v>
+      </c>
+      <c r="K107" s="17">
+        <f>G107*F107/J107*$Q$12</f>
         <v>0</v>
       </c>
-      <c r="K107" s="18" t="e">
-        <f>G107*F107/J107*$Q$12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L107" s="18">
+      <c r="L107" s="17">
         <v>0.5</v>
       </c>
-      <c r="M107" s="22" t="e">
+      <c r="M107" s="21" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N107" s="26">
+      <c r="N107" s="25">
         <v>200</v>
       </c>
     </row>
-    <row r="108" spans="2:14">
-      <c r="B108" s="20" t="s">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B108" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="C108" s="24">
+      <c r="C108" s="23">
         <v>315.8</v>
       </c>
-      <c r="D108" s="24">
+      <c r="D108" s="23">
         <v>196.2</v>
       </c>
-      <c r="E108" s="24"/>
-      <c r="F108" s="21"/>
-      <c r="G108" s="24"/>
-      <c r="H108" s="27"/>
-      <c r="I108" s="27"/>
-      <c r="J108" s="27"/>
-      <c r="K108" s="27"/>
-      <c r="L108" s="27"/>
-      <c r="M108" s="28"/>
-      <c r="N108" s="29"/>
-    </row>
-    <row r="109" spans="2:14">
-      <c r="B109" s="20" t="s">
+      <c r="E108" s="23"/>
+      <c r="F108" s="20"/>
+      <c r="G108" s="23"/>
+      <c r="H108" s="26"/>
+      <c r="I108" s="26"/>
+      <c r="J108" s="26"/>
+      <c r="K108" s="26"/>
+      <c r="L108" s="26"/>
+      <c r="M108" s="27"/>
+      <c r="N108" s="28"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B109" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="C109" s="24"/>
-      <c r="D109" s="24"/>
-      <c r="E109" s="24"/>
-      <c r="F109" s="21"/>
-      <c r="G109" s="24"/>
-      <c r="H109" s="27"/>
-      <c r="I109" s="27"/>
-      <c r="J109" s="27"/>
-      <c r="K109" s="27"/>
-      <c r="L109" s="27"/>
-      <c r="M109" s="28"/>
-      <c r="N109" s="29"/>
-    </row>
-    <row r="110" spans="2:14">
-      <c r="B110" s="20" t="s">
+      <c r="C109" s="23"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="23"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="23"/>
+      <c r="H109" s="26"/>
+      <c r="I109" s="26"/>
+      <c r="J109" s="26"/>
+      <c r="K109" s="26"/>
+      <c r="L109" s="26"/>
+      <c r="M109" s="27"/>
+      <c r="N109" s="28"/>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B110" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="C110" s="24">
+      <c r="C110" s="23">
         <v>310</v>
       </c>
-      <c r="D110" s="24">
+      <c r="D110" s="23">
         <v>196.1</v>
       </c>
-      <c r="E110" s="24"/>
-      <c r="F110" s="21">
+      <c r="E110" s="23"/>
+      <c r="F110" s="20">
         <f t="shared" ref="F110" si="35">(C110-D110+E110)+(C111-D111+E111)+(C112-D112+E112)</f>
         <v>237.90000000000003</v>
       </c>
-      <c r="G110" s="24"/>
-      <c r="H110" s="25"/>
-      <c r="I110" s="25"/>
-      <c r="J110" s="18">
+      <c r="G110" s="23"/>
+      <c r="H110" s="24">
+        <v>11.373200000000001</v>
+      </c>
+      <c r="I110" s="24"/>
+      <c r="J110" s="17">
         <f>(I110-H110)/$Q$13</f>
+        <v>-14.36010101010101</v>
+      </c>
+      <c r="K110" s="17">
+        <f>G110*F110/J110*$Q$12</f>
         <v>0</v>
       </c>
-      <c r="K110" s="18" t="e">
-        <f>G110*F110/J110*$Q$12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L110" s="18">
+      <c r="L110" s="17">
         <v>0.5</v>
       </c>
-      <c r="M110" s="22" t="e">
+      <c r="M110" s="21" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N110" s="26">
+      <c r="N110" s="25">
         <v>200</v>
       </c>
     </row>
-    <row r="111" spans="2:14">
-      <c r="B111" s="20" t="s">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B111" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="C111" s="24">
+      <c r="C111" s="23">
         <v>320.60000000000002</v>
       </c>
-      <c r="D111" s="24">
+      <c r="D111" s="23">
         <v>196.6</v>
       </c>
-      <c r="E111" s="24"/>
-      <c r="F111" s="21"/>
-      <c r="G111" s="24"/>
-      <c r="H111" s="27"/>
-      <c r="I111" s="27"/>
-      <c r="J111" s="27"/>
-      <c r="K111" s="27"/>
-      <c r="L111" s="27"/>
-      <c r="M111" s="28"/>
-      <c r="N111" s="29"/>
-    </row>
-    <row r="112" spans="2:14">
-      <c r="B112" s="20" t="s">
+      <c r="E111" s="23"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="23"/>
+      <c r="H111" s="26"/>
+      <c r="I111" s="26"/>
+      <c r="J111" s="26"/>
+      <c r="K111" s="26"/>
+      <c r="L111" s="26"/>
+      <c r="M111" s="27"/>
+      <c r="N111" s="28"/>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B112" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C112" s="24"/>
-      <c r="D112" s="24"/>
-      <c r="E112" s="24"/>
-      <c r="F112" s="21"/>
-      <c r="G112" s="24"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="27"/>
-      <c r="K112" s="27"/>
-      <c r="L112" s="27"/>
-      <c r="M112" s="28"/>
-      <c r="N112" s="29"/>
-    </row>
-    <row r="113" spans="2:14">
-      <c r="B113" s="20" t="s">
+      <c r="C112" s="23"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="23"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="23"/>
+      <c r="H112" s="26"/>
+      <c r="I112" s="26"/>
+      <c r="J112" s="26"/>
+      <c r="K112" s="26"/>
+      <c r="L112" s="26"/>
+      <c r="M112" s="27"/>
+      <c r="N112" s="28"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B113" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="C113" s="24">
+      <c r="C113" s="23">
         <v>319.5</v>
       </c>
-      <c r="D113" s="24">
+      <c r="D113" s="23">
         <v>194.9</v>
       </c>
-      <c r="E113" s="24"/>
-      <c r="F113" s="21">
+      <c r="E113" s="23"/>
+      <c r="F113" s="20">
         <f t="shared" ref="F113" si="36">(C113-D113+E113)+(C114-D114+E114)+(C115-D115+E115)</f>
         <v>243.8</v>
       </c>
-      <c r="G113" s="24"/>
-      <c r="H113" s="25"/>
-      <c r="I113" s="25"/>
-      <c r="J113" s="18">
+      <c r="G113" s="23"/>
+      <c r="H113" s="24">
+        <v>11.3803</v>
+      </c>
+      <c r="I113" s="24"/>
+      <c r="J113" s="17">
         <f>(I113-H113)/$Q$13</f>
+        <v>-14.369065656565656</v>
+      </c>
+      <c r="K113" s="17">
+        <f>G113*F113/J113*$Q$12</f>
         <v>0</v>
       </c>
-      <c r="K113" s="18" t="e">
-        <f>G113*F113/J113*$Q$12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L113" s="18">
+      <c r="L113" s="17">
         <v>0.5</v>
       </c>
-      <c r="M113" s="22" t="e">
+      <c r="M113" s="21" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N113" s="26">
+      <c r="N113" s="25">
         <v>200</v>
       </c>
     </row>
-    <row r="114" spans="2:14">
-      <c r="B114" s="20" t="s">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B114" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="C114" s="24">
+      <c r="C114" s="23">
         <v>315.10000000000002</v>
       </c>
-      <c r="D114" s="24">
+      <c r="D114" s="23">
         <v>195.9</v>
       </c>
-      <c r="E114" s="24"/>
-      <c r="F114" s="21"/>
-      <c r="G114" s="24"/>
-      <c r="H114" s="27"/>
-      <c r="I114" s="27"/>
-      <c r="J114" s="27"/>
-      <c r="K114" s="27"/>
-      <c r="L114" s="27"/>
-      <c r="M114" s="28"/>
-      <c r="N114" s="29"/>
-    </row>
-    <row r="115" spans="2:14">
-      <c r="B115" s="20" t="s">
+      <c r="E114" s="23"/>
+      <c r="F114" s="20"/>
+      <c r="G114" s="23"/>
+      <c r="H114" s="26"/>
+      <c r="I114" s="26"/>
+      <c r="J114" s="26"/>
+      <c r="K114" s="26"/>
+      <c r="L114" s="26"/>
+      <c r="M114" s="27"/>
+      <c r="N114" s="28"/>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B115" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="C115" s="24"/>
-      <c r="D115" s="24"/>
-      <c r="E115" s="24"/>
-      <c r="F115" s="21"/>
-      <c r="G115" s="24"/>
-      <c r="H115" s="27"/>
-      <c r="I115" s="27"/>
-      <c r="J115" s="27"/>
-      <c r="K115" s="27"/>
-      <c r="L115" s="27"/>
-      <c r="M115" s="28"/>
-      <c r="N115" s="29"/>
+      <c r="C115" s="23"/>
+      <c r="D115" s="23"/>
+      <c r="E115" s="23"/>
+      <c r="F115" s="20"/>
+      <c r="G115" s="23"/>
+      <c r="H115" s="26"/>
+      <c r="I115" s="26"/>
+      <c r="J115" s="26"/>
+      <c r="K115" s="26"/>
+      <c r="L115" s="26"/>
+      <c r="M115" s="27"/>
+      <c r="N115" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4948,15 +5045,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AF8045772F8A9D428F3DDA03D4CF38BB" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3e593644806cf2aa5f06f7c542fb9f5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c2d3784a-b498-45a5-af37-f3568c01f295" xmlns:ns3="cd752284-b77b-4839-9286-3797e50d74da" xmlns:ns4="5cece13e-3376-4417-9525-be60b11a89a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ae84d7ee1a3aa06357cf6094fc16b04" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="c2d3784a-b498-45a5-af37-f3568c01f295"/>
@@ -5196,14 +5284,50 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1337DAAD-69BC-4CBD-8BBD-32CFE73FF228}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1337DAAD-69BC-4CBD-8BBD-32CFE73FF228}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5cece13e-3376-4417-9525-be60b11a89a8"/>
+    <ds:schemaRef ds:uri="c2d3784a-b498-45a5-af37-f3568c01f295"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97789A8D-168F-4B70-A261-D35A709F8415}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B7A5B69-7776-43B5-B73B-FF17F3C6EAE5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c2d3784a-b498-45a5-af37-f3568c01f295"/>
+    <ds:schemaRef ds:uri="cd752284-b77b-4839-9286-3797e50d74da"/>
+    <ds:schemaRef ds:uri="5cece13e-3376-4417-9525-be60b11a89a8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B7A5B69-7776-43B5-B73B-FF17F3C6EAE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97789A8D-168F-4B70-A261-D35A709F8415}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Sample Preparation/EBSD_RC3_DIT_SPE_Calculations.xlsx
+++ b/Sample Preparation/EBSD_RC3_DIT_SPE_Calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/edc05105a1ab0e97/Documents/GitHub/rcsfa-RC3-BSLE-DIT-degradation/Sample Preparation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{255295A2-D13C-498F-95CC-ACF69291B11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2C470EB-97A3-469D-AAED-4B411F9E16C0}"/>
+  <xr:revisionPtr revIDLastSave="146" documentId="8_{255295A2-D13C-498F-95CC-ACF69291B11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58100968-CA53-48C3-B72C-F6436C765BA5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="156">
   <si>
     <t>Sample ID</t>
   </si>
@@ -530,11 +530,17 @@
   <si>
     <t>DIT_06_SL3</t>
   </si>
+  <si>
+    <t>V MeOH Dried (240720)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="172" formatCode="0.0"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -794,7 +800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -836,9 +842,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -852,9 +855,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -876,7 +876,19 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -900,6 +912,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1199,20 +1215,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y115"/>
+  <dimension ref="A1:Z115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="H116" sqref="H116"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.88671875" style="22" customWidth="1"/>
-    <col min="3" max="14" width="11.44140625" style="22" customWidth="1"/>
-    <col min="16" max="16" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="21" customWidth="1"/>
+    <col min="3" max="15" width="11.44140625" style="21" customWidth="1"/>
+    <col min="17" max="17" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1227,7 +1243,7 @@
       <c r="L1" s="18"/>
       <c r="M1" s="17"/>
       <c r="N1" s="17"/>
-      <c r="O1" s="1"/>
+      <c r="O1" s="17"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -1238,8 +1254,9 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
-    </row>
-    <row r="2" spans="1:25" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="13" t="s">
         <v>0</v>
@@ -1277,12 +1294,14 @@
       <c r="M2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="O2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="2"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -1291,54 +1310,61 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
-    </row>
-    <row r="3" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z2" s="1"/>
+    </row>
+    <row r="3" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="29">
         <v>1547.6</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="29">
         <v>566</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="30">
+      <c r="E3" s="29"/>
+      <c r="F3" s="28">
         <f>C3-D3</f>
         <v>981.59999999999991</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31">
+      <c r="G3" s="29">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H3" s="29">
         <v>11.3279</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="17">
-        <f>(I3-H3)/$Q$13</f>
-        <v>-14.302904040404039</v>
+      <c r="I3" s="29">
+        <v>17.997599999999998</v>
+      </c>
+      <c r="J3" s="35">
+        <f>(I3-H3)/$R$13</f>
+        <v>8.421338383838382</v>
       </c>
       <c r="K3" s="17">
-        <f>G3*F3/J3*$Q$12</f>
-        <v>0</v>
+        <f>G3*F3/J3*$R$12</f>
+        <v>87.887027722386307</v>
       </c>
       <c r="L3" s="17">
         <v>0.5</v>
       </c>
-      <c r="M3" s="21" t="e">
+      <c r="M3" s="37">
         <f>L3/K3*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N3" s="25">
+        <v>5.6891217390964464</v>
+      </c>
+      <c r="N3" s="37">
+        <v>2</v>
+      </c>
+      <c r="O3" s="24">
         <v>200</v>
       </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="1"/>
+      <c r="Q3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
@@ -1346,54 +1372,61 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
-    </row>
-    <row r="4" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z3" s="1"/>
+    </row>
+    <row r="4" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="29">
         <v>1106.0999999999999</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="29">
         <v>820.2</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="20">
         <f>(C4-D4+E4)+(C5-D5+E5)+(C6-D6+E6)</f>
         <v>1553.6</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31">
+      <c r="G4" s="29">
+        <v>0.85040000000000004</v>
+      </c>
+      <c r="H4" s="29">
         <v>11.4513</v>
       </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="17">
-        <f>(I4-H4)/$Q$13</f>
-        <v>-14.45871212121212</v>
+      <c r="I4" s="29">
+        <v>17.663599999999999</v>
+      </c>
+      <c r="J4" s="35">
+        <f>(I4-H4)/$R$13</f>
+        <v>7.8438131313131301</v>
       </c>
       <c r="K4" s="17">
-        <f>G4*F4/J4*$Q$12</f>
-        <v>0</v>
+        <f>G4*F4/J4*$R$12</f>
+        <v>109.48347718429569</v>
       </c>
       <c r="L4" s="17">
         <v>0.5</v>
       </c>
-      <c r="M4" s="21" t="e">
+      <c r="M4" s="37">
         <f>L4/K4*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N4" s="25">
+        <v>4.566899160120208</v>
+      </c>
+      <c r="N4" s="37">
+        <v>2</v>
+      </c>
+      <c r="O4" s="24">
         <v>200</v>
       </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="1"/>
+      <c r="Q4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
@@ -1401,49 +1434,52 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
-    </row>
-    <row r="5" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z4" s="1"/>
+    </row>
+    <row r="5" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="29">
         <v>1077.8</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="29">
         <v>107.5</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="26">
-        <f>(I5-H5)/$Q$13</f>
+      <c r="E5" s="29"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="36">
+        <f>(I5-H5)/$R$13</f>
         <v>0</v>
       </c>
-      <c r="K5" s="26" t="e">
-        <f>G5*F5/J5*$Q$12</f>
+      <c r="K5" s="25" t="e">
+        <f>G7*F5/J5*$R$12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="26">
+      <c r="L5" s="25">
         <v>0.5</v>
       </c>
-      <c r="M5" s="37" t="e">
+      <c r="M5" s="38" t="e">
         <f>L5/K5*1000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N5" s="28">
+      <c r="N5" s="38">
+        <v>2</v>
+      </c>
+      <c r="O5" s="26">
         <v>200</v>
       </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="1"/>
+      <c r="Q5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -1451,36 +1487,39 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
-    </row>
-    <row r="6" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z5" s="1"/>
+    </row>
+    <row r="6" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="29">
         <v>406</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="29">
         <v>108.6</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="4" t="s">
+      <c r="E6" s="29"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39">
+        <v>2</v>
+      </c>
+      <c r="O6" s="26"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
@@ -1488,54 +1527,62 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
-    </row>
-    <row r="7" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z6" s="1"/>
+    </row>
+    <row r="7" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="29">
         <v>139.6</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="29">
         <v>100</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="30">
+      <c r="E7" s="29"/>
+      <c r="F7" s="28">
         <f>C7-D7</f>
         <v>39.599999999999994</v>
       </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31">
+      <c r="G7" s="29">
+        <f>3.417*20</f>
+        <v>68.34</v>
+      </c>
+      <c r="H7" s="29">
         <v>11.4193</v>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="17">
-        <f>(I7-H7)/$Q$13</f>
-        <v>-14.41830808080808</v>
+      <c r="I7" s="29">
+        <v>17.195900000000002</v>
+      </c>
+      <c r="J7" s="35">
+        <f>(I7-H7)/$R$13</f>
+        <v>7.293686868686871</v>
       </c>
       <c r="K7" s="17">
-        <f>G7*F7/J7*$Q$12</f>
-        <v>0</v>
+        <f>G7*F7/J7*$R$12</f>
+        <v>241.17728546203639</v>
       </c>
       <c r="L7" s="17">
         <v>0.5</v>
       </c>
-      <c r="M7" s="21" t="e">
+      <c r="M7" s="37">
         <f>L7/K7*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N7" s="25">
+        <v>2.0731637270156802</v>
+      </c>
+      <c r="N7" s="37">
+        <v>2</v>
+      </c>
+      <c r="O7" s="24">
         <v>200</v>
       </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="1"/>
+      <c r="Q7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
@@ -1543,54 +1590,61 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
-    </row>
-    <row r="8" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z7" s="1"/>
+    </row>
+    <row r="8" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="22">
         <v>247.8</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="22">
         <v>194.6</v>
       </c>
-      <c r="E8" s="23"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="20">
         <f>(C8-D8+E8)+(C9-D9+E9)+(C10-D10+E10)</f>
         <v>300.90000000000003</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24">
+      <c r="G8" s="22">
+        <v>5.1920000000000002</v>
+      </c>
+      <c r="H8" s="23">
         <v>11.4559</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="17">
-        <f>(I8-H8)/$Q$13</f>
-        <v>-14.464520202020202</v>
+      <c r="I8" s="23">
+        <v>17.3537</v>
+      </c>
+      <c r="J8" s="35">
+        <f>(I8-H8)/$R$13</f>
+        <v>7.4467171717171716</v>
       </c>
       <c r="K8" s="17">
-        <f>G8*F8/J8*$Q$12</f>
-        <v>0</v>
+        <f>G8*F8/J8*$R$12</f>
+        <v>136.3657698531656</v>
       </c>
       <c r="L8" s="17">
         <v>0.5</v>
       </c>
-      <c r="M8" s="21" t="e">
+      <c r="M8" s="37">
         <f>L8/K8*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N8" s="25">
+        <v>3.6666093004012983</v>
+      </c>
+      <c r="N8" s="37">
+        <v>2</v>
+      </c>
+      <c r="O8" s="24">
         <v>200</v>
       </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="4" t="s">
+      <c r="P8" s="1"/>
+      <c r="Q8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -1598,36 +1652,41 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
-    </row>
-    <row r="9" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z8" s="1"/>
+    </row>
+    <row r="9" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="22">
         <v>313.8</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="22">
         <v>197</v>
       </c>
-      <c r="E9" s="23"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="20"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="5" t="s">
+      <c r="G9" s="22">
+        <v>5.1829999999999998</v>
+      </c>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39">
+        <v>2</v>
+      </c>
+      <c r="O9" s="26"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
@@ -1635,36 +1694,41 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
-    </row>
-    <row r="10" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z9" s="1"/>
+    </row>
+    <row r="10" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="22">
         <v>327</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="22">
         <v>196.1</v>
       </c>
-      <c r="E10" s="23"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="20"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="4" t="s">
+      <c r="G10" s="22">
+        <v>5.633</v>
+      </c>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39">
+        <v>2</v>
+      </c>
+      <c r="O10" s="26"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -1672,49 +1736,56 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
-    </row>
-    <row r="11" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z10" s="1"/>
+    </row>
+    <row r="11" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="22">
         <v>323.8</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="22">
         <v>195.6</v>
       </c>
-      <c r="E11" s="23"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="20">
         <f t="shared" ref="F11" si="0">(C11-D11+E11)+(C12-D12+E12)+(C13-D13+E13)</f>
         <v>202.60000000000002</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24">
+      <c r="G11" s="22">
+        <v>5.5149999999999997</v>
+      </c>
+      <c r="H11" s="23">
         <v>11.3826</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="17">
-        <f>(I11-H11)/$Q$13</f>
-        <v>-14.371969696969696</v>
+      <c r="I11" s="23">
+        <v>17.516999999999999</v>
+      </c>
+      <c r="J11" s="35">
+        <f>(I11-H11)/$R$13</f>
+        <v>7.7454545454545443</v>
       </c>
       <c r="K11" s="17">
-        <f>G11*F11/J11*$Q$12</f>
-        <v>0</v>
+        <f>G11*F11/J11*$R$12</f>
+        <v>93.767298708920222</v>
       </c>
       <c r="L11" s="17">
         <v>0.5</v>
       </c>
-      <c r="M11" s="21" t="e">
+      <c r="M11" s="37">
         <f t="shared" ref="M11:M71" si="1">L11/K11*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N11" s="25">
+        <v>5.3323494105566498</v>
+      </c>
+      <c r="N11" s="37">
+        <v>2</v>
+      </c>
+      <c r="O11" s="24">
         <v>200</v>
       </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="4"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -1723,132 +1794,149 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
-    </row>
-    <row r="12" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z11" s="1"/>
+    </row>
+    <row r="12" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="22">
         <v>271.3</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="22">
         <v>196.9</v>
       </c>
-      <c r="E12" s="23"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="2" t="s">
+      <c r="G12" s="22">
+        <v>5.1470000000000002</v>
+      </c>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39">
+        <v>2</v>
+      </c>
+      <c r="O12" s="26"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Q12" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="R12" s="1" t="s">
+      <c r="R12" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="S12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
-    </row>
-    <row r="13" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Z12" s="1"/>
+    </row>
+    <row r="13" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="22">
         <v>0</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="22">
         <v>0</v>
       </c>
-      <c r="E13" s="23"/>
+      <c r="E13" s="22"/>
       <c r="F13" s="20"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="7" t="s">
+      <c r="G13" s="22">
+        <v>4.9740000000000002</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39">
+        <v>2</v>
+      </c>
+      <c r="O13" s="26"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="R13" s="1">
         <v>0.79200000000000004</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="S13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
-    </row>
-    <row r="14" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z13" s="1"/>
+    </row>
+    <row r="14" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="22">
         <v>333</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="22">
         <v>195.3</v>
       </c>
-      <c r="E14" s="23"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="20">
         <f t="shared" ref="F14" si="2">(C14-D14+E14)+(C15-D15+E15)+(C16-D16+E16)</f>
         <v>315.7</v>
       </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="24">
+      <c r="G14" s="22">
+        <v>5.2329999999999997</v>
+      </c>
+      <c r="H14" s="23">
         <v>11.3559</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="17">
-        <f>(I14-H14)/$Q$13</f>
-        <v>-14.338257575757575</v>
+      <c r="I14" s="23">
+        <v>17.441500000000001</v>
+      </c>
+      <c r="J14" s="35">
+        <f>(I14-H14)/$R$13</f>
+        <v>7.6838383838383848</v>
       </c>
       <c r="K14" s="17">
-        <f>G14*F14/J14*$Q$12</f>
-        <v>0</v>
+        <f>G14*F14/J14*$R$12</f>
+        <v>139.75277867096094</v>
       </c>
       <c r="L14" s="17">
         <v>0.5</v>
       </c>
-      <c r="M14" s="21" t="e">
+      <c r="M14" s="37">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N14" s="25">
+        <v>3.5777463944185204</v>
+      </c>
+      <c r="N14" s="37">
+        <v>2</v>
+      </c>
+      <c r="O14" s="24">
         <v>200</v>
       </c>
-      <c r="O14" s="1"/>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="1"/>
+      <c r="Q14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="R14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
@@ -1856,36 +1944,41 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
-    </row>
-    <row r="15" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z14" s="1"/>
+    </row>
+    <row r="15" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="22">
         <v>237</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="22">
         <v>195.7</v>
       </c>
-      <c r="E15" s="23"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="8" t="s">
+      <c r="G15" s="22">
+        <v>5.5979999999999999</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39">
+        <v>2</v>
+      </c>
+      <c r="O15" s="26"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="R15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
@@ -1893,248 +1986,282 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
-    </row>
-    <row r="16" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z15" s="1"/>
+    </row>
+    <row r="16" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="22">
         <v>333.4</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="22">
         <v>196.7</v>
       </c>
-      <c r="E16" s="23"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="1"/>
-      <c r="S16" s="1"/>
+      <c r="G16" s="22">
+        <v>5.2990000000000004</v>
+      </c>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39">
+        <v>2</v>
+      </c>
+      <c r="O16" s="26"/>
+      <c r="P16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
-    </row>
-    <row r="17" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z16" s="1"/>
+    </row>
+    <row r="17" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="22">
         <v>299.2</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="22">
         <v>194.6</v>
       </c>
-      <c r="E17" s="23"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="20">
         <f t="shared" ref="F17" si="3">(C17-D17+E17)+(C18-D18+E18)+(C19-D19+E19)</f>
         <v>242.2</v>
       </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="24">
+      <c r="G17" s="22">
+        <v>3.1859999999999999</v>
+      </c>
+      <c r="H17" s="23">
         <v>11.332599999999999</v>
       </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="17">
-        <f>(I17-H17)/$Q$13</f>
-        <v>-14.308838383838383</v>
+      <c r="I17" s="23">
+        <v>16.643799999999999</v>
+      </c>
+      <c r="J17" s="35">
+        <f>(I17-H17)/$R$13</f>
+        <v>6.7060606060606052</v>
       </c>
       <c r="K17" s="17">
-        <f>G17*F17/J17*$Q$12</f>
-        <v>0</v>
+        <f>G17*F17/J17*$R$12</f>
+        <v>74.793833438770903</v>
       </c>
       <c r="L17" s="17">
         <v>0.5</v>
       </c>
-      <c r="M17" s="21" t="e">
+      <c r="M17" s="37">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N17" s="25">
+        <v>6.6850430979623363</v>
+      </c>
+      <c r="N17" s="37">
+        <v>2</v>
+      </c>
+      <c r="O17" s="24">
         <v>200</v>
       </c>
-      <c r="O17" s="1"/>
-      <c r="P17" s="9" t="s">
+      <c r="P17" s="1"/>
+      <c r="Q17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="Q17" s="10" t="s">
+      <c r="R17" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="R17" s="10" t="s">
+      <c r="S17" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="S17" s="10" t="s">
+      <c r="T17" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="T17" s="10" t="s">
+      <c r="U17" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="U17" s="10" t="s">
+      <c r="V17" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="V17" s="10" t="s">
+      <c r="W17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="W17" s="32" t="s">
+      <c r="X17" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="X17" s="34" t="s">
+      <c r="Y17" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="Y17" s="1"/>
-    </row>
-    <row r="18" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z17" s="1"/>
+    </row>
+    <row r="18" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="22">
         <v>334</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="22">
         <v>196.4</v>
       </c>
-      <c r="E18" s="23"/>
+      <c r="E18" s="22"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="11" t="s">
+      <c r="G18" s="22">
+        <v>5.2530000000000001</v>
+      </c>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39">
+        <v>2</v>
+      </c>
+      <c r="O18" s="26"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="Q18" s="12" t="s">
+      <c r="R18" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="R18" s="12" t="s">
+      <c r="S18" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="S18" s="12" t="s">
+      <c r="T18" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="T18" s="12" t="s">
+      <c r="U18" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="U18" s="12" t="s">
+      <c r="V18" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="V18" s="12" t="s">
+      <c r="W18" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="W18" s="33"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="1"/>
-    </row>
-    <row r="19" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X18" s="31"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="1"/>
+    </row>
+    <row r="19" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
       <c r="F19" s="20"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="1"/>
+      <c r="G19" s="22">
+        <v>2.8359999999999999</v>
+      </c>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39">
+        <v>2</v>
+      </c>
+      <c r="O19" s="26"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
-      <c r="U19" s="1" t="s">
+      <c r="U19" s="1"/>
+      <c r="V19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
-    </row>
-    <row r="20" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z19" s="1"/>
+    </row>
+    <row r="20" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="22">
         <v>262.89999999999998</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="22">
         <v>196.7</v>
       </c>
-      <c r="E20" s="23"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="20">
         <f t="shared" ref="F20" si="4">(C20-D20+E20)+(C21-D21+E21)+(C22-D22+E22)</f>
         <v>319.19999999999993</v>
       </c>
-      <c r="G20" s="23"/>
-      <c r="H20" s="24">
+      <c r="G20" s="22">
+        <v>5.093</v>
+      </c>
+      <c r="H20" s="23">
         <v>11.3812</v>
       </c>
-      <c r="I20" s="24"/>
-      <c r="J20" s="17">
-        <f>(I20-H20)/$Q$13</f>
-        <v>-14.370202020202019</v>
+      <c r="I20" s="23">
+        <v>17.035</v>
+      </c>
+      <c r="J20" s="35">
+        <f>(I20-H20)/$R$13</f>
+        <v>7.1386363636363637</v>
       </c>
       <c r="K20" s="17">
-        <f>G20*F20/J20*$Q$12</f>
-        <v>0</v>
+        <f>G20*F20/J20*$R$12</f>
+        <v>148.02485883476598</v>
       </c>
       <c r="L20" s="17">
         <v>0.5</v>
       </c>
-      <c r="M20" s="21" t="e">
+      <c r="M20" s="37">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N20" s="25">
+        <v>3.3778110240127255</v>
+      </c>
+      <c r="N20" s="37">
+        <v>2</v>
+      </c>
+      <c r="O20" s="24">
         <v>200</v>
       </c>
-      <c r="O20" s="1"/>
-      <c r="Y20" s="1"/>
-    </row>
-    <row r="21" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P20" s="1"/>
+      <c r="Z20" s="1"/>
+    </row>
+    <row r="21" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="22">
         <v>326.7</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="22">
         <v>196.3</v>
       </c>
-      <c r="E21" s="23"/>
+      <c r="E21" s="22"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="1"/>
+      <c r="G21" s="22">
+        <v>5.0529999999999999</v>
+      </c>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39">
+        <v>2</v>
+      </c>
+      <c r="O21" s="26"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -2145,29 +2272,34 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
-    </row>
-    <row r="22" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z21" s="1"/>
+    </row>
+    <row r="22" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="22">
         <v>318.2</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="22">
         <v>195.6</v>
       </c>
-      <c r="E22" s="23"/>
+      <c r="E22" s="22"/>
       <c r="F22" s="20"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="1"/>
+      <c r="G22" s="22">
+        <v>5.0679999999999996</v>
+      </c>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39">
+        <v>2</v>
+      </c>
+      <c r="O22" s="26"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -2178,47 +2310,54 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
-    </row>
-    <row r="23" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z22" s="1"/>
+    </row>
+    <row r="23" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="22">
         <v>257.89999999999998</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="22">
         <v>195.2</v>
       </c>
-      <c r="E23" s="23"/>
+      <c r="E23" s="22"/>
       <c r="F23" s="20">
         <f t="shared" ref="F23" si="5">(C23-D23+E23)+(C24-D24+E24)+(C25-D25+E25)</f>
         <v>293</v>
       </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24">
+      <c r="G23" s="22">
+        <v>5.1849999999999996</v>
+      </c>
+      <c r="H23" s="23">
         <v>11.430999999999999</v>
       </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="17">
-        <f>(I23-H23)/$Q$13</f>
-        <v>-14.433080808080806</v>
+      <c r="I23" s="23">
+        <v>16.757999999999999</v>
+      </c>
+      <c r="J23" s="35">
+        <f>(I23-H23)/$R$13</f>
+        <v>6.7260101010101003</v>
       </c>
       <c r="K23" s="17">
-        <f>G23*F23/J23*$Q$12</f>
-        <v>0</v>
+        <f>G23*F23/J23*$R$12</f>
+        <v>146.81560615731181</v>
       </c>
       <c r="L23" s="17">
         <v>0.5</v>
       </c>
-      <c r="M23" s="21" t="e">
+      <c r="M23" s="37">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N23" s="25">
+        <v>3.4056325011133612</v>
+      </c>
+      <c r="N23" s="37">
+        <v>2</v>
+      </c>
+      <c r="O23" s="24">
         <v>200</v>
       </c>
-      <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -2229,29 +2368,34 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
-    </row>
-    <row r="24" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z23" s="1"/>
+    </row>
+    <row r="24" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="22">
         <v>297.3</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="22">
         <v>196.9</v>
       </c>
-      <c r="E24" s="23"/>
+      <c r="E24" s="22"/>
       <c r="F24" s="20"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="1"/>
+      <c r="G24" s="22">
+        <v>5.3049999999999997</v>
+      </c>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39">
+        <v>2</v>
+      </c>
+      <c r="O24" s="26"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -2262,29 +2406,34 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
-    </row>
-    <row r="25" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z24" s="1"/>
+    </row>
+    <row r="25" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="22">
         <v>323.39999999999998</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="22">
         <v>193.5</v>
       </c>
-      <c r="E25" s="23"/>
+      <c r="E25" s="22"/>
       <c r="F25" s="20"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="1"/>
+      <c r="G25" s="22">
+        <v>5.2119999999999997</v>
+      </c>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39">
+        <v>2</v>
+      </c>
+      <c r="O25" s="26"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -2295,49 +2444,56 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
-    </row>
-    <row r="26" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z25" s="1"/>
+    </row>
+    <row r="26" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="22">
         <v>284.8</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="22">
         <v>195.8</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="22">
         <v>40</v>
       </c>
       <c r="F26" s="20">
         <f t="shared" ref="F26" si="6">(C26-D26+E26)+(C27-D27+E27)+(C28-D28+E28)</f>
         <v>381</v>
       </c>
-      <c r="G26" s="23"/>
-      <c r="H26" s="24">
+      <c r="G26" s="22">
+        <v>5.0679999999999996</v>
+      </c>
+      <c r="H26" s="23">
         <v>11.401</v>
       </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="17">
-        <f>(I26-H26)/$Q$13</f>
-        <v>-14.395202020202019</v>
+      <c r="I26" s="23">
+        <v>17.086400000000001</v>
+      </c>
+      <c r="J26" s="35">
+        <f>(I26-H26)/$R$13</f>
+        <v>7.1785353535353549</v>
       </c>
       <c r="K26" s="17">
-        <f>G26*F26/J26*$Q$12</f>
-        <v>0</v>
+        <f>G26*F26/J26*$R$12</f>
+        <v>174.83931445456781</v>
       </c>
       <c r="L26" s="17">
         <v>0.5</v>
       </c>
-      <c r="M26" s="21" t="e">
+      <c r="M26" s="37">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N26" s="25">
+        <v>2.8597687056816135</v>
+      </c>
+      <c r="N26" s="37">
+        <v>2</v>
+      </c>
+      <c r="O26" s="24">
         <v>200</v>
       </c>
-      <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -2348,31 +2504,36 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
-    </row>
-    <row r="27" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z26" s="1"/>
+    </row>
+    <row r="27" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="22">
         <v>281.2</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="22">
         <v>196.9</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="22">
         <v>40</v>
       </c>
       <c r="F27" s="20"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="1"/>
+      <c r="G27" s="22">
+        <v>4.9969999999999999</v>
+      </c>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39">
+        <v>2</v>
+      </c>
+      <c r="O27" s="26"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -2383,31 +2544,36 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
-    </row>
-    <row r="28" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z27" s="1"/>
+    </row>
+    <row r="28" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="22">
         <v>284</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="22">
         <v>196.3</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="22">
         <v>40</v>
       </c>
       <c r="F28" s="20"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="1"/>
+      <c r="G28" s="22">
+        <v>4.3449999999999998</v>
+      </c>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39">
+        <v>2</v>
+      </c>
+      <c r="O28" s="26"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -2418,49 +2584,56 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z28" s="1"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="22">
         <v>283.2</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="22">
         <v>195.9</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="22">
         <v>40</v>
       </c>
       <c r="F29" s="20">
         <f t="shared" ref="F29" si="7">(C29-D29+E29)+(C30-D30+E30)+(C31-D31+E31)</f>
         <v>385</v>
       </c>
-      <c r="G29" s="23"/>
-      <c r="H29" s="24">
+      <c r="G29" s="22">
+        <v>3.242</v>
+      </c>
+      <c r="H29" s="23">
         <v>11.397600000000001</v>
       </c>
-      <c r="I29" s="24"/>
-      <c r="J29" s="17">
-        <f>(I29-H29)/$Q$13</f>
-        <v>-14.390909090909091</v>
+      <c r="I29" s="23">
+        <v>16.781500000000001</v>
+      </c>
+      <c r="J29" s="35">
+        <f>(I29-H29)/$R$13</f>
+        <v>6.7978535353535356</v>
       </c>
       <c r="K29" s="17">
-        <f>G29*F29/J29*$Q$12</f>
-        <v>0</v>
+        <f>G29*F29/J29*$R$12</f>
+        <v>119.348040639685</v>
       </c>
       <c r="L29" s="17">
         <v>0.5</v>
       </c>
-      <c r="M29" s="21" t="e">
+      <c r="M29" s="37">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N29" s="25">
+        <v>4.1894278056018841</v>
+      </c>
+      <c r="N29" s="37">
+        <v>2</v>
+      </c>
+      <c r="O29" s="24">
         <v>200</v>
       </c>
-      <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -2471,31 +2644,36 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z29" s="1"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="22">
         <v>287.60000000000002</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="22">
         <v>197</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="22">
         <v>40</v>
       </c>
       <c r="F30" s="20"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="1"/>
+      <c r="G30" s="22">
+        <v>3.254</v>
+      </c>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39">
+        <v>2</v>
+      </c>
+      <c r="O30" s="26"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -2506,31 +2684,36 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z30" s="1"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="22">
         <v>283.3</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="22">
         <v>196.2</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="22">
         <v>40</v>
       </c>
       <c r="F31" s="20"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="1"/>
+      <c r="G31" s="22">
+        <v>3.5459999999999998</v>
+      </c>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39">
+        <v>2</v>
+      </c>
+      <c r="O31" s="26"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
@@ -2541,49 +2724,56 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z31" s="1"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="22">
         <v>319.8</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="22">
         <v>195.1</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="22">
         <v>40</v>
       </c>
       <c r="F32" s="20">
         <f t="shared" ref="F32" si="8">(C32-D32+E32)+(C33-D33+E33)+(C34-D34+E34)</f>
         <v>334.30000000000007</v>
       </c>
-      <c r="G32" s="23"/>
-      <c r="H32" s="24">
+      <c r="G32" s="22">
+        <v>3.4140000000000001</v>
+      </c>
+      <c r="H32" s="23">
         <v>11.374700000000001</v>
       </c>
-      <c r="I32" s="24"/>
-      <c r="J32" s="17">
-        <f>(I32-H32)/$Q$13</f>
-        <v>-14.361994949494949</v>
+      <c r="I32" s="23">
+        <v>17.348299999999998</v>
+      </c>
+      <c r="J32" s="35">
+        <f>(I32-H32)/$R$13</f>
+        <v>7.5424242424242394</v>
       </c>
       <c r="K32" s="17">
-        <f>G32*F32/J32*$Q$12</f>
-        <v>0</v>
+        <f>G32*F32/J32*$R$12</f>
+        <v>98.35632498995588</v>
       </c>
       <c r="L32" s="17">
         <v>0.5</v>
       </c>
-      <c r="M32" s="21" t="e">
+      <c r="M32" s="37">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N32" s="25">
+        <v>5.0835571586378387</v>
+      </c>
+      <c r="N32" s="37">
+        <v>2</v>
+      </c>
+      <c r="O32" s="24">
         <v>200</v>
       </c>
-      <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
@@ -2594,31 +2784,36 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z32" s="1"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="22">
         <v>0</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="22">
         <v>0</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="22">
         <v>40</v>
       </c>
       <c r="F33" s="20"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="1"/>
+      <c r="G33" s="22">
+        <v>3.8650000000000002</v>
+      </c>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39">
+        <v>2</v>
+      </c>
+      <c r="O33" s="26"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -2629,31 +2824,36 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z33" s="1"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="23">
+      <c r="C34" s="22">
         <v>285.8</v>
       </c>
-      <c r="D34" s="23">
+      <c r="D34" s="22">
         <v>196.2</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34" s="22">
         <v>40</v>
       </c>
       <c r="F34" s="20"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="1"/>
+      <c r="G34" s="22">
+        <v>3.847</v>
+      </c>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39">
+        <v>2</v>
+      </c>
+      <c r="O34" s="26"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
@@ -2664,49 +2864,56 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z34" s="1"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="23">
+      <c r="C35" s="22">
         <v>297.8</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="22">
         <v>196.7</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="22">
         <v>40</v>
       </c>
       <c r="F35" s="20">
         <f t="shared" ref="F35" si="9">(C35-D35+E35)+(C36-D36+E36)+(C37-D37+E37)</f>
         <v>411.5</v>
       </c>
-      <c r="G35" s="23"/>
-      <c r="H35" s="24">
+      <c r="G35" s="22">
+        <v>2.1560000000000001</v>
+      </c>
+      <c r="H35" s="23">
         <v>11.422700000000001</v>
       </c>
-      <c r="I35" s="24"/>
-      <c r="J35" s="17">
-        <f>(I35-H35)/$Q$13</f>
-        <v>-14.42260101010101</v>
+      <c r="I35" s="23">
+        <v>17.244299999999999</v>
+      </c>
+      <c r="J35" s="35">
+        <f>(I35-H35)/$R$13</f>
+        <v>7.3505050505050482</v>
       </c>
       <c r="K35" s="17">
-        <f>G35*F35/J35*$Q$12</f>
-        <v>0</v>
+        <f>G35*F35/J35*$R$12</f>
+        <v>78.453942421327497</v>
       </c>
       <c r="L35" s="17">
         <v>0.5</v>
       </c>
-      <c r="M35" s="21" t="e">
+      <c r="M35" s="37">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N35" s="25">
+        <v>6.373166020323235</v>
+      </c>
+      <c r="N35" s="37">
+        <v>2</v>
+      </c>
+      <c r="O35" s="24">
         <v>200</v>
       </c>
-      <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
@@ -2717,127 +2924,149 @@
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z35" s="1"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="23">
+      <c r="C36" s="22">
         <v>294.39999999999998</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="22">
         <v>196.9</v>
       </c>
-      <c r="E36" s="23">
+      <c r="E36" s="22">
         <v>40</v>
       </c>
       <c r="F36" s="20"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="1"/>
-      <c r="Y36" s="1"/>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="G36" s="22">
+        <v>1.9570000000000001</v>
+      </c>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39">
+        <v>2</v>
+      </c>
+      <c r="O36" s="26"/>
+      <c r="P36" s="1"/>
+      <c r="Z36" s="1"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="23">
+      <c r="C37" s="22">
         <v>289.39999999999998</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D37" s="22">
         <v>196.5</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E37" s="22">
         <v>40</v>
       </c>
       <c r="F37" s="20"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="1"/>
-      <c r="Y37" s="1"/>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="G37" s="22">
+        <v>2.121</v>
+      </c>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39">
+        <v>2</v>
+      </c>
+      <c r="O37" s="26"/>
+      <c r="P37" s="1"/>
+      <c r="Z37" s="1"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="23">
+      <c r="C38" s="22">
         <v>292</v>
       </c>
-      <c r="D38" s="23">
+      <c r="D38" s="22">
         <v>196.3</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="22">
         <v>40</v>
       </c>
       <c r="F38" s="20">
         <f t="shared" ref="F38" si="10">(C38-D38+E38)+(C39-D39+E39)+(C40-D40+E40)</f>
         <v>366.2</v>
       </c>
-      <c r="G38" s="23"/>
-      <c r="H38" s="24">
+      <c r="G38" s="22">
+        <v>3.65</v>
+      </c>
+      <c r="H38" s="23">
         <v>11.4329</v>
       </c>
-      <c r="I38" s="24"/>
-      <c r="J38" s="17">
-        <f>(I38-H38)/$Q$13</f>
-        <v>-14.435479797979797</v>
+      <c r="I38" s="23">
+        <v>17.0825</v>
+      </c>
+      <c r="J38" s="35">
+        <f>(I38-H38)/$R$13</f>
+        <v>7.133333333333332</v>
       </c>
       <c r="K38" s="17">
-        <f>G38*F38/J38*$Q$12</f>
-        <v>0</v>
+        <f>G38*F38/J38*$R$12</f>
+        <v>121.79572429906544</v>
       </c>
       <c r="L38" s="17">
         <v>0.5</v>
       </c>
-      <c r="M38" s="21" t="e">
+      <c r="M38" s="37">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N38" s="25">
+        <v>4.105234423273072</v>
+      </c>
+      <c r="N38" s="37">
+        <v>2</v>
+      </c>
+      <c r="O38" s="24">
         <v>200</v>
       </c>
-      <c r="O38" s="1"/>
-      <c r="Y38" s="1"/>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="P38" s="1"/>
+      <c r="Z38" s="1"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="23">
+      <c r="C39" s="22">
         <v>255.2</v>
       </c>
-      <c r="D39" s="23">
+      <c r="D39" s="22">
         <v>196.1</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E39" s="22">
         <v>40</v>
       </c>
       <c r="F39" s="20"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="1"/>
+      <c r="G39" s="22">
+        <v>3.9430000000000001</v>
+      </c>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="39">
+        <v>2</v>
+      </c>
+      <c r="O39" s="26"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
@@ -2848,31 +3077,36 @@
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z39" s="1"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="23">
+      <c r="C40" s="22">
         <v>286.5</v>
       </c>
-      <c r="D40" s="23">
+      <c r="D40" s="22">
         <v>195.1</v>
       </c>
-      <c r="E40" s="23">
+      <c r="E40" s="22">
         <v>40</v>
       </c>
       <c r="F40" s="20"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="1"/>
+      <c r="G40" s="22">
+        <v>3.7320000000000002</v>
+      </c>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="39">
+        <v>2</v>
+      </c>
+      <c r="O40" s="26"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -2883,49 +3117,56 @@
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z40" s="1"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="23">
+      <c r="C41" s="22">
         <v>292.7</v>
       </c>
-      <c r="D41" s="23">
+      <c r="D41" s="22">
         <v>195.9</v>
       </c>
-      <c r="E41" s="23">
+      <c r="E41" s="22">
         <v>40</v>
       </c>
       <c r="F41" s="20">
         <f t="shared" ref="F41" si="11">(C41-D41+E41)+(C42-D42+E42)+(C43-D43+E43)</f>
         <v>405.4</v>
       </c>
-      <c r="G41" s="23"/>
-      <c r="H41" s="24">
+      <c r="G41" s="22">
+        <v>3.5609999999999999</v>
+      </c>
+      <c r="H41" s="23">
         <v>11.4053</v>
       </c>
-      <c r="I41" s="24"/>
-      <c r="J41" s="17">
-        <f>(I41-H41)/$Q$13</f>
-        <v>-14.400631313131314</v>
+      <c r="I41" s="23">
+        <v>17.477799999999998</v>
+      </c>
+      <c r="J41" s="35">
+        <f>(I41-H41)/$R$13</f>
+        <v>7.6672979797979766</v>
       </c>
       <c r="K41" s="17">
-        <f>G41*F41/J41*$Q$12</f>
-        <v>0</v>
+        <f>G41*F41/J41*$R$12</f>
+        <v>122.38458873939896</v>
       </c>
       <c r="L41" s="17">
         <v>0.5</v>
       </c>
-      <c r="M41" s="21" t="e">
+      <c r="M41" s="37">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N41" s="25">
+        <v>4.0854817191458705</v>
+      </c>
+      <c r="N41" s="37">
+        <v>2</v>
+      </c>
+      <c r="O41" s="24">
         <v>200</v>
       </c>
-      <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
@@ -2936,31 +3177,36 @@
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z41" s="1"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="23">
+      <c r="C42" s="22">
         <v>290.5</v>
       </c>
-      <c r="D42" s="23">
+      <c r="D42" s="22">
         <v>197.3</v>
       </c>
-      <c r="E42" s="23">
+      <c r="E42" s="22">
         <v>40</v>
       </c>
       <c r="F42" s="20"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="1"/>
+      <c r="G42" s="22">
+        <v>3.8580000000000001</v>
+      </c>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39">
+        <v>2</v>
+      </c>
+      <c r="O42" s="26"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
@@ -2971,31 +3217,36 @@
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z42" s="1"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="23">
+      <c r="C43" s="22">
         <v>292.7</v>
       </c>
-      <c r="D43" s="23">
+      <c r="D43" s="22">
         <v>197.3</v>
       </c>
-      <c r="E43" s="23">
+      <c r="E43" s="22">
         <v>40</v>
       </c>
       <c r="F43" s="20"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="1"/>
+      <c r="G43" s="22">
+        <v>4.2949999999999999</v>
+      </c>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="39">
+        <v>2</v>
+      </c>
+      <c r="O43" s="26"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
@@ -3006,49 +3257,56 @@
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z43" s="1"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="23">
+      <c r="C44" s="22">
         <v>292.10000000000002</v>
       </c>
-      <c r="D44" s="23">
+      <c r="D44" s="22">
         <v>196</v>
       </c>
-      <c r="E44" s="23">
+      <c r="E44" s="22">
         <v>40</v>
       </c>
       <c r="F44" s="20">
         <f t="shared" ref="F44" si="12">(C44-D44+E44)+(C45-D45+E45)+(C46-D46+E46)</f>
         <v>406.9</v>
       </c>
-      <c r="G44" s="23"/>
-      <c r="H44" s="24">
+      <c r="G44" s="22">
+        <v>3.8929999999999998</v>
+      </c>
+      <c r="H44" s="23">
         <v>11.388400000000001</v>
       </c>
-      <c r="I44" s="24"/>
-      <c r="J44" s="17">
-        <f>(I44-H44)/$Q$13</f>
-        <v>-14.37929292929293</v>
+      <c r="I44" s="23">
+        <v>18.118300000000001</v>
+      </c>
+      <c r="J44" s="35">
+        <f>(I44-H44)/$R$13</f>
+        <v>8.4973484848484855</v>
       </c>
       <c r="K44" s="17">
-        <f>G44*F44/J44*$Q$12</f>
-        <v>0</v>
+        <f>G44*F44/J44*$R$12</f>
+        <v>121.17192872999595</v>
       </c>
       <c r="L44" s="17">
         <v>0.5</v>
       </c>
-      <c r="M44" s="21" t="e">
+      <c r="M44" s="37">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N44" s="25">
+        <v>4.1263682541039355</v>
+      </c>
+      <c r="N44" s="37">
+        <v>2</v>
+      </c>
+      <c r="O44" s="24">
         <v>200</v>
       </c>
-      <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
@@ -3059,31 +3317,36 @@
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z44" s="1"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="23">
+      <c r="C45" s="22">
         <v>294.5</v>
       </c>
-      <c r="D45" s="23">
+      <c r="D45" s="22">
         <v>195.6</v>
       </c>
-      <c r="E45" s="23">
+      <c r="E45" s="22">
         <v>40</v>
       </c>
       <c r="F45" s="20"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="26"/>
-      <c r="M45" s="27"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="1"/>
+      <c r="G45" s="22">
+        <v>3.7050000000000001</v>
+      </c>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="39">
+        <v>2</v>
+      </c>
+      <c r="O45" s="26"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
@@ -3094,31 +3357,36 @@
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z45" s="1"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="23">
+      <c r="C46" s="22">
         <v>288.7</v>
       </c>
-      <c r="D46" s="23">
+      <c r="D46" s="22">
         <v>196.8</v>
       </c>
-      <c r="E46" s="23">
+      <c r="E46" s="22">
         <v>40</v>
       </c>
       <c r="F46" s="20"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="1"/>
+      <c r="G46" s="22">
+        <v>3.88</v>
+      </c>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="39">
+        <v>2</v>
+      </c>
+      <c r="O46" s="26"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
@@ -3129,49 +3397,56 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z46" s="1"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C47" s="22">
         <v>288.10000000000002</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D47" s="22">
         <v>195.3</v>
       </c>
-      <c r="E47" s="23">
+      <c r="E47" s="22">
         <v>40</v>
       </c>
       <c r="F47" s="20">
         <f t="shared" ref="F47" si="13">(C47-D47+E47)+(C48-D48+E48)+(C49-D49+E49)</f>
         <v>384.20000000000005</v>
       </c>
-      <c r="G47" s="23"/>
-      <c r="H47" s="24">
+      <c r="G47" s="22">
+        <v>2.5750000000000002</v>
+      </c>
+      <c r="H47" s="23">
         <v>11.3255</v>
       </c>
-      <c r="I47" s="24"/>
-      <c r="J47" s="17">
-        <f>(I47-H47)/$Q$13</f>
-        <v>-14.299873737373737</v>
+      <c r="I47" s="23">
+        <v>17.763500000000001</v>
+      </c>
+      <c r="J47" s="35">
+        <f>(I47-H47)/$R$13</f>
+        <v>8.1287878787878789</v>
       </c>
       <c r="K47" s="17">
-        <f>G47*F47/J47*$Q$12</f>
-        <v>0</v>
+        <f>G47*F47/J47*$R$12</f>
+        <v>79.1083196644921</v>
       </c>
       <c r="L47" s="17">
         <v>0.5</v>
       </c>
-      <c r="M47" s="21" t="e">
+      <c r="M47" s="37">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N47" s="25">
+        <v>6.3204477369834189</v>
+      </c>
+      <c r="N47" s="37">
+        <v>2</v>
+      </c>
+      <c r="O47" s="24">
         <v>200</v>
       </c>
-      <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
@@ -3182,31 +3457,36 @@
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z47" s="1"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C48" s="23">
+      <c r="C48" s="22">
         <v>286.2</v>
       </c>
-      <c r="D48" s="23">
+      <c r="D48" s="22">
         <v>196.4</v>
       </c>
-      <c r="E48" s="23">
+      <c r="E48" s="22">
         <v>40</v>
       </c>
       <c r="F48" s="20"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="27"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="1"/>
+      <c r="G48" s="22">
+        <v>2.7290000000000001</v>
+      </c>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="39">
+        <v>2</v>
+      </c>
+      <c r="O48" s="26"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
@@ -3217,1815 +3497,2185 @@
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="Z48" s="1"/>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B49" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="23">
+      <c r="C49" s="22">
         <v>279.10000000000002</v>
       </c>
-      <c r="D49" s="23">
+      <c r="D49" s="22">
         <v>197.5</v>
       </c>
-      <c r="E49" s="23">
+      <c r="E49" s="22">
         <v>40</v>
       </c>
       <c r="F49" s="20"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="26"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="28"/>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G49" s="22">
+        <v>2.7360000000000002</v>
+      </c>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="39">
+        <v>2</v>
+      </c>
+      <c r="O49" s="26"/>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B50" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C50" s="23">
+      <c r="C50" s="22">
         <v>282.2</v>
       </c>
-      <c r="D50" s="23">
+      <c r="D50" s="22">
         <v>196.2</v>
       </c>
-      <c r="E50" s="23">
+      <c r="E50" s="22">
         <v>40</v>
       </c>
       <c r="F50" s="20">
         <f t="shared" ref="F50" si="14">(C50-D50+E50)+(C51-D51+E51)+(C52-D52+E52)</f>
         <v>401</v>
       </c>
-      <c r="G50" s="23"/>
-      <c r="H50" s="24">
+      <c r="G50" s="22">
+        <v>2.718</v>
+      </c>
+      <c r="H50" s="23">
         <v>11.487399999999999</v>
       </c>
-      <c r="I50" s="24"/>
-      <c r="J50" s="17">
-        <f>(I50-H50)/$Q$13</f>
-        <v>-14.504292929292928</v>
+      <c r="I50" s="23">
+        <v>18.467400000000001</v>
+      </c>
+      <c r="J50" s="35">
+        <f>(I50-H50)/$R$13</f>
+        <v>8.8131313131313149</v>
       </c>
       <c r="K50" s="17">
-        <f>G50*F50/J50*$Q$12</f>
-        <v>0</v>
+        <f>G50*F50/J50*$R$12</f>
+        <v>80.385356217765022</v>
       </c>
       <c r="L50" s="17">
         <v>0.5</v>
       </c>
-      <c r="M50" s="21" t="e">
+      <c r="M50" s="37">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N50" s="25">
+        <v>6.220038369245926</v>
+      </c>
+      <c r="N50" s="37">
+        <v>2</v>
+      </c>
+      <c r="O50" s="24">
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B51" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="23">
+      <c r="C51" s="22">
         <v>299.39999999999998</v>
       </c>
-      <c r="D51" s="23">
+      <c r="D51" s="22">
         <v>197.8</v>
       </c>
-      <c r="E51" s="23">
+      <c r="E51" s="22">
         <v>40</v>
       </c>
       <c r="F51" s="20"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="26"/>
-      <c r="M51" s="27"/>
-      <c r="N51" s="28"/>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G51" s="22">
+        <v>2.8879999999999999</v>
+      </c>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="39">
+        <v>2</v>
+      </c>
+      <c r="O51" s="26"/>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B52" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C52" s="23">
+      <c r="C52" s="22">
         <v>289</v>
       </c>
-      <c r="D52" s="23">
+      <c r="D52" s="22">
         <v>195.6</v>
       </c>
-      <c r="E52" s="23">
+      <c r="E52" s="22">
         <v>40</v>
       </c>
       <c r="F52" s="20"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="26"/>
-      <c r="M52" s="27"/>
-      <c r="N52" s="28"/>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G52" s="22">
+        <v>2.8439999999999999</v>
+      </c>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="39">
+        <v>2</v>
+      </c>
+      <c r="O52" s="26"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B53" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C53" s="23">
+      <c r="C53" s="22">
         <v>277</v>
       </c>
-      <c r="D53" s="23">
+      <c r="D53" s="22">
         <v>195.6</v>
       </c>
-      <c r="E53" s="23">
+      <c r="E53" s="22">
         <v>40</v>
       </c>
       <c r="F53" s="20">
         <f t="shared" ref="F53" si="15">(C53-D53+E53)+(C54-D54+E54)+(C55-D55+E55)</f>
         <v>382.59999999999997</v>
       </c>
-      <c r="G53" s="23"/>
-      <c r="H53" s="24">
+      <c r="G53" s="22">
+        <v>1.702</v>
+      </c>
+      <c r="H53" s="23">
         <v>11.4049</v>
       </c>
-      <c r="I53" s="24"/>
-      <c r="J53" s="17">
-        <f>(I53-H53)/$Q$13</f>
-        <v>-14.400126262626262</v>
+      <c r="I53" s="23">
+        <v>17.219799999999999</v>
+      </c>
+      <c r="J53" s="35">
+        <f>(I53-H53)/$R$13</f>
+        <v>7.3420454545454534</v>
       </c>
       <c r="K53" s="17">
-        <f>G53*F53/J53*$Q$12</f>
-        <v>0</v>
+        <f>G53*F53/J53*$R$12</f>
+        <v>57.650198792756534</v>
       </c>
       <c r="L53" s="17">
         <v>0.5</v>
       </c>
-      <c r="M53" s="21" t="e">
+      <c r="M53" s="37">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N53" s="25">
+        <v>8.6729969795494029</v>
+      </c>
+      <c r="N53" s="37">
+        <v>2</v>
+      </c>
+      <c r="O53" s="24">
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B54" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C54" s="23">
+      <c r="C54" s="22">
         <v>285.89999999999998</v>
       </c>
-      <c r="D54" s="23">
+      <c r="D54" s="22">
         <v>196.9</v>
       </c>
-      <c r="E54" s="23">
+      <c r="E54" s="22">
         <v>40</v>
       </c>
       <c r="F54" s="20"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="26"/>
-      <c r="M54" s="27"/>
-      <c r="N54" s="28"/>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G54" s="22">
+        <v>1.7669999999999999</v>
+      </c>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="39">
+        <v>2</v>
+      </c>
+      <c r="O54" s="26"/>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B55" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C55" s="23">
+      <c r="C55" s="22">
         <v>288.89999999999998</v>
       </c>
-      <c r="D55" s="23">
+      <c r="D55" s="22">
         <v>196.7</v>
       </c>
-      <c r="E55" s="23">
+      <c r="E55" s="22">
         <v>40</v>
       </c>
       <c r="F55" s="20"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="26"/>
-      <c r="M55" s="27"/>
-      <c r="N55" s="28"/>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G55" s="22">
+        <v>1.6850000000000001</v>
+      </c>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="39">
+        <v>2</v>
+      </c>
+      <c r="O55" s="26"/>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B56" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C56" s="23">
+      <c r="C56" s="22">
         <v>287.39999999999998</v>
       </c>
-      <c r="D56" s="23">
+      <c r="D56" s="22">
         <v>195.9</v>
       </c>
-      <c r="E56" s="23">
+      <c r="E56" s="22">
         <v>40</v>
       </c>
       <c r="F56" s="20">
         <f t="shared" ref="F56" si="16">(C56-D56+E56)+(C57-D57+E57)+(C58-D58+E58)</f>
         <v>391.09999999999997</v>
       </c>
-      <c r="G56" s="23"/>
-      <c r="H56" s="24">
+      <c r="G56" s="22">
+        <v>2.839</v>
+      </c>
+      <c r="H56" s="23">
         <v>11.3728</v>
       </c>
-      <c r="I56" s="24"/>
-      <c r="J56" s="17">
-        <f>(I56-H56)/$Q$13</f>
-        <v>-14.359595959595959</v>
+      <c r="I56" s="23">
+        <v>17.1889</v>
+      </c>
+      <c r="J56" s="35">
+        <f>(I56-H56)/$R$13</f>
+        <v>7.3435606060606062</v>
       </c>
       <c r="K56" s="17">
-        <f>G56*F56/J56*$Q$12</f>
-        <v>0</v>
+        <f>G56*F56/J56*$R$12</f>
+        <v>98.278808294217754</v>
       </c>
       <c r="L56" s="17">
         <v>0.5</v>
       </c>
-      <c r="M56" s="21" t="e">
+      <c r="M56" s="37">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N56" s="25">
+        <v>5.0875667773987203</v>
+      </c>
+      <c r="N56" s="37">
+        <v>2</v>
+      </c>
+      <c r="O56" s="24">
         <v>200</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B57" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C57" s="23">
+      <c r="C57" s="22">
         <v>286.89999999999998</v>
       </c>
-      <c r="D57" s="23">
+      <c r="D57" s="22">
         <v>196.4</v>
       </c>
-      <c r="E57" s="23">
+      <c r="E57" s="22">
         <v>40</v>
       </c>
       <c r="F57" s="20"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="26"/>
-      <c r="M57" s="27"/>
-      <c r="N57" s="28"/>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G57" s="22">
+        <v>3.0030000000000001</v>
+      </c>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="39">
+        <v>2</v>
+      </c>
+      <c r="O57" s="26"/>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B58" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C58" s="23">
+      <c r="C58" s="22">
         <v>286.3</v>
       </c>
-      <c r="D58" s="23">
+      <c r="D58" s="22">
         <v>197.2</v>
       </c>
-      <c r="E58" s="23">
+      <c r="E58" s="22">
         <v>40</v>
       </c>
       <c r="F58" s="20"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="26"/>
-      <c r="L58" s="26"/>
-      <c r="M58" s="27"/>
-      <c r="N58" s="28"/>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G58" s="22">
+        <v>2.8820000000000001</v>
+      </c>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="39"/>
+      <c r="N58" s="39">
+        <v>2</v>
+      </c>
+      <c r="O58" s="26"/>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B59" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C59" s="23">
+      <c r="C59" s="22">
         <v>290.3</v>
       </c>
-      <c r="D59" s="23">
+      <c r="D59" s="22">
         <v>196.3</v>
       </c>
-      <c r="E59" s="23">
+      <c r="E59" s="22">
         <v>40</v>
       </c>
       <c r="F59" s="20">
         <f t="shared" ref="F59" si="17">(C59-D59+E59)+(C60-D60+E60)+(C61-D61+E61)</f>
         <v>388.29999999999995</v>
       </c>
-      <c r="G59" s="23"/>
-      <c r="H59" s="24">
+      <c r="G59" s="22">
+        <v>3.1709999999999998</v>
+      </c>
+      <c r="H59" s="23">
         <v>11.4032</v>
       </c>
-      <c r="I59" s="24"/>
-      <c r="J59" s="17">
-        <f>(I59-H59)/$Q$13</f>
-        <v>-14.397979797979797</v>
+      <c r="I59" s="23">
+        <v>20.4785</v>
+      </c>
+      <c r="J59" s="35">
+        <f>(I59-H59)/$R$13</f>
+        <v>11.458712121212121</v>
       </c>
       <c r="K59" s="17">
-        <f>G59*F59/J59*$Q$12</f>
-        <v>0</v>
+        <f>G59*F59/J59*$R$12</f>
+        <v>69.845942243231605</v>
       </c>
       <c r="L59" s="17">
         <v>0.5</v>
       </c>
-      <c r="M59" s="21" t="e">
+      <c r="M59" s="37">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N59" s="25">
+        <v>7.1586119957949643</v>
+      </c>
+      <c r="N59" s="37">
+        <v>2</v>
+      </c>
+      <c r="O59" s="24">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B60" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C60" s="23">
+      <c r="C60" s="22">
         <v>295.7</v>
       </c>
-      <c r="D60" s="23">
+      <c r="D60" s="22">
         <v>196.9</v>
       </c>
-      <c r="E60" s="23">
+      <c r="E60" s="22">
         <v>40</v>
       </c>
       <c r="F60" s="20"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="26"/>
-      <c r="M60" s="27"/>
-      <c r="N60" s="28"/>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G60" s="22">
+        <v>3.1930000000000001</v>
+      </c>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="39">
+        <v>2</v>
+      </c>
+      <c r="O60" s="26"/>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B61" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C61" s="23">
+      <c r="C61" s="22">
         <v>271.60000000000002</v>
       </c>
-      <c r="D61" s="23">
+      <c r="D61" s="22">
         <v>196.1</v>
       </c>
-      <c r="E61" s="23">
+      <c r="E61" s="22">
         <v>40</v>
       </c>
       <c r="F61" s="20"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="26"/>
-      <c r="K61" s="26"/>
-      <c r="L61" s="26"/>
-      <c r="M61" s="27"/>
-      <c r="N61" s="28"/>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G61" s="22">
+        <v>3.1019999999999999</v>
+      </c>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="39"/>
+      <c r="N61" s="39">
+        <v>2</v>
+      </c>
+      <c r="O61" s="26"/>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B62" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C62" s="23">
+      <c r="C62" s="22">
         <v>317.89999999999998</v>
       </c>
-      <c r="D62" s="23">
+      <c r="D62" s="22">
         <v>195.6</v>
       </c>
-      <c r="E62" s="23"/>
+      <c r="E62" s="22"/>
       <c r="F62" s="20">
         <f t="shared" ref="F62" si="18">(C62-D62+E62)+(C63-D63+E63)+(C64-D64+E64)</f>
         <v>359</v>
       </c>
-      <c r="G62" s="23"/>
-      <c r="H62" s="24">
+      <c r="G62" s="22">
+        <v>2.7650000000000001</v>
+      </c>
+      <c r="H62" s="23">
         <v>11.4246</v>
       </c>
-      <c r="I62" s="24"/>
-      <c r="J62" s="17">
-        <f>(I62-H62)/$Q$13</f>
-        <v>-14.424999999999999</v>
+      <c r="I62" s="23">
+        <v>18.1067</v>
+      </c>
+      <c r="J62" s="35">
+        <f>(I62-H62)/$R$13</f>
+        <v>8.4369949494949488</v>
       </c>
       <c r="K62" s="17">
-        <f>G62*F62/J62*$Q$12</f>
-        <v>0</v>
+        <f>G62*F62/J62*$R$12</f>
+        <v>76.474236841711445</v>
       </c>
       <c r="L62" s="17">
         <v>0.5</v>
       </c>
-      <c r="M62" s="21" t="e">
+      <c r="M62" s="37">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N62" s="25">
+        <v>6.5381495867021755</v>
+      </c>
+      <c r="N62" s="37">
+        <v>2</v>
+      </c>
+      <c r="O62" s="24">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B63" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C63" s="23">
+      <c r="C63" s="22">
         <v>311</v>
       </c>
-      <c r="D63" s="23">
+      <c r="D63" s="22">
         <v>195.6</v>
       </c>
-      <c r="E63" s="23"/>
+      <c r="E63" s="22"/>
       <c r="F63" s="20"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="26"/>
-      <c r="J63" s="26"/>
-      <c r="K63" s="26"/>
-      <c r="L63" s="26"/>
-      <c r="M63" s="27"/>
-      <c r="N63" s="28"/>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G63" s="22">
+        <v>2.7949999999999999</v>
+      </c>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="25"/>
+      <c r="M63" s="39"/>
+      <c r="N63" s="39">
+        <v>2</v>
+      </c>
+      <c r="O63" s="26"/>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B64" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="C64" s="23">
+      <c r="C64" s="22">
         <v>317.5</v>
       </c>
-      <c r="D64" s="23">
+      <c r="D64" s="22">
         <v>196.2</v>
       </c>
-      <c r="E64" s="23"/>
+      <c r="E64" s="22"/>
       <c r="F64" s="20"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="26"/>
-      <c r="L64" s="26"/>
-      <c r="M64" s="27"/>
-      <c r="N64" s="28"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G64" s="22">
+        <v>2.9089999999999998</v>
+      </c>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="36"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="39"/>
+      <c r="N64" s="39">
+        <v>2</v>
+      </c>
+      <c r="O64" s="26"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B65" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C65" s="23">
+      <c r="C65" s="22">
         <v>291.7</v>
       </c>
-      <c r="D65" s="23">
+      <c r="D65" s="22">
         <v>196.6</v>
       </c>
-      <c r="E65" s="23"/>
+      <c r="E65" s="22"/>
       <c r="F65" s="20">
         <f t="shared" ref="F65" si="19">(C65-D65+E65)+(C66-D66+E66)+(C67-D67+E67)</f>
         <v>280.59999999999997</v>
       </c>
-      <c r="G65" s="23"/>
-      <c r="H65" s="24">
+      <c r="G65" s="22">
+        <v>2.4769999999999999</v>
+      </c>
+      <c r="H65" s="23">
         <v>11.3841</v>
       </c>
-      <c r="I65" s="24"/>
-      <c r="J65" s="17">
-        <f>(I65-H65)/$Q$13</f>
-        <v>-14.373863636363636</v>
+      <c r="I65" s="23">
+        <v>19.0886</v>
+      </c>
+      <c r="J65" s="35">
+        <f>(I65-H65)/$R$13</f>
+        <v>9.7279040404040398</v>
       </c>
       <c r="K65" s="17">
-        <f>G65*F65/J65*$Q$12</f>
-        <v>0</v>
+        <f>G65*F65/J65*$R$12</f>
+        <v>46.441661854760198</v>
       </c>
       <c r="L65" s="17">
         <v>0.5</v>
       </c>
-      <c r="M65" s="21" t="e">
+      <c r="M65" s="37">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N65" s="25">
+        <v>10.766195265873129</v>
+      </c>
+      <c r="N65" s="37">
+        <v>2</v>
+      </c>
+      <c r="O65" s="24">
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B66" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C66" s="23">
+      <c r="C66" s="22">
         <v>323.89999999999998</v>
       </c>
-      <c r="D66" s="23">
+      <c r="D66" s="22">
         <v>197</v>
       </c>
-      <c r="E66" s="23"/>
+      <c r="E66" s="22"/>
       <c r="F66" s="20"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="26"/>
-      <c r="K66" s="26"/>
-      <c r="L66" s="26"/>
-      <c r="M66" s="27"/>
-      <c r="N66" s="28"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G66" s="22">
+        <v>2.4350000000000001</v>
+      </c>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="25"/>
+      <c r="M66" s="39"/>
+      <c r="N66" s="39">
+        <v>2</v>
+      </c>
+      <c r="O66" s="26"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B67" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C67" s="23">
+      <c r="C67" s="22">
         <v>254.2</v>
       </c>
-      <c r="D67" s="23">
+      <c r="D67" s="22">
         <v>195.6</v>
       </c>
-      <c r="E67" s="23"/>
+      <c r="E67" s="22"/>
       <c r="F67" s="20"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="26"/>
-      <c r="K67" s="26"/>
-      <c r="L67" s="26"/>
-      <c r="M67" s="27"/>
-      <c r="N67" s="28"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G67" s="22">
+        <v>2.3119999999999998</v>
+      </c>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="25"/>
+      <c r="M67" s="39"/>
+      <c r="N67" s="39">
+        <v>2</v>
+      </c>
+      <c r="O67" s="26"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B68" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C68" s="23">
+      <c r="C68" s="22">
         <v>323.89999999999998</v>
       </c>
-      <c r="D68" s="23">
+      <c r="D68" s="22">
         <v>196.1</v>
       </c>
-      <c r="E68" s="23"/>
+      <c r="E68" s="22"/>
       <c r="F68" s="20">
         <f t="shared" ref="F68" si="20">(C68-D68+E68)+(C69-D69+E69)+(C70-D70+E70)</f>
         <v>364.69999999999993</v>
       </c>
-      <c r="G68" s="23"/>
-      <c r="H68" s="24">
+      <c r="G68" s="22">
+        <v>2.7240000000000002</v>
+      </c>
+      <c r="H68" s="23">
         <v>11.3842</v>
       </c>
-      <c r="I68" s="24"/>
-      <c r="J68" s="17">
-        <f>(I68-H68)/$Q$13</f>
-        <v>-14.373989898989898</v>
+      <c r="I68" s="23">
+        <v>18.511399999999998</v>
+      </c>
+      <c r="J68" s="35">
+        <f>(I68-H68)/$R$13</f>
+        <v>8.9989898989898958</v>
       </c>
       <c r="K68" s="17">
-        <f>G68*F68/J68*$Q$12</f>
-        <v>0</v>
+        <f>G68*F68/J68*$R$12</f>
+        <v>71.756700168369093</v>
       </c>
       <c r="L68" s="17">
         <v>0.5</v>
       </c>
-      <c r="M68" s="21" t="e">
+      <c r="M68" s="37">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N68" s="25">
+        <v>6.9679904291418886</v>
+      </c>
+      <c r="N68" s="37">
+        <v>2</v>
+      </c>
+      <c r="O68" s="24">
         <v>200</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B69" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C69" s="23">
+      <c r="C69" s="22">
         <v>321.3</v>
       </c>
-      <c r="D69" s="23">
+      <c r="D69" s="22">
         <v>196</v>
       </c>
-      <c r="E69" s="23"/>
+      <c r="E69" s="22"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26"/>
-      <c r="K69" s="26"/>
-      <c r="L69" s="26"/>
-      <c r="M69" s="27"/>
-      <c r="N69" s="28"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G69" s="22">
+        <v>2.5590000000000002</v>
+      </c>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="36"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="25"/>
+      <c r="M69" s="39"/>
+      <c r="N69" s="39">
+        <v>2</v>
+      </c>
+      <c r="O69" s="26"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B70" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C70" s="23">
+      <c r="C70" s="22">
         <v>308.39999999999998</v>
       </c>
-      <c r="D70" s="23">
+      <c r="D70" s="22">
         <v>196.8</v>
       </c>
-      <c r="E70" s="23"/>
+      <c r="E70" s="22"/>
       <c r="F70" s="20"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="26"/>
-      <c r="K70" s="26"/>
-      <c r="L70" s="26"/>
-      <c r="M70" s="27"/>
-      <c r="N70" s="28"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G70" s="22">
+        <v>2.6920000000000002</v>
+      </c>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="36"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="25"/>
+      <c r="M70" s="39"/>
+      <c r="N70" s="39">
+        <v>2</v>
+      </c>
+      <c r="O70" s="26"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B71" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C71" s="23">
+      <c r="C71" s="22">
         <v>316.2</v>
       </c>
-      <c r="D71" s="23">
+      <c r="D71" s="22">
         <v>197.8</v>
       </c>
-      <c r="E71" s="23"/>
+      <c r="E71" s="22"/>
       <c r="F71" s="20">
         <f t="shared" ref="F71" si="21">(C71-D71+E71)+(C72-D72+E72)+(C73-D73+E73)</f>
         <v>343.59999999999997</v>
       </c>
-      <c r="G71" s="23"/>
-      <c r="H71" s="24">
+      <c r="G71" s="22">
+        <v>1.77</v>
+      </c>
+      <c r="H71" s="23">
         <v>11.4</v>
       </c>
-      <c r="I71" s="24"/>
-      <c r="J71" s="17">
-        <f>(I71-H71)/$Q$13</f>
-        <v>-14.393939393939394</v>
+      <c r="I71" s="23">
+        <v>18.079499999999999</v>
+      </c>
+      <c r="J71" s="35">
+        <f>(I71-H71)/$R$13</f>
+        <v>8.4337121212121193</v>
       </c>
       <c r="K71" s="17">
-        <f>G71*F71/J71*$Q$12</f>
-        <v>0</v>
+        <f>G71*F71/J71*$R$12</f>
+        <v>46.872811677520779</v>
       </c>
       <c r="L71" s="17">
         <v>0.5</v>
       </c>
-      <c r="M71" s="21" t="e">
+      <c r="M71" s="37">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N71" s="25">
+        <v>10.667164654852348</v>
+      </c>
+      <c r="N71" s="37">
+        <v>2</v>
+      </c>
+      <c r="O71" s="24">
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B72" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="C72" s="23">
+      <c r="C72" s="22">
         <v>304.7</v>
       </c>
-      <c r="D72" s="23">
+      <c r="D72" s="22">
         <v>197.8</v>
       </c>
-      <c r="E72" s="23"/>
+      <c r="E72" s="22"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="23"/>
-      <c r="H72" s="26"/>
-      <c r="I72" s="26"/>
-      <c r="J72" s="26"/>
-      <c r="K72" s="26"/>
-      <c r="L72" s="26"/>
-      <c r="M72" s="27"/>
-      <c r="N72" s="28"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G72" s="22">
+        <v>1.7649999999999999</v>
+      </c>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="25"/>
+      <c r="M72" s="39"/>
+      <c r="N72" s="39">
+        <v>2</v>
+      </c>
+      <c r="O72" s="26"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B73" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C73" s="23">
+      <c r="C73" s="22">
         <v>315.5</v>
       </c>
-      <c r="D73" s="23">
+      <c r="D73" s="22">
         <v>197.2</v>
       </c>
-      <c r="E73" s="23"/>
+      <c r="E73" s="22"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="26"/>
-      <c r="I73" s="26"/>
-      <c r="J73" s="26"/>
-      <c r="K73" s="26"/>
-      <c r="L73" s="26"/>
-      <c r="M73" s="27"/>
-      <c r="N73" s="28"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G73" s="22">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="36"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="25"/>
+      <c r="M73" s="39"/>
+      <c r="N73" s="39">
+        <v>2</v>
+      </c>
+      <c r="O73" s="26"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B74" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C74" s="23">
+      <c r="C74" s="22">
         <v>309.8</v>
       </c>
-      <c r="D74" s="23">
+      <c r="D74" s="22">
         <v>196.1</v>
       </c>
-      <c r="E74" s="23"/>
+      <c r="E74" s="22"/>
       <c r="F74" s="20">
         <f t="shared" ref="F74" si="22">(C74-D74+E74)+(C75-D75+E75)+(C76-D76+E76)</f>
         <v>336</v>
       </c>
-      <c r="G74" s="23"/>
-      <c r="H74" s="24">
+      <c r="G74" s="22">
+        <v>3.214</v>
+      </c>
+      <c r="H74" s="23">
         <v>11.3964</v>
       </c>
-      <c r="I74" s="24"/>
-      <c r="J74" s="17">
-        <f>(I74-H74)/$Q$13</f>
-        <v>-14.389393939393939</v>
+      <c r="I74" s="23">
+        <v>17.854800000000001</v>
+      </c>
+      <c r="J74" s="35">
+        <f>(I74-H74)/$R$13</f>
+        <v>8.1545454545454561</v>
       </c>
       <c r="K74" s="17">
-        <f>G74*F74/J74*$Q$12</f>
-        <v>0</v>
+        <f>G74*F74/J74*$R$12</f>
+        <v>86.079304347826081</v>
       </c>
       <c r="L74" s="17">
         <v>0.5</v>
       </c>
-      <c r="M74" s="21" t="e">
+      <c r="M74" s="37">
         <f t="shared" ref="M74:M113" si="23">L74/K74*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N74" s="25">
+        <v>5.8085971278255037</v>
+      </c>
+      <c r="N74" s="37">
+        <v>2</v>
+      </c>
+      <c r="O74" s="24">
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B75" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="C75" s="23">
+      <c r="C75" s="22">
         <v>315</v>
       </c>
-      <c r="D75" s="23">
+      <c r="D75" s="22">
         <v>197.3</v>
       </c>
-      <c r="E75" s="23"/>
+      <c r="E75" s="22"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="26"/>
-      <c r="I75" s="26"/>
-      <c r="J75" s="26"/>
-      <c r="K75" s="26"/>
-      <c r="L75" s="26"/>
-      <c r="M75" s="27"/>
-      <c r="N75" s="28"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G75" s="22">
+        <v>3.1669999999999998</v>
+      </c>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="36"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="25"/>
+      <c r="M75" s="39"/>
+      <c r="N75" s="39">
+        <v>2</v>
+      </c>
+      <c r="O75" s="26"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B76" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C76" s="23">
+      <c r="C76" s="22">
         <v>301.8</v>
       </c>
-      <c r="D76" s="23">
+      <c r="D76" s="22">
         <v>197.2</v>
       </c>
-      <c r="E76" s="23"/>
+      <c r="E76" s="22"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="26"/>
-      <c r="I76" s="26"/>
-      <c r="J76" s="26"/>
-      <c r="K76" s="26"/>
-      <c r="L76" s="26"/>
-      <c r="M76" s="27"/>
-      <c r="N76" s="28"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G76" s="22">
+        <v>3.0449999999999999</v>
+      </c>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="25"/>
+      <c r="L76" s="25"/>
+      <c r="M76" s="39"/>
+      <c r="N76" s="39">
+        <v>2</v>
+      </c>
+      <c r="O76" s="26"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B77" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C77" s="23">
+      <c r="C77" s="22">
         <v>317.39999999999998</v>
       </c>
-      <c r="D77" s="23">
+      <c r="D77" s="22">
         <v>196.2</v>
       </c>
-      <c r="E77" s="23"/>
+      <c r="E77" s="22"/>
       <c r="F77" s="20">
         <f t="shared" ref="F77" si="24">(C77-D77+E77)+(C78-D78+E78)+(C79-D79+E79)</f>
         <v>352.1</v>
       </c>
-      <c r="G77" s="23"/>
-      <c r="H77" s="24">
+      <c r="G77" s="22">
+        <v>2.5870000000000002</v>
+      </c>
+      <c r="H77" s="23">
         <v>11.408099999999999</v>
       </c>
-      <c r="I77" s="24"/>
-      <c r="J77" s="17">
-        <f>(I77-H77)/$Q$13</f>
-        <v>-14.404166666666665</v>
+      <c r="I77" s="23">
+        <v>18.177700000000002</v>
+      </c>
+      <c r="J77" s="35">
+        <f>(I77-H77)/$R$13</f>
+        <v>8.5474747474747499</v>
       </c>
       <c r="K77" s="17">
-        <f>G77*F77/J77*$Q$12</f>
-        <v>0</v>
+        <f>G77*F77/J77*$R$12</f>
+        <v>69.268851034034498</v>
       </c>
       <c r="L77" s="17">
         <v>0.5</v>
       </c>
-      <c r="M77" s="21" t="e">
+      <c r="M77" s="37">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N77" s="25">
+        <v>7.218251674974808</v>
+      </c>
+      <c r="N77" s="37">
+        <v>2</v>
+      </c>
+      <c r="O77" s="24">
         <v>200</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B78" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="C78" s="23">
+      <c r="C78" s="22">
         <v>313.60000000000002</v>
       </c>
-      <c r="D78" s="23">
+      <c r="D78" s="22">
         <v>195.7</v>
       </c>
-      <c r="E78" s="23"/>
+      <c r="E78" s="22"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="26"/>
-      <c r="J78" s="26"/>
-      <c r="K78" s="26"/>
-      <c r="L78" s="26"/>
-      <c r="M78" s="27"/>
-      <c r="N78" s="28"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G78" s="22">
+        <v>2.5350000000000001</v>
+      </c>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="36"/>
+      <c r="K78" s="25"/>
+      <c r="L78" s="25"/>
+      <c r="M78" s="39"/>
+      <c r="N78" s="39">
+        <v>2</v>
+      </c>
+      <c r="O78" s="26"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B79" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="C79" s="23">
+      <c r="C79" s="22">
         <v>307.89999999999998</v>
       </c>
-      <c r="D79" s="23">
+      <c r="D79" s="22">
         <v>194.9</v>
       </c>
-      <c r="E79" s="23"/>
+      <c r="E79" s="22"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="26"/>
-      <c r="I79" s="26"/>
-      <c r="J79" s="26"/>
-      <c r="K79" s="26"/>
-      <c r="L79" s="26"/>
-      <c r="M79" s="27"/>
-      <c r="N79" s="28"/>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G79" s="22">
+        <v>2.5009999999999999</v>
+      </c>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="36"/>
+      <c r="K79" s="25"/>
+      <c r="L79" s="25"/>
+      <c r="M79" s="39"/>
+      <c r="N79" s="39">
+        <v>2</v>
+      </c>
+      <c r="O79" s="26"/>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B80" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="C80" s="23">
+      <c r="C80" s="22">
         <v>297.10000000000002</v>
       </c>
-      <c r="D80" s="23">
+      <c r="D80" s="22">
         <v>194.4</v>
       </c>
-      <c r="E80" s="23"/>
+      <c r="E80" s="22"/>
       <c r="F80" s="20">
         <f t="shared" ref="F80" si="25">(C80-D80+E80)+(C81-D81+E81)+(C82-D82+E82)</f>
         <v>337.9</v>
       </c>
-      <c r="G80" s="23"/>
-      <c r="H80" s="24">
+      <c r="G80" s="22">
+        <v>2.1829999999999998</v>
+      </c>
+      <c r="H80" s="23">
         <v>11.402100000000001</v>
       </c>
-      <c r="I80" s="24"/>
-      <c r="J80" s="17">
-        <f>(I80-H80)/$Q$13</f>
-        <v>-14.396590909090909</v>
+      <c r="I80" s="23">
+        <v>17.552299999999999</v>
+      </c>
+      <c r="J80" s="35">
+        <f>(I80-H80)/$R$13</f>
+        <v>7.7654040404040376</v>
       </c>
       <c r="K80" s="17">
-        <f>G80*F80/J80*$Q$12</f>
-        <v>0</v>
+        <f>G80*F80/J80*$R$12</f>
+        <v>61.74349750577219</v>
       </c>
       <c r="L80" s="17">
         <v>0.5</v>
       </c>
-      <c r="M80" s="21" t="e">
+      <c r="M80" s="37">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N80" s="25">
+        <v>8.0980187420263441</v>
+      </c>
+      <c r="N80" s="37">
+        <v>2</v>
+      </c>
+      <c r="O80" s="24">
         <v>200</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B81" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="C81" s="23">
+      <c r="C81" s="22">
         <v>309.5</v>
       </c>
-      <c r="D81" s="23">
+      <c r="D81" s="22">
         <v>196.5</v>
       </c>
-      <c r="E81" s="23"/>
+      <c r="E81" s="22"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="26"/>
-      <c r="I81" s="26"/>
-      <c r="J81" s="26"/>
-      <c r="K81" s="26"/>
-      <c r="L81" s="26"/>
-      <c r="M81" s="27"/>
-      <c r="N81" s="28"/>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G81" s="22">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H81" s="25"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="36"/>
+      <c r="K81" s="25"/>
+      <c r="L81" s="25"/>
+      <c r="M81" s="39"/>
+      <c r="N81" s="39">
+        <v>2</v>
+      </c>
+      <c r="O81" s="26"/>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B82" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="C82" s="23">
+      <c r="C82" s="22">
         <v>317.2</v>
       </c>
-      <c r="D82" s="23">
+      <c r="D82" s="22">
         <v>195</v>
       </c>
-      <c r="E82" s="23"/>
+      <c r="E82" s="22"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="26"/>
-      <c r="I82" s="26"/>
-      <c r="J82" s="26"/>
-      <c r="K82" s="26"/>
-      <c r="L82" s="26"/>
-      <c r="M82" s="27"/>
-      <c r="N82" s="28"/>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G82" s="22">
+        <v>2.1539999999999999</v>
+      </c>
+      <c r="H82" s="25"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="36"/>
+      <c r="K82" s="25"/>
+      <c r="L82" s="25"/>
+      <c r="M82" s="39"/>
+      <c r="N82" s="39">
+        <v>2</v>
+      </c>
+      <c r="O82" s="26"/>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B83" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C83" s="23">
+      <c r="C83" s="22">
         <v>314.5</v>
       </c>
-      <c r="D83" s="23">
+      <c r="D83" s="22">
         <v>195</v>
       </c>
-      <c r="E83" s="23"/>
+      <c r="E83" s="22"/>
       <c r="F83" s="20">
         <f t="shared" ref="F83" si="26">(C83-D83+E83)+(C84-D84+E84)+(C85-D85+E85)</f>
         <v>340.6</v>
       </c>
-      <c r="G83" s="23"/>
-      <c r="H83" s="24">
+      <c r="G83" s="22">
+        <v>1.915</v>
+      </c>
+      <c r="H83" s="23">
         <v>11.414999999999999</v>
       </c>
-      <c r="I83" s="24"/>
-      <c r="J83" s="17">
-        <f>(I83-H83)/$Q$13</f>
-        <v>-14.412878787878785</v>
+      <c r="I83" s="23">
+        <v>16.783899999999999</v>
+      </c>
+      <c r="J83" s="35">
+        <f>(I83-H83)/$R$13</f>
+        <v>6.7789141414141412</v>
       </c>
       <c r="K83" s="17">
-        <f>G83*F83/J83*$Q$12</f>
-        <v>0</v>
+        <f>G83*F83/J83*$R$12</f>
+        <v>62.541262679506048</v>
       </c>
       <c r="L83" s="17">
         <v>0.5</v>
       </c>
-      <c r="M83" s="21" t="e">
+      <c r="M83" s="37">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N83" s="25">
+        <v>7.9947218616653135</v>
+      </c>
+      <c r="N83" s="37">
+        <v>2</v>
+      </c>
+      <c r="O83" s="24">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B84" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="C84" s="23">
+      <c r="C84" s="22">
         <v>306</v>
       </c>
-      <c r="D84" s="23">
+      <c r="D84" s="22">
         <v>196.5</v>
       </c>
-      <c r="E84" s="23"/>
+      <c r="E84" s="22"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="26"/>
-      <c r="I84" s="26"/>
-      <c r="J84" s="26"/>
-      <c r="K84" s="26"/>
-      <c r="L84" s="26"/>
-      <c r="M84" s="27"/>
-      <c r="N84" s="28"/>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G84" s="22">
+        <v>1.8819999999999999</v>
+      </c>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="36"/>
+      <c r="K84" s="25"/>
+      <c r="L84" s="25"/>
+      <c r="M84" s="39"/>
+      <c r="N84" s="39">
+        <v>2</v>
+      </c>
+      <c r="O84" s="26"/>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B85" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="C85" s="23">
+      <c r="C85" s="22">
         <v>308.2</v>
       </c>
-      <c r="D85" s="23">
+      <c r="D85" s="22">
         <v>196.6</v>
       </c>
-      <c r="E85" s="23"/>
+      <c r="E85" s="22"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="23"/>
-      <c r="H85" s="26"/>
-      <c r="I85" s="26"/>
-      <c r="J85" s="26"/>
-      <c r="K85" s="26"/>
-      <c r="L85" s="26"/>
-      <c r="M85" s="27"/>
-      <c r="N85" s="28"/>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G85" s="22">
+        <v>1.948</v>
+      </c>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="36"/>
+      <c r="K85" s="25"/>
+      <c r="L85" s="25"/>
+      <c r="M85" s="39"/>
+      <c r="N85" s="39">
+        <v>2</v>
+      </c>
+      <c r="O85" s="26"/>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B86" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="C86" s="23">
+      <c r="C86" s="22">
         <v>316.5</v>
       </c>
-      <c r="D86" s="23">
+      <c r="D86" s="22">
         <v>195.3</v>
       </c>
-      <c r="E86" s="23"/>
+      <c r="E86" s="22"/>
       <c r="F86" s="20">
         <f t="shared" ref="F86" si="27">(C86-D86+E86)+(C87-D87+E87)+(C88-D88+E88)</f>
         <v>366.1</v>
       </c>
-      <c r="G86" s="23"/>
-      <c r="H86" s="24">
+      <c r="G86" s="22">
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="H86" s="23">
         <v>11.3653</v>
       </c>
-      <c r="I86" s="24"/>
-      <c r="J86" s="17">
-        <f>(I86-H86)/$Q$13</f>
-        <v>-14.350126262626262</v>
+      <c r="I86" s="23">
+        <v>16.706399999999999</v>
+      </c>
+      <c r="J86" s="35">
+        <f>(I86-H86)/$R$13</f>
+        <v>6.7438131313131295</v>
       </c>
       <c r="K86" s="17">
-        <f>G86*F86/J86*$Q$12</f>
-        <v>0</v>
+        <f>G86*F86/J86*$R$12</f>
+        <v>80.347170725131562</v>
       </c>
       <c r="L86" s="17">
         <v>0.5</v>
       </c>
-      <c r="M86" s="21" t="e">
+      <c r="M86" s="37">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N86" s="25">
+        <v>6.2229944811685369</v>
+      </c>
+      <c r="N86" s="37">
+        <v>2</v>
+      </c>
+      <c r="O86" s="24">
         <v>200</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B87" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="C87" s="23">
+      <c r="C87" s="22">
         <v>325.10000000000002</v>
       </c>
-      <c r="D87" s="23">
+      <c r="D87" s="22">
         <v>196.6</v>
       </c>
-      <c r="E87" s="23"/>
+      <c r="E87" s="22"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="23"/>
-      <c r="H87" s="26"/>
-      <c r="I87" s="26"/>
-      <c r="J87" s="26"/>
-      <c r="K87" s="26"/>
-      <c r="L87" s="26"/>
-      <c r="M87" s="27"/>
-      <c r="N87" s="28"/>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G87" s="22">
+        <v>2.2120000000000002</v>
+      </c>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="36"/>
+      <c r="K87" s="25"/>
+      <c r="L87" s="25"/>
+      <c r="M87" s="39"/>
+      <c r="N87" s="39">
+        <v>2</v>
+      </c>
+      <c r="O87" s="26"/>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B88" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="C88" s="23">
+      <c r="C88" s="22">
         <v>312</v>
       </c>
-      <c r="D88" s="23">
+      <c r="D88" s="22">
         <v>195.6</v>
       </c>
-      <c r="E88" s="23"/>
+      <c r="E88" s="22"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="23"/>
-      <c r="H88" s="26"/>
-      <c r="I88" s="26"/>
-      <c r="J88" s="26"/>
-      <c r="K88" s="26"/>
-      <c r="L88" s="26"/>
-      <c r="M88" s="27"/>
-      <c r="N88" s="28"/>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G88" s="22">
+        <v>2.1080000000000001</v>
+      </c>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="36"/>
+      <c r="K88" s="25"/>
+      <c r="L88" s="25"/>
+      <c r="M88" s="39"/>
+      <c r="N88" s="39">
+        <v>2</v>
+      </c>
+      <c r="O88" s="26"/>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B89" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="23">
+      <c r="C89" s="22">
         <v>307.10000000000002</v>
       </c>
-      <c r="D89" s="23">
+      <c r="D89" s="22">
         <v>196.1</v>
       </c>
-      <c r="E89" s="23"/>
+      <c r="E89" s="22"/>
       <c r="F89" s="20">
         <f t="shared" ref="F89" si="28">(C89-D89+E89)+(C90-D90+E90)+(C91-D91+E91)</f>
         <v>361.30000000000007</v>
       </c>
-      <c r="G89" s="23"/>
-      <c r="H89" s="24">
+      <c r="G89" s="22">
+        <v>1.218</v>
+      </c>
+      <c r="H89" s="23">
         <v>11.4458</v>
       </c>
-      <c r="I89" s="24"/>
-      <c r="J89" s="17">
-        <f>(I89-H89)/$Q$13</f>
-        <v>-14.451767676767677</v>
+      <c r="I89" s="23">
+        <v>16.511800000000001</v>
+      </c>
+      <c r="J89" s="35">
+        <f>(I89-H89)/$R$13</f>
+        <v>6.3964646464646471</v>
       </c>
       <c r="K89" s="17">
-        <f>G89*F89/J89*$Q$12</f>
-        <v>0</v>
+        <f>G89*F89/J89*$R$12</f>
+        <v>44.71864159494671</v>
       </c>
       <c r="L89" s="17">
         <v>0.5</v>
       </c>
-      <c r="M89" s="21" t="e">
+      <c r="M89" s="37">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N89" s="25">
+        <v>11.181019417559877</v>
+      </c>
+      <c r="N89" s="37">
+        <v>2</v>
+      </c>
+      <c r="O89" s="24">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B90" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="C90" s="23">
+      <c r="C90" s="22">
         <v>319.3</v>
       </c>
-      <c r="D90" s="23">
+      <c r="D90" s="22">
         <v>195.2</v>
       </c>
-      <c r="E90" s="23"/>
+      <c r="E90" s="22"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="26"/>
-      <c r="I90" s="26"/>
-      <c r="J90" s="26"/>
-      <c r="K90" s="26"/>
-      <c r="L90" s="26"/>
-      <c r="M90" s="27"/>
-      <c r="N90" s="28"/>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G90" s="22">
+        <v>1.23</v>
+      </c>
+      <c r="H90" s="25"/>
+      <c r="I90" s="25"/>
+      <c r="J90" s="36"/>
+      <c r="K90" s="25"/>
+      <c r="L90" s="25"/>
+      <c r="M90" s="39"/>
+      <c r="N90" s="39">
+        <v>2</v>
+      </c>
+      <c r="O90" s="26"/>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B91" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="C91" s="23">
+      <c r="C91" s="22">
         <v>322.39999999999998</v>
       </c>
-      <c r="D91" s="23">
+      <c r="D91" s="22">
         <v>196.2</v>
       </c>
-      <c r="E91" s="23"/>
+      <c r="E91" s="22"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="26"/>
-      <c r="I91" s="26"/>
-      <c r="J91" s="26"/>
-      <c r="K91" s="26"/>
-      <c r="L91" s="26"/>
-      <c r="M91" s="27"/>
-      <c r="N91" s="28"/>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G91" s="22">
+        <v>1.236</v>
+      </c>
+      <c r="H91" s="25"/>
+      <c r="I91" s="25"/>
+      <c r="J91" s="36"/>
+      <c r="K91" s="25"/>
+      <c r="L91" s="25"/>
+      <c r="M91" s="39"/>
+      <c r="N91" s="39">
+        <v>2</v>
+      </c>
+      <c r="O91" s="26"/>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B92" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="C92" s="23">
+      <c r="C92" s="22">
         <v>307.8</v>
       </c>
-      <c r="D92" s="23">
+      <c r="D92" s="22">
         <v>194.5</v>
       </c>
-      <c r="E92" s="23"/>
+      <c r="E92" s="22"/>
       <c r="F92" s="20">
         <f t="shared" ref="F92" si="29">(C92-D92+E92)+(C93-D93+E93)+(C94-D94+E94)</f>
         <v>357.70000000000005</v>
       </c>
-      <c r="G92" s="23"/>
-      <c r="H92" s="24">
+      <c r="G92" s="22">
+        <v>2.177</v>
+      </c>
+      <c r="H92" s="23">
         <v>11.428599999999999</v>
       </c>
-      <c r="I92" s="24"/>
-      <c r="J92" s="17">
-        <f>(I92-H92)/$Q$13</f>
-        <v>-14.430050505050504</v>
+      <c r="I92" s="23">
+        <v>17.1173</v>
+      </c>
+      <c r="J92" s="35">
+        <f>(I92-H92)/$R$13</f>
+        <v>7.1827020202020204</v>
       </c>
       <c r="K92" s="17">
-        <f>G92*F92/J92*$Q$12</f>
-        <v>0</v>
+        <f>G92*F92/J92*$R$12</f>
+        <v>70.469773572169402</v>
       </c>
       <c r="L92" s="17">
         <v>0.5</v>
       </c>
-      <c r="M92" s="21" t="e">
+      <c r="M92" s="37">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N92" s="25">
+        <v>7.095240620972632</v>
+      </c>
+      <c r="N92" s="37">
+        <v>2</v>
+      </c>
+      <c r="O92" s="24">
         <v>200</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B93" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="C93" s="23">
+      <c r="C93" s="22">
         <v>323.60000000000002</v>
       </c>
-      <c r="D93" s="23">
+      <c r="D93" s="22">
         <v>195.7</v>
       </c>
-      <c r="E93" s="23"/>
+      <c r="E93" s="22"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="23"/>
-      <c r="H93" s="26"/>
-      <c r="I93" s="26"/>
-      <c r="J93" s="26"/>
-      <c r="K93" s="26"/>
-      <c r="L93" s="26"/>
-      <c r="M93" s="27"/>
-      <c r="N93" s="28"/>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G93" s="22">
+        <v>2.2149999999999999</v>
+      </c>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="36"/>
+      <c r="K93" s="25"/>
+      <c r="L93" s="25"/>
+      <c r="M93" s="39"/>
+      <c r="N93" s="39">
+        <v>2</v>
+      </c>
+      <c r="O93" s="26"/>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B94" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C94" s="23">
+      <c r="C94" s="22">
         <v>312.89999999999998</v>
       </c>
-      <c r="D94" s="23">
+      <c r="D94" s="22">
         <v>196.4</v>
       </c>
-      <c r="E94" s="23"/>
+      <c r="E94" s="22"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="23"/>
-      <c r="H94" s="26"/>
-      <c r="I94" s="26"/>
-      <c r="J94" s="26"/>
-      <c r="K94" s="26"/>
-      <c r="L94" s="26"/>
-      <c r="M94" s="27"/>
-      <c r="N94" s="28"/>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G94" s="22">
+        <v>2.1970000000000001</v>
+      </c>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="36"/>
+      <c r="K94" s="25"/>
+      <c r="L94" s="25"/>
+      <c r="M94" s="39"/>
+      <c r="N94" s="39">
+        <v>2</v>
+      </c>
+      <c r="O94" s="26"/>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B95" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="C95" s="23">
+      <c r="C95" s="22">
         <v>309.89999999999998</v>
       </c>
-      <c r="D95" s="23">
+      <c r="D95" s="22">
         <v>195.3</v>
       </c>
-      <c r="E95" s="23"/>
+      <c r="E95" s="22"/>
       <c r="F95" s="20">
         <f t="shared" ref="F95" si="30">(C95-D95+E95)+(C96-D96+E96)+(C97-D97+E97)</f>
         <v>366.59999999999991</v>
       </c>
-      <c r="G95" s="23"/>
-      <c r="H95" s="24">
+      <c r="G95" s="22">
+        <v>2.3220000000000001</v>
+      </c>
+      <c r="H95" s="23">
         <v>11.405799999999999</v>
       </c>
-      <c r="I95" s="24"/>
-      <c r="J95" s="17">
-        <f>(I95-H95)/$Q$13</f>
-        <v>-14.401262626262625</v>
+      <c r="I95" s="23">
+        <v>16.579999999999998</v>
+      </c>
+      <c r="J95" s="35">
+        <f>(I95-H95)/$R$13</f>
+        <v>6.5330808080808067</v>
       </c>
       <c r="K95" s="17">
-        <f>G95*F95/J95*$Q$12</f>
-        <v>0</v>
+        <f>G95*F95/J95*$R$12</f>
+        <v>84.693484782188548</v>
       </c>
       <c r="L95" s="17">
         <v>0.5</v>
       </c>
-      <c r="M95" s="21" t="e">
+      <c r="M95" s="37">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N95" s="25">
+        <v>5.9036418360382834</v>
+      </c>
+      <c r="N95" s="37">
+        <v>2</v>
+      </c>
+      <c r="O95" s="24">
         <v>200</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B96" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="C96" s="23">
+      <c r="C96" s="22">
         <v>330</v>
       </c>
-      <c r="D96" s="23">
+      <c r="D96" s="22">
         <v>196.9</v>
       </c>
-      <c r="E96" s="23"/>
+      <c r="E96" s="22"/>
       <c r="F96" s="20"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="26"/>
-      <c r="I96" s="26"/>
-      <c r="J96" s="26"/>
-      <c r="K96" s="26"/>
-      <c r="L96" s="26"/>
-      <c r="M96" s="27"/>
-      <c r="N96" s="28"/>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G96" s="22">
+        <v>2.3879999999999999</v>
+      </c>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="36"/>
+      <c r="K96" s="25"/>
+      <c r="L96" s="25"/>
+      <c r="M96" s="39"/>
+      <c r="N96" s="39">
+        <v>2</v>
+      </c>
+      <c r="O96" s="26"/>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B97" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="C97" s="23">
+      <c r="C97" s="22">
         <v>314.2</v>
       </c>
-      <c r="D97" s="23">
+      <c r="D97" s="22">
         <v>195.3</v>
       </c>
-      <c r="E97" s="23"/>
+      <c r="E97" s="22"/>
       <c r="F97" s="20"/>
-      <c r="G97" s="23"/>
-      <c r="H97" s="26"/>
-      <c r="I97" s="26"/>
-      <c r="J97" s="26"/>
-      <c r="K97" s="26"/>
-      <c r="L97" s="26"/>
-      <c r="M97" s="27"/>
-      <c r="N97" s="28"/>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G97" s="22">
+        <v>2.254</v>
+      </c>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="36"/>
+      <c r="K97" s="25"/>
+      <c r="L97" s="25"/>
+      <c r="M97" s="39"/>
+      <c r="N97" s="39">
+        <v>2</v>
+      </c>
+      <c r="O97" s="26"/>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B98" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="C98" s="23">
+      <c r="C98" s="22">
         <v>309.60000000000002</v>
       </c>
-      <c r="D98" s="23">
+      <c r="D98" s="22">
         <v>194.8</v>
       </c>
-      <c r="E98" s="23"/>
+      <c r="E98" s="22"/>
       <c r="F98" s="20">
         <f t="shared" ref="F98" si="31">(C98-D98+E98)+(C99-D99+E99)+(C100-D100+E100)</f>
         <v>238.50000000000003</v>
       </c>
-      <c r="G98" s="23"/>
-      <c r="H98" s="24">
+      <c r="G98" s="22">
+        <v>2.1850000000000001</v>
+      </c>
+      <c r="H98" s="23">
         <v>11.3872</v>
       </c>
-      <c r="I98" s="24"/>
-      <c r="J98" s="17">
-        <f>(I98-H98)/$Q$13</f>
-        <v>-14.377777777777776</v>
+      <c r="I98" s="23">
+        <v>16.828800000000001</v>
+      </c>
+      <c r="J98" s="35">
+        <f>(I98-H98)/$R$13</f>
+        <v>6.8707070707070717</v>
       </c>
       <c r="K98" s="17">
-        <f>G98*F98/J98*$Q$12</f>
-        <v>0</v>
+        <f>G98*F98/J98*$R$12</f>
+        <v>49.300548184357538</v>
       </c>
       <c r="L98" s="17">
         <v>0.5</v>
       </c>
-      <c r="M98" s="21" t="e">
+      <c r="M98" s="37">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N98" s="25">
+        <v>10.141875058473364</v>
+      </c>
+      <c r="N98" s="37">
+        <v>2</v>
+      </c>
+      <c r="O98" s="24">
         <v>200</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B99" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="C99" s="23">
+      <c r="C99" s="22">
         <v>319.60000000000002</v>
       </c>
-      <c r="D99" s="23">
+      <c r="D99" s="22">
         <v>195.9</v>
       </c>
-      <c r="E99" s="23"/>
+      <c r="E99" s="22"/>
       <c r="F99" s="20"/>
-      <c r="G99" s="23"/>
-      <c r="H99" s="26"/>
-      <c r="I99" s="26"/>
-      <c r="J99" s="26"/>
-      <c r="K99" s="26"/>
-      <c r="L99" s="26"/>
-      <c r="M99" s="27"/>
-      <c r="N99" s="28"/>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G99" s="22">
+        <v>2.1110000000000002</v>
+      </c>
+      <c r="H99" s="25"/>
+      <c r="I99" s="25"/>
+      <c r="J99" s="36"/>
+      <c r="K99" s="25"/>
+      <c r="L99" s="25"/>
+      <c r="M99" s="39"/>
+      <c r="N99" s="39">
+        <v>2</v>
+      </c>
+      <c r="O99" s="26"/>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B100" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="C100" s="23"/>
-      <c r="D100" s="23"/>
-      <c r="E100" s="23"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="22"/>
+      <c r="E100" s="22"/>
       <c r="F100" s="20"/>
-      <c r="G100" s="23"/>
-      <c r="H100" s="26"/>
-      <c r="I100" s="26"/>
-      <c r="J100" s="26"/>
-      <c r="K100" s="26"/>
-      <c r="L100" s="26"/>
-      <c r="M100" s="27"/>
-      <c r="N100" s="28"/>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G100" s="22"/>
+      <c r="H100" s="25"/>
+      <c r="I100" s="25"/>
+      <c r="J100" s="36"/>
+      <c r="K100" s="25"/>
+      <c r="L100" s="25"/>
+      <c r="M100" s="39"/>
+      <c r="N100" s="39">
+        <v>2</v>
+      </c>
+      <c r="O100" s="26"/>
+    </row>
+    <row r="101" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B101" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C101" s="23">
+      <c r="C101" s="22">
         <v>309.7</v>
       </c>
-      <c r="D101" s="23">
+      <c r="D101" s="22">
         <v>195.1</v>
       </c>
-      <c r="E101" s="23"/>
+      <c r="E101" s="22"/>
       <c r="F101" s="20">
         <f t="shared" ref="F101" si="32">(C101-D101+E101)+(C102-D102+E102)+(C103-D103+E103)</f>
         <v>362.90000000000003</v>
       </c>
-      <c r="G101" s="23"/>
-      <c r="H101" s="24">
+      <c r="G101" s="22">
+        <v>1.907</v>
+      </c>
+      <c r="H101" s="23">
         <v>11.353999999999999</v>
       </c>
-      <c r="I101" s="24"/>
-      <c r="J101" s="17">
-        <f>(I101-H101)/$Q$13</f>
-        <v>-14.335858585858585</v>
+      <c r="I101" s="23">
+        <v>17.435700000000001</v>
+      </c>
+      <c r="J101" s="35">
+        <f>(I101-H101)/$R$13</f>
+        <v>7.6789141414141433</v>
       </c>
       <c r="K101" s="17">
-        <f>G101*F101/J101*$Q$12</f>
-        <v>0</v>
+        <f>G101*F101/J101*$R$12</f>
+        <v>58.580248029333895</v>
       </c>
       <c r="L101" s="17">
         <v>0.5</v>
       </c>
-      <c r="M101" s="21" t="e">
+      <c r="M101" s="37">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N101" s="25">
+        <v>8.5353001535539157</v>
+      </c>
+      <c r="N101" s="37">
+        <v>2</v>
+      </c>
+      <c r="O101" s="24">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B102" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="C102" s="23">
+      <c r="C102" s="22">
         <v>320.60000000000002</v>
       </c>
-      <c r="D102" s="23">
+      <c r="D102" s="22">
         <v>196</v>
       </c>
-      <c r="E102" s="23"/>
+      <c r="E102" s="22"/>
       <c r="F102" s="20"/>
-      <c r="G102" s="23"/>
-      <c r="H102" s="26"/>
-      <c r="I102" s="26"/>
-      <c r="J102" s="26"/>
-      <c r="K102" s="26"/>
-      <c r="L102" s="26"/>
-      <c r="M102" s="27"/>
-      <c r="N102" s="28"/>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G102" s="22">
+        <v>1.73</v>
+      </c>
+      <c r="H102" s="25"/>
+      <c r="I102" s="25"/>
+      <c r="J102" s="36"/>
+      <c r="K102" s="25"/>
+      <c r="L102" s="25"/>
+      <c r="M102" s="39"/>
+      <c r="N102" s="39">
+        <v>2</v>
+      </c>
+      <c r="O102" s="26"/>
+    </row>
+    <row r="103" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B103" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C103" s="23">
+      <c r="C103" s="22">
         <v>320.60000000000002</v>
       </c>
-      <c r="D103" s="23">
+      <c r="D103" s="22">
         <v>196.9</v>
       </c>
-      <c r="E103" s="23"/>
+      <c r="E103" s="22"/>
       <c r="F103" s="20"/>
-      <c r="G103" s="23"/>
-      <c r="H103" s="26"/>
-      <c r="I103" s="26"/>
-      <c r="J103" s="26"/>
-      <c r="K103" s="26"/>
-      <c r="L103" s="26"/>
-      <c r="M103" s="27"/>
-      <c r="N103" s="28"/>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G103" s="22">
+        <v>1.7669999999999999</v>
+      </c>
+      <c r="H103" s="25"/>
+      <c r="I103" s="25"/>
+      <c r="J103" s="36"/>
+      <c r="K103" s="25"/>
+      <c r="L103" s="25"/>
+      <c r="M103" s="39"/>
+      <c r="N103" s="39">
+        <v>2</v>
+      </c>
+      <c r="O103" s="26"/>
+    </row>
+    <row r="104" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B104" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="C104" s="23">
+      <c r="C104" s="22">
         <v>304.10000000000002</v>
       </c>
-      <c r="D104" s="23">
+      <c r="D104" s="22">
         <v>196</v>
       </c>
-      <c r="E104" s="23"/>
+      <c r="E104" s="22"/>
       <c r="F104" s="20">
         <f t="shared" ref="F104" si="33">(C104-D104+E104)+(C105-D105+E105)+(C106-D106+E106)</f>
         <v>230.10000000000002</v>
       </c>
-      <c r="G104" s="23"/>
-      <c r="H104" s="24">
+      <c r="G104" s="22">
+        <v>2.2229999999999999</v>
+      </c>
+      <c r="H104" s="23">
         <v>11.4353</v>
       </c>
-      <c r="I104" s="24"/>
-      <c r="J104" s="17">
-        <f>(I104-H104)/$Q$13</f>
-        <v>-14.438510101010101</v>
+      <c r="I104" s="23">
+        <v>17.8491</v>
+      </c>
+      <c r="J104" s="35">
+        <f>(I104-H104)/$R$13</f>
+        <v>8.0982323232323239</v>
       </c>
       <c r="K104" s="17">
-        <f>G104*F104/J104*$Q$12</f>
-        <v>0</v>
+        <f>G104*F104/J104*$R$12</f>
+        <v>41.05624310705042</v>
       </c>
       <c r="L104" s="17">
         <v>0.5</v>
       </c>
-      <c r="M104" s="21" t="e">
+      <c r="M104" s="37">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N104" s="25">
+        <v>12.178415806246456</v>
+      </c>
+      <c r="N104" s="37">
+        <v>2</v>
+      </c>
+      <c r="O104" s="24">
         <v>200</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B105" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="C105" s="23">
+      <c r="C105" s="22">
         <v>319.3</v>
       </c>
-      <c r="D105" s="23">
+      <c r="D105" s="22">
         <v>197.3</v>
       </c>
-      <c r="E105" s="23"/>
+      <c r="E105" s="22"/>
       <c r="F105" s="20"/>
-      <c r="G105" s="23"/>
-      <c r="H105" s="26"/>
-      <c r="I105" s="26"/>
-      <c r="J105" s="26"/>
-      <c r="K105" s="26"/>
-      <c r="L105" s="26"/>
-      <c r="M105" s="27"/>
-      <c r="N105" s="28"/>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G105" s="22">
+        <v>2.1240000000000001</v>
+      </c>
+      <c r="H105" s="25"/>
+      <c r="I105" s="25"/>
+      <c r="J105" s="36"/>
+      <c r="K105" s="25"/>
+      <c r="L105" s="25"/>
+      <c r="M105" s="39"/>
+      <c r="N105" s="39">
+        <v>2</v>
+      </c>
+      <c r="O105" s="26"/>
+    </row>
+    <row r="106" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B106" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="C106" s="23"/>
-      <c r="D106" s="23"/>
-      <c r="E106" s="23"/>
+      <c r="C106" s="22"/>
+      <c r="D106" s="22"/>
+      <c r="E106" s="22"/>
       <c r="F106" s="20"/>
-      <c r="G106" s="23"/>
-      <c r="H106" s="26"/>
-      <c r="I106" s="26"/>
-      <c r="J106" s="26"/>
-      <c r="K106" s="26"/>
-      <c r="L106" s="26"/>
-      <c r="M106" s="27"/>
-      <c r="N106" s="28"/>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G106" s="22"/>
+      <c r="H106" s="25"/>
+      <c r="I106" s="25"/>
+      <c r="J106" s="36"/>
+      <c r="K106" s="25"/>
+      <c r="L106" s="25"/>
+      <c r="M106" s="39"/>
+      <c r="N106" s="39">
+        <v>2</v>
+      </c>
+      <c r="O106" s="26"/>
+    </row>
+    <row r="107" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B107" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="C107" s="23">
+      <c r="C107" s="22">
         <v>317.60000000000002</v>
       </c>
-      <c r="D107" s="23">
+      <c r="D107" s="22">
         <v>196</v>
       </c>
-      <c r="E107" s="23"/>
+      <c r="E107" s="22"/>
       <c r="F107" s="20">
         <f t="shared" ref="F107" si="34">(C107-D107+E107)+(C108-D108+E108)+(C109-D109+E109)</f>
         <v>241.20000000000005</v>
       </c>
-      <c r="G107" s="23"/>
-      <c r="H107" s="24">
+      <c r="G107" s="22">
+        <v>1.4</v>
+      </c>
+      <c r="H107" s="23">
         <v>11.4101</v>
       </c>
-      <c r="I107" s="24"/>
-      <c r="J107" s="17">
-        <f>(I107-H107)/$Q$13</f>
-        <v>-14.406691919191918</v>
+      <c r="I107" s="23">
+        <v>17.336400000000001</v>
+      </c>
+      <c r="J107" s="35">
+        <f>(I107-H107)/$R$13</f>
+        <v>7.4827020202020211</v>
       </c>
       <c r="K107" s="17">
-        <f>G107*F107/J107*$Q$12</f>
-        <v>0</v>
+        <f>G107*F107/J107*$R$12</f>
+        <v>29.333254138332517</v>
       </c>
       <c r="L107" s="17">
         <v>0.5</v>
       </c>
-      <c r="M107" s="21" t="e">
+      <c r="M107" s="37">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N107" s="25">
+        <v>17.045500565401063</v>
+      </c>
+      <c r="N107" s="37">
+        <v>2</v>
+      </c>
+      <c r="O107" s="24">
         <v>200</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B108" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="C108" s="23">
+      <c r="C108" s="22">
         <v>315.8</v>
       </c>
-      <c r="D108" s="23">
+      <c r="D108" s="22">
         <v>196.2</v>
       </c>
-      <c r="E108" s="23"/>
+      <c r="E108" s="22"/>
       <c r="F108" s="20"/>
-      <c r="G108" s="23"/>
-      <c r="H108" s="26"/>
-      <c r="I108" s="26"/>
-      <c r="J108" s="26"/>
-      <c r="K108" s="26"/>
-      <c r="L108" s="26"/>
-      <c r="M108" s="27"/>
-      <c r="N108" s="28"/>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G108" s="22">
+        <v>1.208</v>
+      </c>
+      <c r="H108" s="25"/>
+      <c r="I108" s="25"/>
+      <c r="J108" s="36"/>
+      <c r="K108" s="25"/>
+      <c r="L108" s="25"/>
+      <c r="M108" s="39"/>
+      <c r="N108" s="39">
+        <v>2</v>
+      </c>
+      <c r="O108" s="26"/>
+    </row>
+    <row r="109" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B109" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="C109" s="23"/>
-      <c r="D109" s="23"/>
-      <c r="E109" s="23"/>
+      <c r="C109" s="22"/>
+      <c r="D109" s="22"/>
+      <c r="E109" s="22"/>
       <c r="F109" s="20"/>
-      <c r="G109" s="23"/>
-      <c r="H109" s="26"/>
-      <c r="I109" s="26"/>
-      <c r="J109" s="26"/>
-      <c r="K109" s="26"/>
-      <c r="L109" s="26"/>
-      <c r="M109" s="27"/>
-      <c r="N109" s="28"/>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G109" s="22"/>
+      <c r="H109" s="25"/>
+      <c r="I109" s="25"/>
+      <c r="J109" s="36"/>
+      <c r="K109" s="25"/>
+      <c r="L109" s="25"/>
+      <c r="M109" s="39"/>
+      <c r="N109" s="39">
+        <v>2</v>
+      </c>
+      <c r="O109" s="26"/>
+    </row>
+    <row r="110" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B110" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="C110" s="23">
+      <c r="C110" s="22">
         <v>310</v>
       </c>
-      <c r="D110" s="23">
+      <c r="D110" s="22">
         <v>196.1</v>
       </c>
-      <c r="E110" s="23"/>
+      <c r="E110" s="22"/>
       <c r="F110" s="20">
         <f t="shared" ref="F110" si="35">(C110-D110+E110)+(C111-D111+E111)+(C112-D112+E112)</f>
         <v>237.90000000000003</v>
       </c>
-      <c r="G110" s="23"/>
-      <c r="H110" s="24">
+      <c r="G110" s="22">
+        <v>2.2010000000000001</v>
+      </c>
+      <c r="H110" s="23">
         <v>11.373200000000001</v>
       </c>
-      <c r="I110" s="24"/>
-      <c r="J110" s="17">
-        <f>(I110-H110)/$Q$13</f>
-        <v>-14.36010101010101</v>
+      <c r="I110" s="23">
+        <v>17.335999999999999</v>
+      </c>
+      <c r="J110" s="35">
+        <f>(I110-H110)/$R$13</f>
+        <v>7.5287878787878757</v>
       </c>
       <c r="K110" s="17">
-        <f>G110*F110/J110*$Q$12</f>
-        <v>0</v>
+        <f>G110*F110/J110*$R$12</f>
+        <v>45.20669734352991</v>
       </c>
       <c r="L110" s="17">
         <v>0.5</v>
       </c>
-      <c r="M110" s="21" t="e">
+      <c r="M110" s="37">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N110" s="25">
+        <v>11.060308082239528</v>
+      </c>
+      <c r="N110" s="37">
+        <v>2</v>
+      </c>
+      <c r="O110" s="24">
         <v>200</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B111" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="C111" s="23">
+      <c r="C111" s="22">
         <v>320.60000000000002</v>
       </c>
-      <c r="D111" s="23">
+      <c r="D111" s="22">
         <v>196.6</v>
       </c>
-      <c r="E111" s="23"/>
+      <c r="E111" s="22"/>
       <c r="F111" s="20"/>
-      <c r="G111" s="23"/>
-      <c r="H111" s="26"/>
-      <c r="I111" s="26"/>
-      <c r="J111" s="26"/>
-      <c r="K111" s="26"/>
-      <c r="L111" s="26"/>
-      <c r="M111" s="27"/>
-      <c r="N111" s="28"/>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G111" s="22">
+        <v>2.2229999999999999</v>
+      </c>
+      <c r="H111" s="25"/>
+      <c r="I111" s="25"/>
+      <c r="J111" s="36"/>
+      <c r="K111" s="25"/>
+      <c r="L111" s="25"/>
+      <c r="M111" s="39"/>
+      <c r="N111" s="39">
+        <v>2</v>
+      </c>
+      <c r="O111" s="26"/>
+    </row>
+    <row r="112" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B112" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C112" s="23"/>
-      <c r="D112" s="23"/>
-      <c r="E112" s="23"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="22"/>
+      <c r="E112" s="22"/>
       <c r="F112" s="20"/>
-      <c r="G112" s="23"/>
-      <c r="H112" s="26"/>
-      <c r="I112" s="26"/>
-      <c r="J112" s="26"/>
-      <c r="K112" s="26"/>
-      <c r="L112" s="26"/>
-      <c r="M112" s="27"/>
-      <c r="N112" s="28"/>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G112" s="22"/>
+      <c r="H112" s="25"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="36"/>
+      <c r="K112" s="25"/>
+      <c r="L112" s="25"/>
+      <c r="M112" s="39"/>
+      <c r="N112" s="39">
+        <v>2</v>
+      </c>
+      <c r="O112" s="26"/>
+    </row>
+    <row r="113" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B113" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="C113" s="23">
+      <c r="C113" s="22">
         <v>319.5</v>
       </c>
-      <c r="D113" s="23">
+      <c r="D113" s="22">
         <v>194.9</v>
       </c>
-      <c r="E113" s="23"/>
+      <c r="E113" s="22"/>
       <c r="F113" s="20">
         <f t="shared" ref="F113" si="36">(C113-D113+E113)+(C114-D114+E114)+(C115-D115+E115)</f>
         <v>243.8</v>
       </c>
-      <c r="G113" s="23"/>
-      <c r="H113" s="24">
+      <c r="G113" s="22">
+        <v>2.3380000000000001</v>
+      </c>
+      <c r="H113" s="23">
         <v>11.3803</v>
       </c>
-      <c r="I113" s="24"/>
-      <c r="J113" s="17">
-        <f>(I113-H113)/$Q$13</f>
-        <v>-14.369065656565656</v>
+      <c r="I113" s="23">
+        <v>16.9541</v>
+      </c>
+      <c r="J113" s="35">
+        <f>(I113-H113)/$R$13</f>
+        <v>7.0376262626262625</v>
       </c>
       <c r="K113" s="17">
-        <f>G113*F113/J113*$Q$12</f>
-        <v>0</v>
+        <f>G113*F113/J113*$R$12</f>
+        <v>52.645998263303319</v>
       </c>
       <c r="L113" s="17">
         <v>0.5</v>
       </c>
-      <c r="M113" s="21" t="e">
+      <c r="M113" s="37">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N113" s="25">
+        <v>9.4973980263286801</v>
+      </c>
+      <c r="N113" s="37">
+        <v>2</v>
+      </c>
+      <c r="O113" s="24">
         <v>200</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B114" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="C114" s="23">
+      <c r="C114" s="22">
         <v>315.10000000000002</v>
       </c>
-      <c r="D114" s="23">
+      <c r="D114" s="22">
         <v>195.9</v>
       </c>
-      <c r="E114" s="23"/>
+      <c r="E114" s="22"/>
       <c r="F114" s="20"/>
-      <c r="G114" s="23"/>
-      <c r="H114" s="26"/>
-      <c r="I114" s="26"/>
-      <c r="J114" s="26"/>
-      <c r="K114" s="26"/>
-      <c r="L114" s="26"/>
-      <c r="M114" s="27"/>
-      <c r="N114" s="28"/>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G114" s="22">
+        <v>2.2130000000000001</v>
+      </c>
+      <c r="H114" s="25"/>
+      <c r="I114" s="25"/>
+      <c r="J114" s="36"/>
+      <c r="K114" s="25"/>
+      <c r="L114" s="25"/>
+      <c r="M114" s="39"/>
+      <c r="N114" s="39">
+        <v>2</v>
+      </c>
+      <c r="O114" s="26"/>
+    </row>
+    <row r="115" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B115" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="C115" s="23"/>
-      <c r="D115" s="23"/>
-      <c r="E115" s="23"/>
+      <c r="C115" s="22"/>
+      <c r="D115" s="22"/>
+      <c r="E115" s="22"/>
       <c r="F115" s="20"/>
-      <c r="G115" s="23"/>
-      <c r="H115" s="26"/>
-      <c r="I115" s="26"/>
-      <c r="J115" s="26"/>
-      <c r="K115" s="26"/>
-      <c r="L115" s="26"/>
-      <c r="M115" s="27"/>
-      <c r="N115" s="28"/>
+      <c r="G115" s="22"/>
+      <c r="H115" s="25"/>
+      <c r="I115" s="25"/>
+      <c r="J115" s="36"/>
+      <c r="K115" s="25"/>
+      <c r="L115" s="25"/>
+      <c r="M115" s="39"/>
+      <c r="N115" s="39">
+        <v>2</v>
+      </c>
+      <c r="O115" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5045,6 +5695,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AF8045772F8A9D428F3DDA03D4CF38BB" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3e593644806cf2aa5f06f7c542fb9f5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c2d3784a-b498-45a5-af37-f3568c01f295" xmlns:ns3="cd752284-b77b-4839-9286-3797e50d74da" xmlns:ns4="5cece13e-3376-4417-9525-be60b11a89a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ae84d7ee1a3aa06357cf6094fc16b04" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="c2d3784a-b498-45a5-af37-f3568c01f295"/>
@@ -5284,15 +5943,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1337DAAD-69BC-4CBD-8BBD-32CFE73FF228}">
   <ds:schemaRefs>
@@ -5305,6 +5955,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97789A8D-168F-4B70-A261-D35A709F8415}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B7A5B69-7776-43B5-B73B-FF17F3C6EAE5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5322,12 +5980,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97789A8D-168F-4B70-A261-D35A709F8415}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>